--- a/气象/蒙古存档.xlsx
+++ b/气象/蒙古存档.xlsx
@@ -38,25 +38,52 @@
       <charset val="134"/>
       <family val="3"/>
       <b val="1"/>
-      <color theme="1"/>
+      <color rgb="FFFFFF00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -65,17 +92,26 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -455,82 +491,83 @@
   </sheetPr>
   <dimension ref="A1:N351"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A230" workbookViewId="0">
-      <selection activeCell="E241" sqref="E241"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A234" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F248" sqref="F248"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.9" outlineLevelCol="0"/>
   <cols>
-    <col width="12.59765625" customWidth="1" style="3" min="1" max="1"/>
+    <col width="12.59765625" customWidth="1" style="2" min="1" max="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" s="2">
-      <c r="A1" s="2" t="inlineStr">
+    <row r="1" ht="24" customFormat="1" customHeight="1" s="4">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>日期</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>特斯uvs</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>东戈壁</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>特斯zav</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>台勒门</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>鄂特冈</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>查干诺尔</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>尧勒</t>
         </is>
       </c>
-      <c r="I1" s="2" t="inlineStr">
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>乌兰固木</t>
         </is>
       </c>
-      <c r="J1" s="2" t="inlineStr">
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>巴彦特斯</t>
         </is>
       </c>
-      <c r="K1" s="2" t="inlineStr">
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>车臣乌拉</t>
         </is>
       </c>
-      <c r="L1" s="2" t="inlineStr">
+      <c r="L1" s="3" t="inlineStr">
         <is>
           <t>陶松臣格勒</t>
         </is>
       </c>
-      <c r="M1" s="2" t="inlineStr">
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>仁钦隆勃</t>
         </is>
       </c>
-      <c r="N1" s="2" t="inlineStr">
+      <c r="N1" s="3" t="inlineStr">
         <is>
           <t>乌兰巴托</t>
         </is>
@@ -11142,43 +11179,43 @@
       <c r="A235" s="1" t="n">
         <v>45994</v>
       </c>
-      <c r="B235" t="n">
+      <c r="B235" s="0" t="n">
         <v>-26.8</v>
       </c>
-      <c r="C235" t="n">
+      <c r="C235" s="0" t="n">
         <v>-30.7</v>
       </c>
-      <c r="D235" t="n">
+      <c r="D235" s="0" t="n">
         <v>-27.2</v>
       </c>
-      <c r="E235" t="n">
+      <c r="E235" s="0" t="n">
         <v>-30.4</v>
       </c>
-      <c r="F235" t="n">
+      <c r="F235" s="0" t="n">
         <v>-31.3</v>
       </c>
-      <c r="G235" t="n">
+      <c r="G235" s="0" t="n">
         <v>-28.3</v>
       </c>
-      <c r="H235" t="n">
+      <c r="H235" s="0" t="n">
         <v>-32.2</v>
       </c>
-      <c r="I235" t="n">
+      <c r="I235" s="0" t="n">
         <v>-20.9</v>
       </c>
-      <c r="J235" t="n">
+      <c r="J235" s="0" t="n">
         <v>-27.8</v>
       </c>
-      <c r="K235" t="n">
+      <c r="K235" s="0" t="n">
         <v>-29.6</v>
       </c>
-      <c r="L235" t="n">
+      <c r="L235" s="0" t="n">
         <v>-29.5</v>
       </c>
-      <c r="M235" t="n">
+      <c r="M235" s="0" t="n">
         <v>-30.2</v>
       </c>
-      <c r="N235" t="n">
+      <c r="N235" s="0" t="n">
         <v>-24.8</v>
       </c>
     </row>
@@ -11186,20 +11223,176 @@
       <c r="A236" s="1" t="n">
         <v>45995</v>
       </c>
+      <c r="B236" s="0" t="n">
+        <v>-26.8</v>
+      </c>
+      <c r="C236" s="0" t="n">
+        <v>-31</v>
+      </c>
+      <c r="D236" s="0" t="n">
+        <v>-31.3</v>
+      </c>
+      <c r="E236" s="0" t="n">
+        <v>-30.9</v>
+      </c>
+      <c r="F236" s="0" t="n">
+        <v>-33.9</v>
+      </c>
+      <c r="G236" s="0" t="n">
+        <v>-31</v>
+      </c>
+      <c r="H236" s="0" t="n">
+        <v>-28.6</v>
+      </c>
+      <c r="I236" s="0" t="n">
+        <v>-17.8</v>
+      </c>
+      <c r="J236" s="0" t="n">
+        <v>-28.8</v>
+      </c>
+      <c r="K236" s="0" t="n">
+        <v>-29.1</v>
+      </c>
+      <c r="L236" s="0" t="n">
+        <v>-31.9</v>
+      </c>
+      <c r="M236" s="0" t="n">
+        <v>-33.3</v>
+      </c>
+      <c r="N236" s="0" t="n">
+        <v>-22.2</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
         <v>45996</v>
       </c>
+      <c r="B237" s="0" t="n">
+        <v>-21.3</v>
+      </c>
+      <c r="C237" s="0" t="n">
+        <v>-24.3</v>
+      </c>
+      <c r="D237" s="0" t="n">
+        <v>-26.3</v>
+      </c>
+      <c r="E237" s="0" t="n">
+        <v>-24.9</v>
+      </c>
+      <c r="F237" s="0" t="n">
+        <v>-29.9</v>
+      </c>
+      <c r="G237" s="0" t="n">
+        <v>-30.2</v>
+      </c>
+      <c r="H237" s="0" t="n">
+        <v>-25.7</v>
+      </c>
+      <c r="I237" s="0" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J237" s="0" t="n">
+        <v>-27.8</v>
+      </c>
+      <c r="K237" s="0" t="n">
+        <v>-15.2</v>
+      </c>
+      <c r="L237" s="0" t="n">
+        <v>-29.3</v>
+      </c>
+      <c r="M237" s="0" t="n">
+        <v>-31.2</v>
+      </c>
+      <c r="N237" s="0" t="n">
+        <v>-21.1</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
         <v>45997</v>
       </c>
+      <c r="B238" s="0" t="n">
+        <v>-25.8</v>
+      </c>
+      <c r="C238" s="0" t="n">
+        <v>-26.3</v>
+      </c>
+      <c r="D238" s="0" t="n">
+        <v>-28</v>
+      </c>
+      <c r="E238" s="0" t="n">
+        <v>-23.5</v>
+      </c>
+      <c r="F238" s="0" t="n">
+        <v>-18.1</v>
+      </c>
+      <c r="G238" s="0" t="n">
+        <v>-27.9</v>
+      </c>
+      <c r="H238" s="0" t="n">
+        <v>-24.5</v>
+      </c>
+      <c r="I238" s="0" t="n">
+        <v>-25</v>
+      </c>
+      <c r="J238" s="0" t="n">
+        <v>-22.9</v>
+      </c>
+      <c r="K238" s="0" t="n">
+        <v>-15</v>
+      </c>
+      <c r="L238" s="0" t="n">
+        <v>-23.4</v>
+      </c>
+      <c r="M238" s="0" t="n">
+        <v>-30.2</v>
+      </c>
+      <c r="N238" s="0" t="n">
+        <v>-18.4</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
         <v>45998</v>
+      </c>
+      <c r="B239" t="n">
+        <v>-25.7</v>
+      </c>
+      <c r="C239" t="n">
+        <v>-30.1</v>
+      </c>
+      <c r="D239" t="n">
+        <v>-31</v>
+      </c>
+      <c r="E239" t="n">
+        <v>-27.4</v>
+      </c>
+      <c r="F239" t="n">
+        <v>-29.1</v>
+      </c>
+      <c r="G239" t="n">
+        <v>-25.9</v>
+      </c>
+      <c r="H239" t="n">
+        <v>-20.8</v>
+      </c>
+      <c r="I239" t="n">
+        <v>-23.1</v>
+      </c>
+      <c r="J239" t="n">
+        <v>-32</v>
+      </c>
+      <c r="K239" t="n">
+        <v>-31.2</v>
+      </c>
+      <c r="L239" t="n">
+        <v>-27.8</v>
+      </c>
+      <c r="M239" t="n">
+        <v>-28.3</v>
+      </c>
+      <c r="N239" t="n">
+        <v>-17.2</v>
       </c>
     </row>
     <row r="240">
@@ -11775,82 +11968,83 @@
   </sheetPr>
   <dimension ref="A1:N351"/>
   <sheetViews>
-    <sheetView topLeftCell="A230" workbookViewId="0">
-      <selection activeCell="E242" sqref="E242"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A234" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F249" sqref="F249"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.9" outlineLevelCol="0"/>
   <cols>
-    <col width="12.59765625" customWidth="1" style="3" min="1" max="1"/>
+    <col width="12.59765625" customWidth="1" style="2" min="1" max="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" s="2">
-      <c r="A1" s="2" t="inlineStr">
+    <row r="1" ht="24" customFormat="1" customHeight="1" s="6">
+      <c r="A1" s="5" t="inlineStr">
         <is>
           <t>日期</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="5" t="inlineStr">
         <is>
           <t>特斯uvs</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="5" t="inlineStr">
         <is>
           <t>东戈壁</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="5" t="inlineStr">
         <is>
           <t>特斯zav</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="5" t="inlineStr">
         <is>
           <t>台勒门</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="5" t="inlineStr">
         <is>
           <t>鄂特冈</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G1" s="5" t="inlineStr">
         <is>
           <t>查干诺尔</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="H1" s="5" t="inlineStr">
         <is>
           <t>尧勒</t>
         </is>
       </c>
-      <c r="I1" s="2" t="inlineStr">
+      <c r="I1" s="5" t="inlineStr">
         <is>
           <t>乌兰固木</t>
         </is>
       </c>
-      <c r="J1" s="2" t="inlineStr">
+      <c r="J1" s="5" t="inlineStr">
         <is>
           <t>巴彦特斯</t>
         </is>
       </c>
-      <c r="K1" s="2" t="inlineStr">
+      <c r="K1" s="5" t="inlineStr">
         <is>
           <t>车臣乌拉</t>
         </is>
       </c>
-      <c r="L1" s="2" t="inlineStr">
+      <c r="L1" s="5" t="inlineStr">
         <is>
           <t>陶松臣格勒</t>
         </is>
       </c>
-      <c r="M1" s="2" t="inlineStr">
+      <c r="M1" s="5" t="inlineStr">
         <is>
           <t>仁钦隆勃</t>
         </is>
       </c>
-      <c r="N1" s="2" t="inlineStr">
+      <c r="N1" s="5" t="inlineStr">
         <is>
           <t>乌兰巴托</t>
         </is>
@@ -22460,43 +22654,43 @@
       <c r="A235" s="1" t="n">
         <v>45994</v>
       </c>
-      <c r="B235" t="n">
+      <c r="B235" s="0" t="n">
         <v>-19.5</v>
       </c>
-      <c r="C235" t="n">
+      <c r="C235" s="0" t="n">
         <v>-22.3</v>
       </c>
-      <c r="D235" t="n">
+      <c r="D235" s="0" t="n">
         <v>-21.3</v>
       </c>
-      <c r="E235" t="n">
+      <c r="E235" s="0" t="n">
         <v>-20.1</v>
       </c>
-      <c r="F235" t="n">
+      <c r="F235" s="0" t="n">
         <v>-20.3</v>
       </c>
-      <c r="G235" t="n">
+      <c r="G235" s="0" t="n">
         <v>-21.8</v>
       </c>
-      <c r="H235" t="n">
+      <c r="H235" s="0" t="n">
         <v>-17.5</v>
       </c>
-      <c r="I235" t="n">
+      <c r="I235" s="0" t="n">
         <v>-12.9</v>
       </c>
-      <c r="J235" t="n">
+      <c r="J235" s="0" t="n">
         <v>-20.6</v>
       </c>
-      <c r="K235" t="n">
+      <c r="K235" s="0" t="n">
         <v>-15.9</v>
       </c>
-      <c r="L235" t="n">
+      <c r="L235" s="0" t="n">
         <v>-20.5</v>
       </c>
-      <c r="M235" t="n">
+      <c r="M235" s="0" t="n">
         <v>-22.8</v>
       </c>
-      <c r="N235" t="n">
+      <c r="N235" s="0" t="n">
         <v>-13.7</v>
       </c>
     </row>
@@ -22504,20 +22698,176 @@
       <c r="A236" s="1" t="n">
         <v>45995</v>
       </c>
+      <c r="B236" s="0" t="n">
+        <v>-17.3</v>
+      </c>
+      <c r="C236" s="0" t="n">
+        <v>-19.6</v>
+      </c>
+      <c r="D236" s="0" t="n">
+        <v>-19.4</v>
+      </c>
+      <c r="E236" s="0" t="n">
+        <v>-21.2</v>
+      </c>
+      <c r="F236" s="0" t="n">
+        <v>-18.6</v>
+      </c>
+      <c r="G236" s="0" t="n">
+        <v>-22.6</v>
+      </c>
+      <c r="H236" s="0" t="n">
+        <v>-18</v>
+      </c>
+      <c r="I236" s="0" t="n">
+        <v>-12.8</v>
+      </c>
+      <c r="J236" s="0" t="n">
+        <v>-14.6</v>
+      </c>
+      <c r="K236" s="0" t="n">
+        <v>-6.7</v>
+      </c>
+      <c r="L236" s="0" t="n">
+        <v>-20.8</v>
+      </c>
+      <c r="M236" s="0" t="n">
+        <v>-24.4</v>
+      </c>
+      <c r="N236" s="0" t="n">
+        <v>-11.6</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
         <v>45996</v>
       </c>
+      <c r="B237" s="0" t="n">
+        <v>-15.1</v>
+      </c>
+      <c r="C237" s="0" t="n">
+        <v>-14.6</v>
+      </c>
+      <c r="D237" s="0" t="n">
+        <v>-15.5</v>
+      </c>
+      <c r="E237" s="0" t="n">
+        <v>-13.3</v>
+      </c>
+      <c r="F237" s="0" t="n">
+        <v>-10.2</v>
+      </c>
+      <c r="G237" s="0" t="n">
+        <v>-21.4</v>
+      </c>
+      <c r="H237" s="0" t="n">
+        <v>-15.3</v>
+      </c>
+      <c r="I237" s="0" t="n">
+        <v>-11.8</v>
+      </c>
+      <c r="J237" s="0" t="n">
+        <v>-15.9</v>
+      </c>
+      <c r="K237" s="0" t="n">
+        <v>-6.2</v>
+      </c>
+      <c r="L237" s="0" t="n">
+        <v>-11.6</v>
+      </c>
+      <c r="M237" s="0" t="n">
+        <v>-24.7</v>
+      </c>
+      <c r="N237" s="0" t="n">
+        <v>-9.699999999999999</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
         <v>45997</v>
       </c>
+      <c r="B238" s="0" t="n">
+        <v>-14.7</v>
+      </c>
+      <c r="C238" s="0" t="n">
+        <v>-18.3</v>
+      </c>
+      <c r="D238" s="0" t="n">
+        <v>-17.1</v>
+      </c>
+      <c r="E238" s="0" t="n">
+        <v>-10.4</v>
+      </c>
+      <c r="F238" s="0" t="n">
+        <v>-11.3</v>
+      </c>
+      <c r="G238" s="0" t="n">
+        <v>-12.7</v>
+      </c>
+      <c r="H238" s="0" t="n">
+        <v>-12.6</v>
+      </c>
+      <c r="I238" s="0" t="n">
+        <v>-10.1</v>
+      </c>
+      <c r="J238" s="0" t="n">
+        <v>-13.3</v>
+      </c>
+      <c r="K238" s="0" t="n">
+        <v>-8.9</v>
+      </c>
+      <c r="L238" s="0" t="n">
+        <v>-10.7</v>
+      </c>
+      <c r="M238" s="0" t="n">
+        <v>-17.3</v>
+      </c>
+      <c r="N238" s="0" t="n">
+        <v>-10.2</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
         <v>45998</v>
+      </c>
+      <c r="B239" t="n">
+        <v>-16.3</v>
+      </c>
+      <c r="C239" t="n">
+        <v>-16.6</v>
+      </c>
+      <c r="D239" t="n">
+        <v>-14.6</v>
+      </c>
+      <c r="E239" t="n">
+        <v>-13.4</v>
+      </c>
+      <c r="F239" t="n">
+        <v>-18.1</v>
+      </c>
+      <c r="G239" t="n">
+        <v>-17.2</v>
+      </c>
+      <c r="H239" t="n">
+        <v>-10</v>
+      </c>
+      <c r="I239" t="n">
+        <v>-14.7</v>
+      </c>
+      <c r="J239" t="n">
+        <v>-20.4</v>
+      </c>
+      <c r="K239" t="n">
+        <v>-9.699999999999999</v>
+      </c>
+      <c r="L239" t="n">
+        <v>-14.2</v>
+      </c>
+      <c r="M239" t="n">
+        <v>-18.2</v>
+      </c>
+      <c r="N239" t="n">
+        <v>-11.8</v>
       </c>
     </row>
     <row r="240">

--- a/气象/蒙古存档.xlsx
+++ b/气象/蒙古存档.xlsx
@@ -11355,49 +11355,88 @@
       <c r="A239" s="1" t="n">
         <v>45998</v>
       </c>
-      <c r="B239" t="n">
+      <c r="B239" s="0" t="n">
         <v>-25.7</v>
       </c>
-      <c r="C239" t="n">
+      <c r="C239" s="0" t="n">
         <v>-30.1</v>
       </c>
-      <c r="D239" t="n">
+      <c r="D239" s="0" t="n">
         <v>-31</v>
       </c>
-      <c r="E239" t="n">
+      <c r="E239" s="0" t="n">
         <v>-27.4</v>
       </c>
-      <c r="F239" t="n">
+      <c r="F239" s="0" t="n">
         <v>-29.1</v>
       </c>
-      <c r="G239" t="n">
+      <c r="G239" s="0" t="n">
         <v>-25.9</v>
       </c>
-      <c r="H239" t="n">
+      <c r="H239" s="0" t="n">
         <v>-20.8</v>
       </c>
-      <c r="I239" t="n">
+      <c r="I239" s="0" t="n">
         <v>-23.1</v>
       </c>
-      <c r="J239" t="n">
+      <c r="J239" s="0" t="n">
         <v>-32</v>
       </c>
-      <c r="K239" t="n">
+      <c r="K239" s="0" t="n">
         <v>-31.2</v>
       </c>
-      <c r="L239" t="n">
+      <c r="L239" s="0" t="n">
         <v>-27.8</v>
       </c>
-      <c r="M239" t="n">
+      <c r="M239" s="0" t="n">
         <v>-28.3</v>
       </c>
-      <c r="N239" t="n">
+      <c r="N239" s="0" t="n">
         <v>-17.2</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
         <v>45999</v>
+      </c>
+      <c r="B240" t="n">
+        <v>-21.1</v>
+      </c>
+      <c r="C240" t="n">
+        <v>-26.4</v>
+      </c>
+      <c r="D240" t="n">
+        <v>-24.7</v>
+      </c>
+      <c r="E240" t="n">
+        <v>-25.3</v>
+      </c>
+      <c r="F240" t="n">
+        <v>-32.5</v>
+      </c>
+      <c r="G240" t="n">
+        <v>-23</v>
+      </c>
+      <c r="H240" t="n">
+        <v>-26.8</v>
+      </c>
+      <c r="I240" t="n">
+        <v>-23.6</v>
+      </c>
+      <c r="J240" t="n">
+        <v>-24.2</v>
+      </c>
+      <c r="K240" t="n">
+        <v>-19.9</v>
+      </c>
+      <c r="L240" t="n">
+        <v>-29.3</v>
+      </c>
+      <c r="M240" t="n">
+        <v>-27.5</v>
+      </c>
+      <c r="N240" t="n">
+        <v>-22.6</v>
       </c>
     </row>
     <row r="241">
@@ -22830,49 +22869,88 @@
       <c r="A239" s="1" t="n">
         <v>45998</v>
       </c>
-      <c r="B239" t="n">
+      <c r="B239" s="0" t="n">
         <v>-16.3</v>
       </c>
-      <c r="C239" t="n">
+      <c r="C239" s="0" t="n">
         <v>-16.6</v>
       </c>
-      <c r="D239" t="n">
+      <c r="D239" s="0" t="n">
         <v>-14.6</v>
       </c>
-      <c r="E239" t="n">
+      <c r="E239" s="0" t="n">
         <v>-13.4</v>
       </c>
-      <c r="F239" t="n">
+      <c r="F239" s="0" t="n">
         <v>-18.1</v>
       </c>
-      <c r="G239" t="n">
+      <c r="G239" s="0" t="n">
         <v>-17.2</v>
       </c>
-      <c r="H239" t="n">
+      <c r="H239" s="0" t="n">
         <v>-10</v>
       </c>
-      <c r="I239" t="n">
+      <c r="I239" s="0" t="n">
         <v>-14.7</v>
       </c>
-      <c r="J239" t="n">
+      <c r="J239" s="0" t="n">
         <v>-20.4</v>
       </c>
-      <c r="K239" t="n">
+      <c r="K239" s="0" t="n">
         <v>-9.699999999999999</v>
       </c>
-      <c r="L239" t="n">
+      <c r="L239" s="0" t="n">
         <v>-14.2</v>
       </c>
-      <c r="M239" t="n">
+      <c r="M239" s="0" t="n">
         <v>-18.2</v>
       </c>
-      <c r="N239" t="n">
+      <c r="N239" s="0" t="n">
         <v>-11.8</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
         <v>45999</v>
+      </c>
+      <c r="B240" t="n">
+        <v>-14</v>
+      </c>
+      <c r="C240" t="n">
+        <v>-18.2</v>
+      </c>
+      <c r="D240" t="n">
+        <v>-12.8</v>
+      </c>
+      <c r="E240" t="n">
+        <v>-11.5</v>
+      </c>
+      <c r="F240" t="n">
+        <v>-19.6</v>
+      </c>
+      <c r="G240" t="n">
+        <v>-16.9</v>
+      </c>
+      <c r="H240" t="n">
+        <v>-16.3</v>
+      </c>
+      <c r="I240" t="n">
+        <v>-13.5</v>
+      </c>
+      <c r="J240" t="n">
+        <v>-13.9</v>
+      </c>
+      <c r="K240" t="n">
+        <v>-7.1</v>
+      </c>
+      <c r="L240" t="n">
+        <v>-10.2</v>
+      </c>
+      <c r="M240" t="n">
+        <v>-15.5</v>
+      </c>
+      <c r="N240" t="n">
+        <v>-10.8</v>
       </c>
     </row>
     <row r="241">

--- a/气象/蒙古存档.xlsx
+++ b/气象/蒙古存档.xlsx
@@ -11399,49 +11399,88 @@
       <c r="A240" s="1" t="n">
         <v>45999</v>
       </c>
-      <c r="B240" t="n">
+      <c r="B240" s="0" t="n">
         <v>-21.1</v>
       </c>
-      <c r="C240" t="n">
+      <c r="C240" s="0" t="n">
         <v>-26.4</v>
       </c>
-      <c r="D240" t="n">
+      <c r="D240" s="0" t="n">
         <v>-24.7</v>
       </c>
-      <c r="E240" t="n">
+      <c r="E240" s="0" t="n">
         <v>-25.3</v>
       </c>
-      <c r="F240" t="n">
+      <c r="F240" s="0" t="n">
         <v>-32.5</v>
       </c>
-      <c r="G240" t="n">
+      <c r="G240" s="0" t="n">
         <v>-23</v>
       </c>
-      <c r="H240" t="n">
+      <c r="H240" s="0" t="n">
         <v>-26.8</v>
       </c>
-      <c r="I240" t="n">
+      <c r="I240" s="0" t="n">
         <v>-23.6</v>
       </c>
-      <c r="J240" t="n">
+      <c r="J240" s="0" t="n">
         <v>-24.2</v>
       </c>
-      <c r="K240" t="n">
+      <c r="K240" s="0" t="n">
         <v>-19.9</v>
       </c>
-      <c r="L240" t="n">
+      <c r="L240" s="0" t="n">
         <v>-29.3</v>
       </c>
-      <c r="M240" t="n">
+      <c r="M240" s="0" t="n">
         <v>-27.5</v>
       </c>
-      <c r="N240" t="n">
+      <c r="N240" s="0" t="n">
         <v>-22.6</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
         <v>46000</v>
+      </c>
+      <c r="B241" t="n">
+        <v>-20.1</v>
+      </c>
+      <c r="C241" t="n">
+        <v>-25.7</v>
+      </c>
+      <c r="D241" t="n">
+        <v>-25.8</v>
+      </c>
+      <c r="E241" t="n">
+        <v>-24.2</v>
+      </c>
+      <c r="F241" t="n">
+        <v>-30.2</v>
+      </c>
+      <c r="G241" t="n">
+        <v>-19.5</v>
+      </c>
+      <c r="H241" t="n">
+        <v>-26.6</v>
+      </c>
+      <c r="I241" t="n">
+        <v>-23.2</v>
+      </c>
+      <c r="J241" t="n">
+        <v>-25.8</v>
+      </c>
+      <c r="K241" t="n">
+        <v>-23.9</v>
+      </c>
+      <c r="L241" t="n">
+        <v>-24.8</v>
+      </c>
+      <c r="M241" t="n">
+        <v>-24.9</v>
+      </c>
+      <c r="N241" t="n">
+        <v>-20.8</v>
       </c>
     </row>
     <row r="242">
@@ -22913,49 +22952,88 @@
       <c r="A240" s="1" t="n">
         <v>45999</v>
       </c>
-      <c r="B240" t="n">
+      <c r="B240" s="0" t="n">
         <v>-14</v>
       </c>
-      <c r="C240" t="n">
+      <c r="C240" s="0" t="n">
         <v>-18.2</v>
       </c>
-      <c r="D240" t="n">
+      <c r="D240" s="0" t="n">
         <v>-12.8</v>
       </c>
-      <c r="E240" t="n">
+      <c r="E240" s="0" t="n">
         <v>-11.5</v>
       </c>
-      <c r="F240" t="n">
+      <c r="F240" s="0" t="n">
         <v>-19.6</v>
       </c>
-      <c r="G240" t="n">
+      <c r="G240" s="0" t="n">
         <v>-16.9</v>
       </c>
-      <c r="H240" t="n">
+      <c r="H240" s="0" t="n">
         <v>-16.3</v>
       </c>
-      <c r="I240" t="n">
+      <c r="I240" s="0" t="n">
         <v>-13.5</v>
       </c>
-      <c r="J240" t="n">
+      <c r="J240" s="0" t="n">
         <v>-13.9</v>
       </c>
-      <c r="K240" t="n">
+      <c r="K240" s="0" t="n">
         <v>-7.1</v>
       </c>
-      <c r="L240" t="n">
+      <c r="L240" s="0" t="n">
         <v>-10.2</v>
       </c>
-      <c r="M240" t="n">
+      <c r="M240" s="0" t="n">
         <v>-15.5</v>
       </c>
-      <c r="N240" t="n">
+      <c r="N240" s="0" t="n">
         <v>-10.8</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
         <v>46000</v>
+      </c>
+      <c r="B241" t="n">
+        <v>-15.1</v>
+      </c>
+      <c r="C241" t="n">
+        <v>-14.7</v>
+      </c>
+      <c r="D241" t="n">
+        <v>-15.8</v>
+      </c>
+      <c r="E241" t="n">
+        <v>-14.3</v>
+      </c>
+      <c r="F241" t="n">
+        <v>-17.4</v>
+      </c>
+      <c r="G241" t="n">
+        <v>-15.9</v>
+      </c>
+      <c r="H241" t="n">
+        <v>-20</v>
+      </c>
+      <c r="I241" t="n">
+        <v>-12.5</v>
+      </c>
+      <c r="J241" t="n">
+        <v>-16.7</v>
+      </c>
+      <c r="K241" t="n">
+        <v>-10.1</v>
+      </c>
+      <c r="L241" t="n">
+        <v>-14.2</v>
+      </c>
+      <c r="M241" t="n">
+        <v>-15.7</v>
+      </c>
+      <c r="N241" t="n">
+        <v>-14.3</v>
       </c>
     </row>
     <row r="242">

--- a/气象/蒙古存档.xlsx
+++ b/气象/蒙古存档.xlsx
@@ -11443,49 +11443,88 @@
       <c r="A241" s="1" t="n">
         <v>46000</v>
       </c>
-      <c r="B241" t="n">
+      <c r="B241" s="0" t="n">
         <v>-20.1</v>
       </c>
-      <c r="C241" t="n">
+      <c r="C241" s="0" t="n">
         <v>-25.7</v>
       </c>
-      <c r="D241" t="n">
+      <c r="D241" s="0" t="n">
         <v>-25.8</v>
       </c>
-      <c r="E241" t="n">
+      <c r="E241" s="0" t="n">
         <v>-24.2</v>
       </c>
-      <c r="F241" t="n">
+      <c r="F241" s="0" t="n">
         <v>-30.2</v>
       </c>
-      <c r="G241" t="n">
+      <c r="G241" s="0" t="n">
         <v>-19.5</v>
       </c>
-      <c r="H241" t="n">
+      <c r="H241" s="0" t="n">
         <v>-26.6</v>
       </c>
-      <c r="I241" t="n">
+      <c r="I241" s="0" t="n">
         <v>-23.2</v>
       </c>
-      <c r="J241" t="n">
+      <c r="J241" s="0" t="n">
         <v>-25.8</v>
       </c>
-      <c r="K241" t="n">
+      <c r="K241" s="0" t="n">
         <v>-23.9</v>
       </c>
-      <c r="L241" t="n">
+      <c r="L241" s="0" t="n">
         <v>-24.8</v>
       </c>
-      <c r="M241" t="n">
+      <c r="M241" s="0" t="n">
         <v>-24.9</v>
       </c>
-      <c r="N241" t="n">
+      <c r="N241" s="0" t="n">
         <v>-20.8</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
         <v>46001</v>
+      </c>
+      <c r="B242" t="n">
+        <v>-25.6</v>
+      </c>
+      <c r="C242" t="n">
+        <v>-24.9</v>
+      </c>
+      <c r="D242" t="n">
+        <v>-27.5</v>
+      </c>
+      <c r="E242" t="n">
+        <v>-28.3</v>
+      </c>
+      <c r="F242" t="n">
+        <v>-32</v>
+      </c>
+      <c r="G242" t="n">
+        <v>-31.6</v>
+      </c>
+      <c r="H242" t="n">
+        <v>-31.1</v>
+      </c>
+      <c r="I242" t="n">
+        <v>-18.9</v>
+      </c>
+      <c r="J242" t="n">
+        <v>-29.6</v>
+      </c>
+      <c r="K242" t="n">
+        <v>-29.9</v>
+      </c>
+      <c r="L242" t="n">
+        <v>-29.1</v>
+      </c>
+      <c r="M242" t="n">
+        <v>-33</v>
+      </c>
+      <c r="N242" t="n">
+        <v>-21.8</v>
       </c>
     </row>
     <row r="243">
@@ -22996,49 +23035,88 @@
       <c r="A241" s="1" t="n">
         <v>46000</v>
       </c>
-      <c r="B241" t="n">
+      <c r="B241" s="0" t="n">
         <v>-15.1</v>
       </c>
-      <c r="C241" t="n">
+      <c r="C241" s="0" t="n">
         <v>-14.7</v>
       </c>
-      <c r="D241" t="n">
+      <c r="D241" s="0" t="n">
         <v>-15.8</v>
       </c>
-      <c r="E241" t="n">
+      <c r="E241" s="0" t="n">
         <v>-14.3</v>
       </c>
-      <c r="F241" t="n">
+      <c r="F241" s="0" t="n">
         <v>-17.4</v>
       </c>
-      <c r="G241" t="n">
+      <c r="G241" s="0" t="n">
         <v>-15.9</v>
       </c>
-      <c r="H241" t="n">
+      <c r="H241" s="0" t="n">
         <v>-20</v>
       </c>
-      <c r="I241" t="n">
+      <c r="I241" s="0" t="n">
         <v>-12.5</v>
       </c>
-      <c r="J241" t="n">
+      <c r="J241" s="0" t="n">
         <v>-16.7</v>
       </c>
-      <c r="K241" t="n">
+      <c r="K241" s="0" t="n">
         <v>-10.1</v>
       </c>
-      <c r="L241" t="n">
+      <c r="L241" s="0" t="n">
         <v>-14.2</v>
       </c>
-      <c r="M241" t="n">
+      <c r="M241" s="0" t="n">
         <v>-15.7</v>
       </c>
-      <c r="N241" t="n">
+      <c r="N241" s="0" t="n">
         <v>-14.3</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
         <v>46001</v>
+      </c>
+      <c r="B242" t="n">
+        <v>-16.6</v>
+      </c>
+      <c r="C242" t="n">
+        <v>-14.9</v>
+      </c>
+      <c r="D242" t="n">
+        <v>-14</v>
+      </c>
+      <c r="E242" t="n">
+        <v>-20.7</v>
+      </c>
+      <c r="F242" t="n">
+        <v>-19.7</v>
+      </c>
+      <c r="G242" t="n">
+        <v>-18.6</v>
+      </c>
+      <c r="H242" t="n">
+        <v>-20.9</v>
+      </c>
+      <c r="I242" t="n">
+        <v>-11.5</v>
+      </c>
+      <c r="J242" t="n">
+        <v>-16</v>
+      </c>
+      <c r="K242" t="n">
+        <v>-16.3</v>
+      </c>
+      <c r="L242" t="n">
+        <v>-19.3</v>
+      </c>
+      <c r="M242" t="n">
+        <v>-21.7</v>
+      </c>
+      <c r="N242" t="n">
+        <v>-15.6</v>
       </c>
     </row>
     <row r="243">

--- a/气象/蒙古存档.xlsx
+++ b/气象/蒙古存档.xlsx
@@ -11487,49 +11487,88 @@
       <c r="A242" s="1" t="n">
         <v>46001</v>
       </c>
-      <c r="B242" t="n">
+      <c r="B242" s="0" t="n">
         <v>-25.6</v>
       </c>
-      <c r="C242" t="n">
+      <c r="C242" s="0" t="n">
         <v>-24.9</v>
       </c>
-      <c r="D242" t="n">
+      <c r="D242" s="0" t="n">
         <v>-27.5</v>
       </c>
-      <c r="E242" t="n">
+      <c r="E242" s="0" t="n">
         <v>-28.3</v>
       </c>
-      <c r="F242" t="n">
+      <c r="F242" s="0" t="n">
         <v>-32</v>
       </c>
-      <c r="G242" t="n">
+      <c r="G242" s="0" t="n">
         <v>-31.6</v>
       </c>
-      <c r="H242" t="n">
+      <c r="H242" s="0" t="n">
         <v>-31.1</v>
       </c>
-      <c r="I242" t="n">
+      <c r="I242" s="0" t="n">
         <v>-18.9</v>
       </c>
-      <c r="J242" t="n">
+      <c r="J242" s="0" t="n">
         <v>-29.6</v>
       </c>
-      <c r="K242" t="n">
+      <c r="K242" s="0" t="n">
         <v>-29.9</v>
       </c>
-      <c r="L242" t="n">
+      <c r="L242" s="0" t="n">
         <v>-29.1</v>
       </c>
-      <c r="M242" t="n">
+      <c r="M242" s="0" t="n">
         <v>-33</v>
       </c>
-      <c r="N242" t="n">
+      <c r="N242" s="0" t="n">
         <v>-21.8</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
         <v>46002</v>
+      </c>
+      <c r="B243" t="n">
+        <v>-29.3</v>
+      </c>
+      <c r="C243" t="n">
+        <v>-27.9</v>
+      </c>
+      <c r="D243" t="n">
+        <v>-28.9</v>
+      </c>
+      <c r="E243" t="n">
+        <v>-26.8</v>
+      </c>
+      <c r="F243" t="n">
+        <v>-24.7</v>
+      </c>
+      <c r="G243" t="n">
+        <v>-36.2</v>
+      </c>
+      <c r="H243" t="n">
+        <v>-36.1</v>
+      </c>
+      <c r="I243" t="n">
+        <v>-23.9</v>
+      </c>
+      <c r="J243" t="n">
+        <v>-24.7</v>
+      </c>
+      <c r="K243" t="n">
+        <v>-25</v>
+      </c>
+      <c r="L243" t="n">
+        <v>-28.9</v>
+      </c>
+      <c r="M243" t="n">
+        <v>-37.3</v>
+      </c>
+      <c r="N243" t="n">
+        <v>-26.9</v>
       </c>
     </row>
     <row r="244">
@@ -23079,49 +23118,88 @@
       <c r="A242" s="1" t="n">
         <v>46001</v>
       </c>
-      <c r="B242" t="n">
+      <c r="B242" s="0" t="n">
         <v>-16.6</v>
       </c>
-      <c r="C242" t="n">
+      <c r="C242" s="0" t="n">
         <v>-14.9</v>
       </c>
-      <c r="D242" t="n">
+      <c r="D242" s="0" t="n">
         <v>-14</v>
       </c>
-      <c r="E242" t="n">
+      <c r="E242" s="0" t="n">
         <v>-20.7</v>
       </c>
-      <c r="F242" t="n">
+      <c r="F242" s="0" t="n">
         <v>-19.7</v>
       </c>
-      <c r="G242" t="n">
+      <c r="G242" s="0" t="n">
         <v>-18.6</v>
       </c>
-      <c r="H242" t="n">
+      <c r="H242" s="0" t="n">
         <v>-20.9</v>
       </c>
-      <c r="I242" t="n">
+      <c r="I242" s="0" t="n">
         <v>-11.5</v>
       </c>
-      <c r="J242" t="n">
+      <c r="J242" s="0" t="n">
         <v>-16</v>
       </c>
-      <c r="K242" t="n">
+      <c r="K242" s="0" t="n">
         <v>-16.3</v>
       </c>
-      <c r="L242" t="n">
+      <c r="L242" s="0" t="n">
         <v>-19.3</v>
       </c>
-      <c r="M242" t="n">
+      <c r="M242" s="0" t="n">
         <v>-21.7</v>
       </c>
-      <c r="N242" t="n">
+      <c r="N242" s="0" t="n">
         <v>-15.6</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
         <v>46002</v>
+      </c>
+      <c r="B243" t="n">
+        <v>-19.1</v>
+      </c>
+      <c r="C243" t="n">
+        <v>-16.6</v>
+      </c>
+      <c r="D243" t="n">
+        <v>-15.6</v>
+      </c>
+      <c r="E243" t="n">
+        <v>-15.4</v>
+      </c>
+      <c r="F243" t="n">
+        <v>-15</v>
+      </c>
+      <c r="G243" t="n">
+        <v>-28.8</v>
+      </c>
+      <c r="H243" t="n">
+        <v>-25</v>
+      </c>
+      <c r="I243" t="n">
+        <v>-12.6</v>
+      </c>
+      <c r="J243" t="n">
+        <v>-15.6</v>
+      </c>
+      <c r="K243" t="n">
+        <v>-12</v>
+      </c>
+      <c r="L243" t="n">
+        <v>-15.7</v>
+      </c>
+      <c r="M243" t="n">
+        <v>-29.2</v>
+      </c>
+      <c r="N243" t="n">
+        <v>-19.9</v>
       </c>
     </row>
     <row r="244">

--- a/气象/蒙古存档.xlsx
+++ b/气象/蒙古存档.xlsx
@@ -11620,49 +11620,88 @@
       <c r="A245" s="1" t="n">
         <v>46004</v>
       </c>
-      <c r="B245" t="n">
+      <c r="B245" s="0" t="n">
         <v>-29.7</v>
       </c>
-      <c r="C245" t="n">
+      <c r="C245" s="0" t="n">
         <v>-34.1</v>
       </c>
-      <c r="D245" t="n">
+      <c r="D245" s="0" t="n">
         <v>-30.7</v>
       </c>
-      <c r="E245" t="n">
+      <c r="E245" s="0" t="n">
         <v>-36.9</v>
       </c>
-      <c r="F245" t="n">
+      <c r="F245" s="0" t="n">
         <v>-38.1</v>
       </c>
-      <c r="G245" t="n">
+      <c r="G245" s="0" t="n">
         <v>-35.1</v>
       </c>
-      <c r="H245" t="n">
+      <c r="H245" s="0" t="n">
         <v>-33</v>
       </c>
-      <c r="I245" t="n">
+      <c r="I245" s="0" t="n">
         <v>-29.1</v>
       </c>
-      <c r="J245" t="n">
+      <c r="J245" s="0" t="n">
         <v>-36.8</v>
       </c>
-      <c r="K245" t="n">
+      <c r="K245" s="0" t="n">
         <v>-33.6</v>
       </c>
-      <c r="L245" t="n">
+      <c r="L245" s="0" t="n">
         <v>-36.6</v>
       </c>
-      <c r="M245" t="n">
+      <c r="M245" s="0" t="n">
         <v>-36.8</v>
       </c>
-      <c r="N245" t="n">
+      <c r="N245" s="0" t="n">
         <v>-25.4</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
         <v>46005</v>
+      </c>
+      <c r="B246" t="n">
+        <v>-30</v>
+      </c>
+      <c r="C246" t="n">
+        <v>-32.4</v>
+      </c>
+      <c r="D246" t="n">
+        <v>-32.5</v>
+      </c>
+      <c r="E246" t="n">
+        <v>-36.2</v>
+      </c>
+      <c r="F246" t="n">
+        <v>-37.2</v>
+      </c>
+      <c r="G246" t="n">
+        <v>-33.8</v>
+      </c>
+      <c r="H246" t="n">
+        <v>-30.4</v>
+      </c>
+      <c r="I246" t="n">
+        <v>-27.3</v>
+      </c>
+      <c r="J246" t="n">
+        <v>-33.2</v>
+      </c>
+      <c r="K246" t="n">
+        <v>-28.8</v>
+      </c>
+      <c r="L246" t="n">
+        <v>-35</v>
+      </c>
+      <c r="M246" t="n">
+        <v>-35.4</v>
+      </c>
+      <c r="N246" t="n">
+        <v>-24.1</v>
       </c>
     </row>
     <row r="247">
@@ -23329,49 +23368,88 @@
       <c r="A245" s="1" t="n">
         <v>46004</v>
       </c>
-      <c r="B245" t="n">
+      <c r="B245" s="0" t="n">
         <v>-24.6</v>
       </c>
-      <c r="C245" t="n">
+      <c r="C245" s="0" t="n">
         <v>-23.9</v>
       </c>
-      <c r="D245" t="n">
+      <c r="D245" s="0" t="n">
         <v>-22.6</v>
       </c>
-      <c r="E245" t="n">
+      <c r="E245" s="0" t="n">
         <v>-25.1</v>
       </c>
-      <c r="F245" t="n">
+      <c r="F245" s="0" t="n">
         <v>-28</v>
       </c>
-      <c r="G245" t="n">
+      <c r="G245" s="0" t="n">
         <v>-27.2</v>
       </c>
-      <c r="H245" t="n">
+      <c r="H245" s="0" t="n">
         <v>-22.9</v>
       </c>
-      <c r="I245" t="n">
+      <c r="I245" s="0" t="n">
         <v>-18.9</v>
       </c>
-      <c r="J245" t="n">
+      <c r="J245" s="0" t="n">
         <v>-24</v>
       </c>
-      <c r="K245" t="n">
+      <c r="K245" s="0" t="n">
         <v>-18.6</v>
       </c>
-      <c r="L245" t="n">
+      <c r="L245" s="0" t="n">
         <v>-25</v>
       </c>
-      <c r="M245" t="n">
+      <c r="M245" s="0" t="n">
         <v>-26.8</v>
       </c>
-      <c r="N245" t="n">
+      <c r="N245" s="0" t="n">
         <v>-17.4</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
         <v>46005</v>
+      </c>
+      <c r="B246" t="n">
+        <v>-20</v>
+      </c>
+      <c r="C246" t="n">
+        <v>-20</v>
+      </c>
+      <c r="D246" t="n">
+        <v>-15.8</v>
+      </c>
+      <c r="E246" t="n">
+        <v>-20.2</v>
+      </c>
+      <c r="F246" t="n">
+        <v>-20.7</v>
+      </c>
+      <c r="G246" t="n">
+        <v>-25.4</v>
+      </c>
+      <c r="H246" t="n">
+        <v>-20.2</v>
+      </c>
+      <c r="I246" t="n">
+        <v>-17.6</v>
+      </c>
+      <c r="J246" t="n">
+        <v>-15.8</v>
+      </c>
+      <c r="K246" t="n">
+        <v>-9.5</v>
+      </c>
+      <c r="L246" t="n">
+        <v>-20</v>
+      </c>
+      <c r="M246" t="n">
+        <v>-24.1</v>
+      </c>
+      <c r="N246" t="n">
+        <v>-13.5</v>
       </c>
     </row>
     <row r="247">
@@ -24052,57 +24130,104 @@
       <c r="A3" s="1" t="n">
         <v>46004</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" s="0" t="n">
         <v>-27.36</v>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+      <c r="C3" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="D3" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E3" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="F3" s="0" t="n">
         <v>-34.15</v>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
+      <c r="G3" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="H3" s="0" t="n">
         <v>-28.81</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3" s="0" t="n">
         <v>-25.24</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3" s="0" t="n">
         <v>-30.45</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3" s="0" t="n">
         <v>-27.28</v>
       </c>
-      <c r="L3" t="n">
+      <c r="L3" s="0" t="n">
         <v>-32.74</v>
       </c>
-      <c r="M3" t="n">
+      <c r="M3" s="0" t="n">
         <v>-33.92</v>
       </c>
-      <c r="N3" t="n">
+      <c r="N3" s="0" t="n">
         <v>-21.96</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>46005</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-23.6</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>-29.82</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>-25.88</v>
+      </c>
+      <c r="I4" t="n">
+        <v>-22.54</v>
+      </c>
+      <c r="J4" t="n">
+        <v>-22.58</v>
+      </c>
+      <c r="K4" t="n">
+        <v>-17.59</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-27.61</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-30.2</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-18.95</v>
       </c>
     </row>
     <row r="5">

--- a/气象/蒙古存档.xlsx
+++ b/气象/蒙古存档.xlsx
@@ -494,7 +494,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A243" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E249" sqref="E249"/>
+      <selection pane="bottomLeft" activeCell="D256" sqref="D256"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.9" outlineLevelCol="0"/>
@@ -11664,43 +11664,43 @@
       <c r="A246" s="1" t="n">
         <v>46005</v>
       </c>
-      <c r="B246" t="n">
+      <c r="B246" s="0" t="n">
         <v>-30</v>
       </c>
-      <c r="C246" t="n">
+      <c r="C246" s="0" t="n">
         <v>-32.4</v>
       </c>
-      <c r="D246" t="n">
+      <c r="D246" s="0" t="n">
         <v>-32.5</v>
       </c>
-      <c r="E246" t="n">
+      <c r="E246" s="0" t="n">
         <v>-36.2</v>
       </c>
-      <c r="F246" t="n">
+      <c r="F246" s="0" t="n">
         <v>-37.2</v>
       </c>
-      <c r="G246" t="n">
+      <c r="G246" s="0" t="n">
         <v>-33.8</v>
       </c>
-      <c r="H246" t="n">
+      <c r="H246" s="0" t="n">
         <v>-30.4</v>
       </c>
-      <c r="I246" t="n">
+      <c r="I246" s="0" t="n">
         <v>-27.3</v>
       </c>
-      <c r="J246" t="n">
+      <c r="J246" s="0" t="n">
         <v>-33.2</v>
       </c>
-      <c r="K246" t="n">
+      <c r="K246" s="0" t="n">
         <v>-28.8</v>
       </c>
-      <c r="L246" t="n">
+      <c r="L246" s="0" t="n">
         <v>-35</v>
       </c>
-      <c r="M246" t="n">
+      <c r="M246" s="0" t="n">
         <v>-35.4</v>
       </c>
-      <c r="N246" t="n">
+      <c r="N246" s="0" t="n">
         <v>-24.1</v>
       </c>
     </row>
@@ -11708,20 +11708,186 @@
       <c r="A247" s="1" t="n">
         <v>46006</v>
       </c>
+      <c r="B247" s="0" t="n">
+        <v>-27.9</v>
+      </c>
+      <c r="C247" s="0" t="n">
+        <v>-29.9</v>
+      </c>
+      <c r="D247" s="0" t="n">
+        <v>-26.5</v>
+      </c>
+      <c r="E247" s="0" t="n">
+        <v>-26.4</v>
+      </c>
+      <c r="F247" s="0" t="n">
+        <v>-32.1</v>
+      </c>
+      <c r="G247" s="0" t="n">
+        <v>-28.6</v>
+      </c>
+      <c r="H247" s="0" t="n">
+        <v>-28.1</v>
+      </c>
+      <c r="I247" s="0" t="n">
+        <v>-26.8</v>
+      </c>
+      <c r="J247" s="0" t="n">
+        <v>-21.8</v>
+      </c>
+      <c r="K247" s="0" t="n">
+        <v>-23.1</v>
+      </c>
+      <c r="L247" s="0" t="n">
+        <v>-20.7</v>
+      </c>
+      <c r="M247" s="0" t="n">
+        <v>-29.7</v>
+      </c>
+      <c r="N247" s="0" t="n">
+        <v>-20.4</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
         <v>46007</v>
       </c>
+      <c r="B248" s="0" t="n">
+        <v>-28.6</v>
+      </c>
+      <c r="C248" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="D248" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E248" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="F248" s="0" t="n">
+        <v>-31.3</v>
+      </c>
+      <c r="G248" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="H248" s="0" t="n">
+        <v>-26.8</v>
+      </c>
+      <c r="I248" s="0" t="n">
+        <v>-27</v>
+      </c>
+      <c r="J248" s="0" t="n">
+        <v>-28.4</v>
+      </c>
+      <c r="K248" s="0" t="n">
+        <v>-25.1</v>
+      </c>
+      <c r="L248" s="0" t="n">
+        <v>-25.8</v>
+      </c>
+      <c r="M248" s="0" t="n">
+        <v>-29</v>
+      </c>
+      <c r="N248" s="0" t="n">
+        <v>-20.6</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
         <v>46008</v>
       </c>
+      <c r="B249" s="0" t="n">
+        <v>-29.2</v>
+      </c>
+      <c r="C249" s="0" t="n">
+        <v>-29.8</v>
+      </c>
+      <c r="D249" s="0" t="n">
+        <v>-23</v>
+      </c>
+      <c r="E249" s="0" t="n">
+        <v>-19.4</v>
+      </c>
+      <c r="F249" s="0" t="n">
+        <v>-25.4</v>
+      </c>
+      <c r="G249" s="0" t="n">
+        <v>-25.6</v>
+      </c>
+      <c r="H249" s="0" t="n">
+        <v>-23</v>
+      </c>
+      <c r="I249" s="0" t="n">
+        <v>-27.7</v>
+      </c>
+      <c r="J249" s="0" t="n">
+        <v>-20.5</v>
+      </c>
+      <c r="K249" s="0" t="n">
+        <v>-14.7</v>
+      </c>
+      <c r="L249" s="0" t="n">
+        <v>-21.5</v>
+      </c>
+      <c r="M249" s="0" t="n">
+        <v>-26.9</v>
+      </c>
+      <c r="N249" s="0" t="n">
+        <v>-17.1</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
         <v>46009</v>
+      </c>
+      <c r="B250" t="n">
+        <v>-32.6</v>
+      </c>
+      <c r="C250" t="n">
+        <v>-31.3</v>
+      </c>
+      <c r="D250" t="n">
+        <v>-25.1</v>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="F250" t="n">
+        <v>-19.7</v>
+      </c>
+      <c r="G250" t="n">
+        <v>-23.2</v>
+      </c>
+      <c r="H250" t="n">
+        <v>-22.3</v>
+      </c>
+      <c r="I250" t="n">
+        <v>-26.9</v>
+      </c>
+      <c r="J250" t="n">
+        <v>-23.3</v>
+      </c>
+      <c r="K250" t="n">
+        <v>-27.1</v>
+      </c>
+      <c r="L250" t="n">
+        <v>-19.7</v>
+      </c>
+      <c r="M250" t="n">
+        <v>-24</v>
+      </c>
+      <c r="N250" t="n">
+        <v>-13.4</v>
       </c>
     </row>
     <row r="251">
@@ -12244,7 +12410,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A243" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E248" sqref="E248"/>
+      <selection pane="bottomLeft" activeCell="F259" sqref="F259"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.9" outlineLevelCol="0"/>
@@ -23412,43 +23578,43 @@
       <c r="A246" s="1" t="n">
         <v>46005</v>
       </c>
-      <c r="B246" t="n">
+      <c r="B246" s="0" t="n">
         <v>-20</v>
       </c>
-      <c r="C246" t="n">
+      <c r="C246" s="0" t="n">
         <v>-20</v>
       </c>
-      <c r="D246" t="n">
+      <c r="D246" s="0" t="n">
         <v>-15.8</v>
       </c>
-      <c r="E246" t="n">
+      <c r="E246" s="0" t="n">
         <v>-20.2</v>
       </c>
-      <c r="F246" t="n">
+      <c r="F246" s="0" t="n">
         <v>-20.7</v>
       </c>
-      <c r="G246" t="n">
+      <c r="G246" s="0" t="n">
         <v>-25.4</v>
       </c>
-      <c r="H246" t="n">
+      <c r="H246" s="0" t="n">
         <v>-20.2</v>
       </c>
-      <c r="I246" t="n">
+      <c r="I246" s="0" t="n">
         <v>-17.6</v>
       </c>
-      <c r="J246" t="n">
+      <c r="J246" s="0" t="n">
         <v>-15.8</v>
       </c>
-      <c r="K246" t="n">
+      <c r="K246" s="0" t="n">
         <v>-9.5</v>
       </c>
-      <c r="L246" t="n">
+      <c r="L246" s="0" t="n">
         <v>-20</v>
       </c>
-      <c r="M246" t="n">
+      <c r="M246" s="0" t="n">
         <v>-24.1</v>
       </c>
-      <c r="N246" t="n">
+      <c r="N246" s="0" t="n">
         <v>-13.5</v>
       </c>
     </row>
@@ -23456,20 +23622,176 @@
       <c r="A247" s="1" t="n">
         <v>46006</v>
       </c>
+      <c r="B247" s="0" t="n">
+        <v>-18.6</v>
+      </c>
+      <c r="C247" s="0" t="n">
+        <v>-21.1</v>
+      </c>
+      <c r="D247" s="0" t="n">
+        <v>-17.3</v>
+      </c>
+      <c r="E247" s="0" t="n">
+        <v>-14.8</v>
+      </c>
+      <c r="F247" s="0" t="n">
+        <v>-19.7</v>
+      </c>
+      <c r="G247" s="0" t="n">
+        <v>-22.8</v>
+      </c>
+      <c r="H247" s="0" t="n">
+        <v>-16.7</v>
+      </c>
+      <c r="I247" s="0" t="n">
+        <v>-16.7</v>
+      </c>
+      <c r="J247" s="0" t="n">
+        <v>-14.7</v>
+      </c>
+      <c r="K247" s="0" t="n">
+        <v>-12.3</v>
+      </c>
+      <c r="L247" s="0" t="n">
+        <v>-14.8</v>
+      </c>
+      <c r="M247" s="0" t="n">
+        <v>-22.7</v>
+      </c>
+      <c r="N247" s="0" t="n">
+        <v>-11.2</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
         <v>46007</v>
       </c>
+      <c r="B248" s="0" t="n">
+        <v>-19</v>
+      </c>
+      <c r="C248" s="0" t="n">
+        <v>-18.8</v>
+      </c>
+      <c r="D248" s="0" t="n">
+        <v>-13.4</v>
+      </c>
+      <c r="E248" s="0" t="n">
+        <v>-17.6</v>
+      </c>
+      <c r="F248" s="0" t="n">
+        <v>-19.6</v>
+      </c>
+      <c r="G248" s="0" t="n">
+        <v>-20.8</v>
+      </c>
+      <c r="H248" s="0" t="n">
+        <v>-18.4</v>
+      </c>
+      <c r="I248" s="0" t="n">
+        <v>-16.8</v>
+      </c>
+      <c r="J248" s="0" t="n">
+        <v>-14</v>
+      </c>
+      <c r="K248" s="0" t="n">
+        <v>-2.1</v>
+      </c>
+      <c r="L248" s="0" t="n">
+        <v>-17.3</v>
+      </c>
+      <c r="M248" s="0" t="n">
+        <v>-21.1</v>
+      </c>
+      <c r="N248" s="0" t="n">
+        <v>-11.4</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
         <v>46008</v>
       </c>
+      <c r="B249" s="0" t="n">
+        <v>-21.5</v>
+      </c>
+      <c r="C249" s="0" t="n">
+        <v>-20.9</v>
+      </c>
+      <c r="D249" s="0" t="n">
+        <v>-14</v>
+      </c>
+      <c r="E249" s="0" t="n">
+        <v>-14.5</v>
+      </c>
+      <c r="F249" s="0" t="n">
+        <v>-17.5</v>
+      </c>
+      <c r="G249" s="0" t="n">
+        <v>-21.6</v>
+      </c>
+      <c r="H249" s="0" t="n">
+        <v>-13.4</v>
+      </c>
+      <c r="I249" s="0" t="n">
+        <v>-18.7</v>
+      </c>
+      <c r="J249" s="0" t="n">
+        <v>-13.3</v>
+      </c>
+      <c r="K249" s="0" t="n">
+        <v>-0.7</v>
+      </c>
+      <c r="L249" s="0" t="n">
+        <v>-12.7</v>
+      </c>
+      <c r="M249" s="0" t="n">
+        <v>-21.3</v>
+      </c>
+      <c r="N249" s="0" t="n">
+        <v>-8.4</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
         <v>46009</v>
+      </c>
+      <c r="B250" t="n">
+        <v>-20.7</v>
+      </c>
+      <c r="C250" t="n">
+        <v>-17.3</v>
+      </c>
+      <c r="D250" t="n">
+        <v>-15</v>
+      </c>
+      <c r="E250" t="n">
+        <v>-13.8</v>
+      </c>
+      <c r="F250" t="n">
+        <v>-7.2</v>
+      </c>
+      <c r="G250" t="n">
+        <v>-12.2</v>
+      </c>
+      <c r="H250" t="n">
+        <v>-8.9</v>
+      </c>
+      <c r="I250" t="n">
+        <v>-16.4</v>
+      </c>
+      <c r="J250" t="n">
+        <v>-13.3</v>
+      </c>
+      <c r="K250" t="n">
+        <v>-1.4</v>
+      </c>
+      <c r="L250" t="n">
+        <v>-6.7</v>
+      </c>
+      <c r="M250" t="n">
+        <v>-13.3</v>
+      </c>
+      <c r="N250" t="n">
+        <v>-4.4</v>
       </c>
     </row>
     <row r="251">
@@ -23992,7 +24314,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.9" outlineLevelCol="0"/>
@@ -24182,51 +24504,51 @@
       <c r="A4" s="1" t="n">
         <v>46005</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" s="0" t="n">
         <v>-23.6</v>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+      <c r="C4" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="D4" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E4" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="F4" s="0" t="n">
         <v>-29.82</v>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
+      <c r="G4" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="H4" s="0" t="n">
         <v>-25.88</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4" s="0" t="n">
         <v>-22.54</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4" s="0" t="n">
         <v>-22.58</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4" s="0" t="n">
         <v>-17.59</v>
       </c>
-      <c r="L4" t="n">
+      <c r="L4" s="0" t="n">
         <v>-27.61</v>
       </c>
-      <c r="M4" t="n">
+      <c r="M4" s="0" t="n">
         <v>-30.2</v>
       </c>
-      <c r="N4" t="n">
+      <c r="N4" s="0" t="n">
         <v>-18.95</v>
       </c>
     </row>
@@ -24234,20 +24556,208 @@
       <c r="A5" s="1" t="n">
         <v>46006</v>
       </c>
+      <c r="B5" s="0" t="n">
+        <v>-22.91</v>
+      </c>
+      <c r="C5" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="D5" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E5" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>-27.25</v>
+      </c>
+      <c r="G5" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>-23.56</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>-23.26</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>-18.14</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>-17.68</v>
+      </c>
+      <c r="L5" s="0" t="n">
+        <v>-17.05</v>
+      </c>
+      <c r="M5" s="0" t="n">
+        <v>-27.22</v>
+      </c>
+      <c r="N5" s="0" t="n">
+        <v>-16.12</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>46007</v>
       </c>
+      <c r="B6" s="0" t="n">
+        <v>-22.81</v>
+      </c>
+      <c r="C6" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="D6" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E6" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>-25.95</v>
+      </c>
+      <c r="G6" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>-22.6</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>-19.92</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>-20.51</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>-16.39</v>
+      </c>
+      <c r="L6" s="0" t="n">
+        <v>-21.86</v>
+      </c>
+      <c r="M6" s="0" t="n">
+        <v>-24.7</v>
+      </c>
+      <c r="N6" s="0" t="n">
+        <v>-16.51</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>46008</v>
       </c>
+      <c r="B7" s="0" t="n">
+        <v>-25.38</v>
+      </c>
+      <c r="C7" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="D7" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E7" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>-22.3</v>
+      </c>
+      <c r="G7" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>-19.13</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>-22.75</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>-17.32</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <v>-7.3</v>
+      </c>
+      <c r="L7" s="0" t="n">
+        <v>-16.96</v>
+      </c>
+      <c r="M7" s="0" t="n">
+        <v>-24.47</v>
+      </c>
+      <c r="N7" s="0" t="n">
+        <v>-13.71</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>46009</v>
+      </c>
+      <c r="B8" t="n">
+        <v>-25.4</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>-12.7</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>-15.76</v>
+      </c>
+      <c r="I8" t="n">
+        <v>-22.31</v>
+      </c>
+      <c r="J8" t="n">
+        <v>-17.55</v>
+      </c>
+      <c r="K8" t="n">
+        <v>-13.38</v>
+      </c>
+      <c r="L8" t="n">
+        <v>-13.51</v>
+      </c>
+      <c r="M8" t="n">
+        <v>-19.59</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-8.699999999999999</v>
       </c>
     </row>
     <row r="9">

--- a/气象/蒙古存档.xlsx
+++ b/气象/蒙古存档.xlsx
@@ -11848,45 +11848,45 @@
       <c r="A250" s="1" t="n">
         <v>46009</v>
       </c>
-      <c r="B250" t="n">
+      <c r="B250" s="0" t="n">
         <v>-32.6</v>
       </c>
-      <c r="C250" t="n">
+      <c r="C250" s="0" t="n">
         <v>-31.3</v>
       </c>
-      <c r="D250" t="n">
+      <c r="D250" s="0" t="n">
         <v>-25.1</v>
       </c>
-      <c r="E250" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="F250" t="n">
+      <c r="E250" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="F250" s="0" t="n">
         <v>-19.7</v>
       </c>
-      <c r="G250" t="n">
+      <c r="G250" s="0" t="n">
         <v>-23.2</v>
       </c>
-      <c r="H250" t="n">
+      <c r="H250" s="0" t="n">
         <v>-22.3</v>
       </c>
-      <c r="I250" t="n">
+      <c r="I250" s="0" t="n">
         <v>-26.9</v>
       </c>
-      <c r="J250" t="n">
+      <c r="J250" s="0" t="n">
         <v>-23.3</v>
       </c>
-      <c r="K250" t="n">
+      <c r="K250" s="0" t="n">
         <v>-27.1</v>
       </c>
-      <c r="L250" t="n">
+      <c r="L250" s="0" t="n">
         <v>-19.7</v>
       </c>
-      <c r="M250" t="n">
+      <c r="M250" s="0" t="n">
         <v>-24</v>
       </c>
-      <c r="N250" t="n">
+      <c r="N250" s="0" t="n">
         <v>-13.4</v>
       </c>
     </row>
@@ -11894,10 +11894,90 @@
       <c r="A251" s="1" t="n">
         <v>46010</v>
       </c>
+      <c r="B251" s="0" t="n">
+        <v>-34</v>
+      </c>
+      <c r="C251" s="0" t="n">
+        <v>-33.9</v>
+      </c>
+      <c r="D251" s="0" t="n">
+        <v>-34</v>
+      </c>
+      <c r="E251" s="0" t="n">
+        <v>-30.9</v>
+      </c>
+      <c r="F251" s="0" t="n">
+        <v>-30.4</v>
+      </c>
+      <c r="G251" s="0" t="n">
+        <v>-32</v>
+      </c>
+      <c r="H251" s="0" t="n">
+        <v>-29.9</v>
+      </c>
+      <c r="I251" s="0" t="n">
+        <v>-26.4</v>
+      </c>
+      <c r="J251" s="0" t="n">
+        <v>-33</v>
+      </c>
+      <c r="K251" s="0" t="n">
+        <v>-33.4</v>
+      </c>
+      <c r="L251" s="0" t="n">
+        <v>-28.5</v>
+      </c>
+      <c r="M251" s="0" t="n">
+        <v>-37.9</v>
+      </c>
+      <c r="N251" s="0" t="n">
+        <v>-21.2</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
         <v>46011</v>
+      </c>
+      <c r="B252" t="n">
+        <v>-30.5</v>
+      </c>
+      <c r="C252" t="n">
+        <v>-31.2</v>
+      </c>
+      <c r="D252" t="n">
+        <v>-30.5</v>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="F252" t="n">
+        <v>-35.1</v>
+      </c>
+      <c r="G252" t="n">
+        <v>-34.6</v>
+      </c>
+      <c r="H252" t="n">
+        <v>-37.1</v>
+      </c>
+      <c r="I252" t="n">
+        <v>-26.9</v>
+      </c>
+      <c r="J252" t="n">
+        <v>-33</v>
+      </c>
+      <c r="K252" t="n">
+        <v>-30.5</v>
+      </c>
+      <c r="L252" t="n">
+        <v>-33.4</v>
+      </c>
+      <c r="M252" t="n">
+        <v>-37.9</v>
+      </c>
+      <c r="N252" t="n">
+        <v>-26.9</v>
       </c>
     </row>
     <row r="253">
@@ -23754,43 +23834,43 @@
       <c r="A250" s="1" t="n">
         <v>46009</v>
       </c>
-      <c r="B250" t="n">
+      <c r="B250" s="0" t="n">
         <v>-20.7</v>
       </c>
-      <c r="C250" t="n">
+      <c r="C250" s="0" t="n">
         <v>-17.3</v>
       </c>
-      <c r="D250" t="n">
+      <c r="D250" s="0" t="n">
         <v>-15</v>
       </c>
-      <c r="E250" t="n">
+      <c r="E250" s="0" t="n">
         <v>-13.8</v>
       </c>
-      <c r="F250" t="n">
+      <c r="F250" s="0" t="n">
         <v>-7.2</v>
       </c>
-      <c r="G250" t="n">
+      <c r="G250" s="0" t="n">
         <v>-12.2</v>
       </c>
-      <c r="H250" t="n">
+      <c r="H250" s="0" t="n">
         <v>-8.9</v>
       </c>
-      <c r="I250" t="n">
+      <c r="I250" s="0" t="n">
         <v>-16.4</v>
       </c>
-      <c r="J250" t="n">
+      <c r="J250" s="0" t="n">
         <v>-13.3</v>
       </c>
-      <c r="K250" t="n">
+      <c r="K250" s="0" t="n">
         <v>-1.4</v>
       </c>
-      <c r="L250" t="n">
+      <c r="L250" s="0" t="n">
         <v>-6.7</v>
       </c>
-      <c r="M250" t="n">
+      <c r="M250" s="0" t="n">
         <v>-13.3</v>
       </c>
-      <c r="N250" t="n">
+      <c r="N250" s="0" t="n">
         <v>-4.4</v>
       </c>
     </row>
@@ -23798,10 +23878,88 @@
       <c r="A251" s="1" t="n">
         <v>46010</v>
       </c>
+      <c r="B251" s="0" t="n">
+        <v>-19.7</v>
+      </c>
+      <c r="C251" s="0" t="n">
+        <v>-20.3</v>
+      </c>
+      <c r="D251" s="0" t="n">
+        <v>-24.8</v>
+      </c>
+      <c r="E251" s="0" t="n">
+        <v>-19.2</v>
+      </c>
+      <c r="F251" s="0" t="n">
+        <v>-16.2</v>
+      </c>
+      <c r="G251" s="0" t="n">
+        <v>-21.9</v>
+      </c>
+      <c r="H251" s="0" t="n">
+        <v>-8.9</v>
+      </c>
+      <c r="I251" s="0" t="n">
+        <v>-18.6</v>
+      </c>
+      <c r="J251" s="0" t="n">
+        <v>-23.3</v>
+      </c>
+      <c r="K251" s="0" t="n">
+        <v>-21</v>
+      </c>
+      <c r="L251" s="0" t="n">
+        <v>-18.1</v>
+      </c>
+      <c r="M251" s="0" t="n">
+        <v>-21.9</v>
+      </c>
+      <c r="N251" s="0" t="n">
+        <v>-10.2</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
         <v>46011</v>
+      </c>
+      <c r="B252" t="n">
+        <v>-20.2</v>
+      </c>
+      <c r="C252" t="n">
+        <v>-19.9</v>
+      </c>
+      <c r="D252" t="n">
+        <v>-18</v>
+      </c>
+      <c r="E252" t="n">
+        <v>-23.2</v>
+      </c>
+      <c r="F252" t="n">
+        <v>-23.7</v>
+      </c>
+      <c r="G252" t="n">
+        <v>-26.7</v>
+      </c>
+      <c r="H252" t="n">
+        <v>-26.4</v>
+      </c>
+      <c r="I252" t="n">
+        <v>-18.4</v>
+      </c>
+      <c r="J252" t="n">
+        <v>-19.8</v>
+      </c>
+      <c r="K252" t="n">
+        <v>-17.9</v>
+      </c>
+      <c r="L252" t="n">
+        <v>-20.1</v>
+      </c>
+      <c r="M252" t="n">
+        <v>-28.1</v>
+      </c>
+      <c r="N252" t="n">
+        <v>-17.5</v>
       </c>
     </row>
     <row r="253">
@@ -24712,51 +24870,51 @@
       <c r="A8" s="1" t="n">
         <v>46009</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8" s="0" t="n">
         <v>-25.4</v>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
+      <c r="C8" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="D8" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E8" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="F8" s="0" t="n">
         <v>-12.7</v>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
+      <c r="G8" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="H8" s="0" t="n">
         <v>-15.76</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I8" s="0" t="n">
         <v>-22.31</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J8" s="0" t="n">
         <v>-17.55</v>
       </c>
-      <c r="K8" t="n">
+      <c r="K8" s="0" t="n">
         <v>-13.38</v>
       </c>
-      <c r="L8" t="n">
+      <c r="L8" s="0" t="n">
         <v>-13.51</v>
       </c>
-      <c r="M8" t="n">
+      <c r="M8" s="0" t="n">
         <v>-19.59</v>
       </c>
-      <c r="N8" t="n">
+      <c r="N8" s="0" t="n">
         <v>-8.699999999999999</v>
       </c>
     </row>
@@ -24764,10 +24922,104 @@
       <c r="A9" s="1" t="n">
         <v>46010</v>
       </c>
+      <c r="B9" s="0" t="n">
+        <v>-25.34</v>
+      </c>
+      <c r="C9" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="D9" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E9" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>-24.75</v>
+      </c>
+      <c r="G9" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>-19.84</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>-22.56</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>-28.71</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <v>-27.86</v>
+      </c>
+      <c r="L9" s="0" t="n">
+        <v>-24.86</v>
+      </c>
+      <c r="M9" s="0" t="n">
+        <v>-31.27</v>
+      </c>
+      <c r="N9" s="0" t="n">
+        <v>-17.42</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>46011</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-24.3</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>-30.01</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>-32.61</v>
+      </c>
+      <c r="I10" t="n">
+        <v>-23.26</v>
+      </c>
+      <c r="J10" t="n">
+        <v>-25.95</v>
+      </c>
+      <c r="K10" t="n">
+        <v>-23.56</v>
+      </c>
+      <c r="L10" t="n">
+        <v>-29.13</v>
+      </c>
+      <c r="M10" t="n">
+        <v>-33.56</v>
+      </c>
+      <c r="N10" t="n">
+        <v>-22.78</v>
       </c>
     </row>
     <row r="11">

--- a/气象/蒙古存档.xlsx
+++ b/气象/蒙古存档.xlsx
@@ -11938,51 +11938,90 @@
       <c r="A252" s="1" t="n">
         <v>46011</v>
       </c>
-      <c r="B252" t="n">
+      <c r="B252" s="0" t="n">
         <v>-30.5</v>
       </c>
-      <c r="C252" t="n">
+      <c r="C252" s="0" t="n">
         <v>-31.2</v>
       </c>
-      <c r="D252" t="n">
+      <c r="D252" s="0" t="n">
         <v>-30.5</v>
       </c>
-      <c r="E252" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="F252" t="n">
+      <c r="E252" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="F252" s="0" t="n">
         <v>-35.1</v>
       </c>
-      <c r="G252" t="n">
+      <c r="G252" s="0" t="n">
         <v>-34.6</v>
       </c>
-      <c r="H252" t="n">
+      <c r="H252" s="0" t="n">
         <v>-37.1</v>
       </c>
-      <c r="I252" t="n">
+      <c r="I252" s="0" t="n">
         <v>-26.9</v>
       </c>
-      <c r="J252" t="n">
+      <c r="J252" s="0" t="n">
         <v>-33</v>
       </c>
-      <c r="K252" t="n">
+      <c r="K252" s="0" t="n">
         <v>-30.5</v>
       </c>
-      <c r="L252" t="n">
+      <c r="L252" s="0" t="n">
         <v>-33.4</v>
       </c>
-      <c r="M252" t="n">
+      <c r="M252" s="0" t="n">
         <v>-37.9</v>
       </c>
-      <c r="N252" t="n">
+      <c r="N252" s="0" t="n">
         <v>-26.9</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
         <v>46012</v>
+      </c>
+      <c r="B253" t="n">
+        <v>-32</v>
+      </c>
+      <c r="C253" t="n">
+        <v>-34.2</v>
+      </c>
+      <c r="D253" t="n">
+        <v>-33</v>
+      </c>
+      <c r="E253" t="n">
+        <v>-32.2</v>
+      </c>
+      <c r="F253" t="n">
+        <v>-35.4</v>
+      </c>
+      <c r="G253" t="n">
+        <v>-31.6</v>
+      </c>
+      <c r="H253" t="n">
+        <v>-34.3</v>
+      </c>
+      <c r="I253" t="n">
+        <v>-29</v>
+      </c>
+      <c r="J253" t="n">
+        <v>-32.9</v>
+      </c>
+      <c r="K253" t="n">
+        <v>-30.1</v>
+      </c>
+      <c r="L253" t="n">
+        <v>-33.9</v>
+      </c>
+      <c r="M253" t="n">
+        <v>-35.5</v>
+      </c>
+      <c r="N253" t="n">
+        <v>-23.5</v>
       </c>
     </row>
     <row r="254">
@@ -23922,49 +23961,88 @@
       <c r="A252" s="1" t="n">
         <v>46011</v>
       </c>
-      <c r="B252" t="n">
+      <c r="B252" s="0" t="n">
         <v>-20.2</v>
       </c>
-      <c r="C252" t="n">
+      <c r="C252" s="0" t="n">
         <v>-19.9</v>
       </c>
-      <c r="D252" t="n">
+      <c r="D252" s="0" t="n">
         <v>-18</v>
       </c>
-      <c r="E252" t="n">
+      <c r="E252" s="0" t="n">
         <v>-23.2</v>
       </c>
-      <c r="F252" t="n">
+      <c r="F252" s="0" t="n">
         <v>-23.7</v>
       </c>
-      <c r="G252" t="n">
+      <c r="G252" s="0" t="n">
         <v>-26.7</v>
       </c>
-      <c r="H252" t="n">
+      <c r="H252" s="0" t="n">
         <v>-26.4</v>
       </c>
-      <c r="I252" t="n">
+      <c r="I252" s="0" t="n">
         <v>-18.4</v>
       </c>
-      <c r="J252" t="n">
+      <c r="J252" s="0" t="n">
         <v>-19.8</v>
       </c>
-      <c r="K252" t="n">
+      <c r="K252" s="0" t="n">
         <v>-17.9</v>
       </c>
-      <c r="L252" t="n">
+      <c r="L252" s="0" t="n">
         <v>-20.1</v>
       </c>
-      <c r="M252" t="n">
+      <c r="M252" s="0" t="n">
         <v>-28.1</v>
       </c>
-      <c r="N252" t="n">
+      <c r="N252" s="0" t="n">
         <v>-17.5</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
         <v>46012</v>
+      </c>
+      <c r="B253" t="n">
+        <v>-23.2</v>
+      </c>
+      <c r="C253" t="n">
+        <v>-23.6</v>
+      </c>
+      <c r="D253" t="n">
+        <v>-19</v>
+      </c>
+      <c r="E253" t="n">
+        <v>-23.1</v>
+      </c>
+      <c r="F253" t="n">
+        <v>-24.9</v>
+      </c>
+      <c r="G253" t="n">
+        <v>-26.5</v>
+      </c>
+      <c r="H253" t="n">
+        <v>-25.1</v>
+      </c>
+      <c r="I253" t="n">
+        <v>-19.8</v>
+      </c>
+      <c r="J253" t="n">
+        <v>-20.4</v>
+      </c>
+      <c r="K253" t="n">
+        <v>-6.9</v>
+      </c>
+      <c r="L253" t="n">
+        <v>-21.5</v>
+      </c>
+      <c r="M253" t="n">
+        <v>-27</v>
+      </c>
+      <c r="N253" t="n">
+        <v>-15.2</v>
       </c>
     </row>
     <row r="254">
@@ -24974,57 +25052,104 @@
       <c r="A10" s="1" t="n">
         <v>46011</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10" s="0" t="n">
         <v>-24.3</v>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
+      <c r="C10" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="D10" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E10" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="F10" s="0" t="n">
         <v>-30.01</v>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
+      <c r="G10" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="H10" s="0" t="n">
         <v>-32.61</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I10" s="0" t="n">
         <v>-23.26</v>
       </c>
-      <c r="J10" t="n">
+      <c r="J10" s="0" t="n">
         <v>-25.95</v>
       </c>
-      <c r="K10" t="n">
+      <c r="K10" s="0" t="n">
         <v>-23.56</v>
       </c>
-      <c r="L10" t="n">
+      <c r="L10" s="0" t="n">
         <v>-29.13</v>
       </c>
-      <c r="M10" t="n">
+      <c r="M10" s="0" t="n">
         <v>-33.56</v>
       </c>
-      <c r="N10" t="n">
+      <c r="N10" s="0" t="n">
         <v>-22.78</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>46012</v>
+      </c>
+      <c r="B11" t="n">
+        <v>-27.95</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>-30.94</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>-31.06</v>
+      </c>
+      <c r="I11" t="n">
+        <v>-23.26</v>
+      </c>
+      <c r="J11" t="n">
+        <v>-25.02</v>
+      </c>
+      <c r="K11" t="n">
+        <v>-12.1</v>
+      </c>
+      <c r="L11" t="n">
+        <v>-28.56</v>
+      </c>
+      <c r="M11" t="n">
+        <v>-32.3</v>
+      </c>
+      <c r="N11" t="n">
+        <v>-20.59</v>
       </c>
     </row>
     <row r="12">

--- a/气象/蒙古存档.xlsx
+++ b/气象/蒙古存档.xlsx
@@ -11984,43 +11984,43 @@
       <c r="A253" s="1" t="n">
         <v>46012</v>
       </c>
-      <c r="B253" t="n">
+      <c r="B253" s="0" t="n">
         <v>-32</v>
       </c>
-      <c r="C253" t="n">
+      <c r="C253" s="0" t="n">
         <v>-34.2</v>
       </c>
-      <c r="D253" t="n">
+      <c r="D253" s="0" t="n">
         <v>-33</v>
       </c>
-      <c r="E253" t="n">
+      <c r="E253" s="0" t="n">
         <v>-32.2</v>
       </c>
-      <c r="F253" t="n">
+      <c r="F253" s="0" t="n">
         <v>-35.4</v>
       </c>
-      <c r="G253" t="n">
+      <c r="G253" s="0" t="n">
         <v>-31.6</v>
       </c>
-      <c r="H253" t="n">
+      <c r="H253" s="0" t="n">
         <v>-34.3</v>
       </c>
-      <c r="I253" t="n">
+      <c r="I253" s="0" t="n">
         <v>-29</v>
       </c>
-      <c r="J253" t="n">
+      <c r="J253" s="0" t="n">
         <v>-32.9</v>
       </c>
-      <c r="K253" t="n">
+      <c r="K253" s="0" t="n">
         <v>-30.1</v>
       </c>
-      <c r="L253" t="n">
+      <c r="L253" s="0" t="n">
         <v>-33.9</v>
       </c>
-      <c r="M253" t="n">
+      <c r="M253" s="0" t="n">
         <v>-35.5</v>
       </c>
-      <c r="N253" t="n">
+      <c r="N253" s="0" t="n">
         <v>-23.5</v>
       </c>
     </row>
@@ -12028,10 +12028,96 @@
       <c r="A254" s="1" t="n">
         <v>46013</v>
       </c>
+      <c r="B254" s="0" t="n">
+        <v>-31.7</v>
+      </c>
+      <c r="C254" s="0" t="n">
+        <v>-29.2</v>
+      </c>
+      <c r="D254" s="0" t="n">
+        <v>-24.5</v>
+      </c>
+      <c r="E254" s="0" t="n">
+        <v>-24.9</v>
+      </c>
+      <c r="F254" s="0" t="n">
+        <v>-29.3</v>
+      </c>
+      <c r="G254" s="0" t="n">
+        <v>-29.8</v>
+      </c>
+      <c r="H254" s="0" t="n">
+        <v>-30.3</v>
+      </c>
+      <c r="I254" s="0" t="n">
+        <v>-31.3</v>
+      </c>
+      <c r="J254" s="0" t="n">
+        <v>-23.7</v>
+      </c>
+      <c r="K254" s="0" t="n">
+        <v>-22</v>
+      </c>
+      <c r="L254" s="0" t="n">
+        <v>-27.3</v>
+      </c>
+      <c r="M254" s="0" t="n">
+        <v>-32.9</v>
+      </c>
+      <c r="N254" s="0" t="n">
+        <v>-21</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
         <v>46014</v>
+      </c>
+      <c r="B255" t="n">
+        <v>-29.2</v>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="F255" t="n">
+        <v>-30</v>
+      </c>
+      <c r="G255" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="H255" t="n">
+        <v>-30</v>
+      </c>
+      <c r="I255" t="n">
+        <v>-28.2</v>
+      </c>
+      <c r="J255" t="n">
+        <v>-24.2</v>
+      </c>
+      <c r="K255" t="n">
+        <v>-25.2</v>
+      </c>
+      <c r="L255" t="n">
+        <v>-25</v>
+      </c>
+      <c r="M255" t="n">
+        <v>-29</v>
+      </c>
+      <c r="N255" t="n">
+        <v>-23.1</v>
       </c>
     </row>
     <row r="256">
@@ -24005,43 +24091,43 @@
       <c r="A253" s="1" t="n">
         <v>46012</v>
       </c>
-      <c r="B253" t="n">
+      <c r="B253" s="0" t="n">
         <v>-23.2</v>
       </c>
-      <c r="C253" t="n">
+      <c r="C253" s="0" t="n">
         <v>-23.6</v>
       </c>
-      <c r="D253" t="n">
+      <c r="D253" s="0" t="n">
         <v>-19</v>
       </c>
-      <c r="E253" t="n">
+      <c r="E253" s="0" t="n">
         <v>-23.1</v>
       </c>
-      <c r="F253" t="n">
+      <c r="F253" s="0" t="n">
         <v>-24.9</v>
       </c>
-      <c r="G253" t="n">
+      <c r="G253" s="0" t="n">
         <v>-26.5</v>
       </c>
-      <c r="H253" t="n">
+      <c r="H253" s="0" t="n">
         <v>-25.1</v>
       </c>
-      <c r="I253" t="n">
+      <c r="I253" s="0" t="n">
         <v>-19.8</v>
       </c>
-      <c r="J253" t="n">
+      <c r="J253" s="0" t="n">
         <v>-20.4</v>
       </c>
-      <c r="K253" t="n">
+      <c r="K253" s="0" t="n">
         <v>-6.9</v>
       </c>
-      <c r="L253" t="n">
+      <c r="L253" s="0" t="n">
         <v>-21.5</v>
       </c>
-      <c r="M253" t="n">
+      <c r="M253" s="0" t="n">
         <v>-27</v>
       </c>
-      <c r="N253" t="n">
+      <c r="N253" s="0" t="n">
         <v>-15.2</v>
       </c>
     </row>
@@ -24049,10 +24135,96 @@
       <c r="A254" s="1" t="n">
         <v>46013</v>
       </c>
+      <c r="B254" s="0" t="n">
+        <v>-22.6</v>
+      </c>
+      <c r="C254" s="0" t="n">
+        <v>-22.9</v>
+      </c>
+      <c r="D254" s="0" t="n">
+        <v>-19.6</v>
+      </c>
+      <c r="E254" s="0" t="n">
+        <v>-13.6</v>
+      </c>
+      <c r="F254" s="0" t="n">
+        <v>-12.4</v>
+      </c>
+      <c r="G254" s="0" t="n">
+        <v>-25</v>
+      </c>
+      <c r="H254" s="0" t="n">
+        <v>-17</v>
+      </c>
+      <c r="I254" s="0" t="n">
+        <v>-19.4</v>
+      </c>
+      <c r="J254" s="0" t="n">
+        <v>-18.1</v>
+      </c>
+      <c r="K254" s="0" t="n">
+        <v>-7.5</v>
+      </c>
+      <c r="L254" s="0" t="n">
+        <v>-12.2</v>
+      </c>
+      <c r="M254" s="0" t="n">
+        <v>-21.2</v>
+      </c>
+      <c r="N254" s="0" t="n">
+        <v>-11.4</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
         <v>46014</v>
+      </c>
+      <c r="B255" t="n">
+        <v>-16.7</v>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="F255" t="n">
+        <v>-11.4</v>
+      </c>
+      <c r="G255" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="H255" t="n">
+        <v>-21</v>
+      </c>
+      <c r="I255" t="n">
+        <v>-17.2</v>
+      </c>
+      <c r="J255" t="n">
+        <v>-16.8</v>
+      </c>
+      <c r="K255" t="n">
+        <v>-12.4</v>
+      </c>
+      <c r="L255" t="n">
+        <v>-14.6</v>
+      </c>
+      <c r="M255" t="n">
+        <v>-13.2</v>
+      </c>
+      <c r="N255" t="n">
+        <v>-14.4</v>
       </c>
     </row>
     <row r="256">
@@ -25104,51 +25276,51 @@
       <c r="A11" s="1" t="n">
         <v>46012</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11" s="0" t="n">
         <v>-27.95</v>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
+      <c r="C11" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="D11" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E11" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="F11" s="0" t="n">
         <v>-30.94</v>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
+      <c r="G11" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="H11" s="0" t="n">
         <v>-31.06</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I11" s="0" t="n">
         <v>-23.26</v>
       </c>
-      <c r="J11" t="n">
+      <c r="J11" s="0" t="n">
         <v>-25.02</v>
       </c>
-      <c r="K11" t="n">
+      <c r="K11" s="0" t="n">
         <v>-12.1</v>
       </c>
-      <c r="L11" t="n">
+      <c r="L11" s="0" t="n">
         <v>-28.56</v>
       </c>
-      <c r="M11" t="n">
+      <c r="M11" s="0" t="n">
         <v>-32.3</v>
       </c>
-      <c r="N11" t="n">
+      <c r="N11" s="0" t="n">
         <v>-20.59</v>
       </c>
     </row>
@@ -25156,10 +25328,106 @@
       <c r="A12" s="1" t="n">
         <v>46013</v>
       </c>
+      <c r="B12" s="0" t="n">
+        <v>-25.51</v>
+      </c>
+      <c r="C12" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="D12" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E12" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>-19.82</v>
+      </c>
+      <c r="G12" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>-23.71</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>-24.38</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>-20.61</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <v>-15.25</v>
+      </c>
+      <c r="L12" s="0" t="n">
+        <v>-18.57</v>
+      </c>
+      <c r="M12" s="0" t="n">
+        <v>-28.51</v>
+      </c>
+      <c r="N12" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>46014</v>
+      </c>
+      <c r="B13" t="n">
+        <v>-22.46</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>-23.09</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>-25.51</v>
+      </c>
+      <c r="I13" t="n">
+        <v>-23.76</v>
+      </c>
+      <c r="J13" t="n">
+        <v>-20.75</v>
+      </c>
+      <c r="K13" t="n">
+        <v>-16.18</v>
+      </c>
+      <c r="L13" t="n">
+        <v>-20.54</v>
+      </c>
+      <c r="M13" t="n">
+        <v>-22.64</v>
+      </c>
+      <c r="N13" t="n">
+        <v>-18.96</v>
       </c>
     </row>
     <row r="14">

--- a/气象/蒙古存档.xlsx
+++ b/气象/蒙古存档.xlsx
@@ -12072,51 +12072,51 @@
       <c r="A255" s="1" t="n">
         <v>46014</v>
       </c>
-      <c r="B255" t="n">
+      <c r="B255" s="0" t="n">
         <v>-29.2</v>
       </c>
-      <c r="C255" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="D255" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="E255" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="F255" t="n">
+      <c r="C255" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="D255" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E255" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="F255" s="0" t="n">
         <v>-30</v>
       </c>
-      <c r="G255" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="H255" t="n">
+      <c r="G255" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="H255" s="0" t="n">
         <v>-30</v>
       </c>
-      <c r="I255" t="n">
+      <c r="I255" s="0" t="n">
         <v>-28.2</v>
       </c>
-      <c r="J255" t="n">
+      <c r="J255" s="0" t="n">
         <v>-24.2</v>
       </c>
-      <c r="K255" t="n">
+      <c r="K255" s="0" t="n">
         <v>-25.2</v>
       </c>
-      <c r="L255" t="n">
+      <c r="L255" s="0" t="n">
         <v>-25</v>
       </c>
-      <c r="M255" t="n">
+      <c r="M255" s="0" t="n">
         <v>-29</v>
       </c>
-      <c r="N255" t="n">
+      <c r="N255" s="0" t="n">
         <v>-23.1</v>
       </c>
     </row>
@@ -12124,15 +12124,142 @@
       <c r="A256" s="1" t="n">
         <v>46015</v>
       </c>
+      <c r="B256" s="0" t="n">
+        <v>-29.7</v>
+      </c>
+      <c r="C256" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="D256" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E256" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="F256" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G256" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="H256" s="0" t="n">
+        <v>-34.7</v>
+      </c>
+      <c r="I256" s="0" t="n">
+        <v>-26.5</v>
+      </c>
+      <c r="J256" s="0" t="n">
+        <v>-26.1</v>
+      </c>
+      <c r="K256" s="0" t="n">
+        <v>-30.6</v>
+      </c>
+      <c r="L256" s="0" t="n">
+        <v>-25.1</v>
+      </c>
+      <c r="M256" s="0" t="n">
+        <v>-29.2</v>
+      </c>
+      <c r="N256" s="0" t="n">
+        <v>-23.3</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
         <v>46016</v>
       </c>
+      <c r="B257" s="0" t="n">
+        <v>-30.6</v>
+      </c>
+      <c r="C257" s="0" t="n">
+        <v>-31.1</v>
+      </c>
+      <c r="D257" s="0" t="n">
+        <v>-28.1</v>
+      </c>
+      <c r="E257" s="0" t="n">
+        <v>-28.7</v>
+      </c>
+      <c r="F257" s="0" t="n">
+        <v>-33.4</v>
+      </c>
+      <c r="G257" s="0" t="n">
+        <v>-26.1</v>
+      </c>
+      <c r="H257" s="0" t="n">
+        <v>-33.5</v>
+      </c>
+      <c r="I257" s="0" t="n">
+        <v>-27.7</v>
+      </c>
+      <c r="J257" s="0" t="n">
+        <v>-29.8</v>
+      </c>
+      <c r="K257" s="0" t="n">
+        <v>-29.1</v>
+      </c>
+      <c r="L257" s="0" t="n">
+        <v>-29.6</v>
+      </c>
+      <c r="M257" s="0" t="n">
+        <v>-27.8</v>
+      </c>
+      <c r="N257" s="0" t="n">
+        <v>-22.8</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
         <v>46017</v>
+      </c>
+      <c r="B258" t="n">
+        <v>-33.5</v>
+      </c>
+      <c r="C258" t="n">
+        <v>-35</v>
+      </c>
+      <c r="D258" t="n">
+        <v>-31.5</v>
+      </c>
+      <c r="E258" t="n">
+        <v>-31.8</v>
+      </c>
+      <c r="F258" t="n">
+        <v>-34.3</v>
+      </c>
+      <c r="G258" t="n">
+        <v>-28.6</v>
+      </c>
+      <c r="H258" t="n">
+        <v>-31.7</v>
+      </c>
+      <c r="I258" t="n">
+        <v>-31</v>
+      </c>
+      <c r="J258" t="n">
+        <v>-32.6</v>
+      </c>
+      <c r="K258" t="n">
+        <v>-32.3</v>
+      </c>
+      <c r="L258" t="n">
+        <v>-33</v>
+      </c>
+      <c r="M258" t="n">
+        <v>-30.7</v>
+      </c>
+      <c r="N258" t="n">
+        <v>-20.1</v>
       </c>
     </row>
     <row r="259">
@@ -24179,51 +24306,51 @@
       <c r="A255" s="1" t="n">
         <v>46014</v>
       </c>
-      <c r="B255" t="n">
+      <c r="B255" s="0" t="n">
         <v>-16.7</v>
       </c>
-      <c r="C255" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="D255" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="E255" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="F255" t="n">
+      <c r="C255" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="D255" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E255" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="F255" s="0" t="n">
         <v>-11.4</v>
       </c>
-      <c r="G255" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="H255" t="n">
+      <c r="G255" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="H255" s="0" t="n">
         <v>-21</v>
       </c>
-      <c r="I255" t="n">
+      <c r="I255" s="0" t="n">
         <v>-17.2</v>
       </c>
-      <c r="J255" t="n">
+      <c r="J255" s="0" t="n">
         <v>-16.8</v>
       </c>
-      <c r="K255" t="n">
+      <c r="K255" s="0" t="n">
         <v>-12.4</v>
       </c>
-      <c r="L255" t="n">
+      <c r="L255" s="0" t="n">
         <v>-14.6</v>
       </c>
-      <c r="M255" t="n">
+      <c r="M255" s="0" t="n">
         <v>-13.2</v>
       </c>
-      <c r="N255" t="n">
+      <c r="N255" s="0" t="n">
         <v>-14.4</v>
       </c>
     </row>
@@ -24231,15 +24358,142 @@
       <c r="A256" s="1" t="n">
         <v>46015</v>
       </c>
+      <c r="B256" s="0" t="n">
+        <v>-22</v>
+      </c>
+      <c r="C256" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="D256" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E256" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="F256" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G256" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="H256" s="0" t="n">
+        <v>-24.1</v>
+      </c>
+      <c r="I256" s="0" t="n">
+        <v>-17</v>
+      </c>
+      <c r="J256" s="0" t="n">
+        <v>-19.1</v>
+      </c>
+      <c r="K256" s="0" t="n">
+        <v>-15.6</v>
+      </c>
+      <c r="L256" s="0" t="n">
+        <v>-16.3</v>
+      </c>
+      <c r="M256" s="0" t="n">
+        <v>-15.8</v>
+      </c>
+      <c r="N256" s="0" t="n">
+        <v>-16.2</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
         <v>46016</v>
       </c>
+      <c r="B257" s="0" t="n">
+        <v>-23.7</v>
+      </c>
+      <c r="C257" s="0" t="n">
+        <v>-20.9</v>
+      </c>
+      <c r="D257" s="0" t="n">
+        <v>-18.4</v>
+      </c>
+      <c r="E257" s="0" t="n">
+        <v>-22.5</v>
+      </c>
+      <c r="F257" s="0" t="n">
+        <v>-22.4</v>
+      </c>
+      <c r="G257" s="0" t="n">
+        <v>-19.6</v>
+      </c>
+      <c r="H257" s="0" t="n">
+        <v>-24.4</v>
+      </c>
+      <c r="I257" s="0" t="n">
+        <v>-18.9</v>
+      </c>
+      <c r="J257" s="0" t="n">
+        <v>-18.5</v>
+      </c>
+      <c r="K257" s="0" t="n">
+        <v>-16</v>
+      </c>
+      <c r="L257" s="0" t="n">
+        <v>-21.4</v>
+      </c>
+      <c r="M257" s="0" t="n">
+        <v>-21.6</v>
+      </c>
+      <c r="N257" s="0" t="n">
+        <v>-15.5</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
         <v>46017</v>
+      </c>
+      <c r="B258" t="n">
+        <v>-25.1</v>
+      </c>
+      <c r="C258" t="n">
+        <v>-24.2</v>
+      </c>
+      <c r="D258" t="n">
+        <v>-20.4</v>
+      </c>
+      <c r="E258" t="n">
+        <v>-23.9</v>
+      </c>
+      <c r="F258" t="n">
+        <v>-23.1</v>
+      </c>
+      <c r="G258" t="n">
+        <v>-23.3</v>
+      </c>
+      <c r="H258" t="n">
+        <v>-23.5</v>
+      </c>
+      <c r="I258" t="n">
+        <v>-22.6</v>
+      </c>
+      <c r="J258" t="n">
+        <v>-20.7</v>
+      </c>
+      <c r="K258" t="n">
+        <v>-18.1</v>
+      </c>
+      <c r="L258" t="n">
+        <v>-22.6</v>
+      </c>
+      <c r="M258" t="n">
+        <v>-26</v>
+      </c>
+      <c r="N258" t="n">
+        <v>-11.8</v>
       </c>
     </row>
     <row r="259">
@@ -25382,51 +25636,51 @@
       <c r="A13" s="1" t="n">
         <v>46014</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13" s="0" t="n">
         <v>-22.46</v>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
+      <c r="C13" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="D13" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E13" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="F13" s="0" t="n">
         <v>-23.09</v>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
+      <c r="G13" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="H13" s="0" t="n">
         <v>-25.51</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I13" s="0" t="n">
         <v>-23.76</v>
       </c>
-      <c r="J13" t="n">
+      <c r="J13" s="0" t="n">
         <v>-20.75</v>
       </c>
-      <c r="K13" t="n">
+      <c r="K13" s="0" t="n">
         <v>-16.18</v>
       </c>
-      <c r="L13" t="n">
+      <c r="L13" s="0" t="n">
         <v>-20.54</v>
       </c>
-      <c r="M13" t="n">
+      <c r="M13" s="0" t="n">
         <v>-22.64</v>
       </c>
-      <c r="N13" t="n">
+      <c r="N13" s="0" t="n">
         <v>-18.96</v>
       </c>
     </row>
@@ -25434,15 +25688,162 @@
       <c r="A14" s="1" t="n">
         <v>46015</v>
       </c>
+      <c r="B14" s="0" t="n">
+        <v>-25.5</v>
+      </c>
+      <c r="C14" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="D14" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E14" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="F14" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G14" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>-29.96</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>-23.8</v>
+      </c>
+      <c r="J14" s="0" t="n">
+        <v>-22.04</v>
+      </c>
+      <c r="K14" s="0" t="n">
+        <v>-22.75</v>
+      </c>
+      <c r="L14" s="0" t="n">
+        <v>-20.09</v>
+      </c>
+      <c r="M14" s="0" t="n">
+        <v>-21.74</v>
+      </c>
+      <c r="N14" s="0" t="n">
+        <v>-20.06</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>46016</v>
       </c>
+      <c r="B15" s="0" t="n">
+        <v>-27.25</v>
+      </c>
+      <c r="C15" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="D15" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E15" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="F15" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G15" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>-29.59</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>-24.61</v>
+      </c>
+      <c r="J15" s="0" t="n">
+        <v>-24.29</v>
+      </c>
+      <c r="K15" s="0" t="n">
+        <v>-23.76</v>
+      </c>
+      <c r="L15" s="0" t="n">
+        <v>-26.45</v>
+      </c>
+      <c r="M15" s="0" t="n">
+        <v>-24.73</v>
+      </c>
+      <c r="N15" s="0" t="n">
+        <v>-19.88</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>46017</v>
+      </c>
+      <c r="B16" t="n">
+        <v>-28.79</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>-27.98</v>
+      </c>
+      <c r="I16" t="n">
+        <v>-25.2</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-28.45</v>
+      </c>
+      <c r="K16" t="n">
+        <v>-26.73</v>
+      </c>
+      <c r="L16" t="n">
+        <v>-29.9</v>
+      </c>
+      <c r="M16" t="n">
+        <v>-28.55</v>
+      </c>
+      <c r="N16" t="n">
+        <v>-16.7</v>
       </c>
     </row>
     <row r="17">

--- a/气象/蒙古存档.xlsx
+++ b/气象/蒙古存档.xlsx
@@ -12486,49 +12486,88 @@
       <c r="A264" s="1" t="n">
         <v>46023</v>
       </c>
-      <c r="B264" t="n">
+      <c r="B264" s="0" t="n">
         <v>-39.8</v>
       </c>
-      <c r="C264" t="n">
+      <c r="C264" s="0" t="n">
         <v>-41.5</v>
       </c>
-      <c r="D264" t="n">
+      <c r="D264" s="0" t="n">
         <v>-37.2</v>
       </c>
-      <c r="E264" t="n">
+      <c r="E264" s="0" t="n">
         <v>-36.2</v>
       </c>
-      <c r="F264" t="n">
+      <c r="F264" s="0" t="n">
         <v>-39.2</v>
       </c>
-      <c r="G264" t="n">
+      <c r="G264" s="0" t="n">
         <v>-34.5</v>
       </c>
-      <c r="H264" t="n">
+      <c r="H264" s="0" t="n">
         <v>-35</v>
       </c>
-      <c r="I264" t="n">
+      <c r="I264" s="0" t="n">
         <v>-35.8</v>
       </c>
-      <c r="J264" t="n">
+      <c r="J264" s="0" t="n">
         <v>-35.2</v>
       </c>
-      <c r="K264" t="n">
+      <c r="K264" s="0" t="n">
         <v>-34.1</v>
       </c>
-      <c r="L264" t="n">
+      <c r="L264" s="0" t="n">
         <v>-38.4</v>
       </c>
-      <c r="M264" t="n">
+      <c r="M264" s="0" t="n">
         <v>-37.7</v>
       </c>
-      <c r="N264" t="n">
+      <c r="N264" s="0" t="n">
         <v>-23.7</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
         <v>46024</v>
+      </c>
+      <c r="B265" t="n">
+        <v>-35.8</v>
+      </c>
+      <c r="C265" t="n">
+        <v>-38.8</v>
+      </c>
+      <c r="D265" t="n">
+        <v>-37.1</v>
+      </c>
+      <c r="E265" t="n">
+        <v>-36.9</v>
+      </c>
+      <c r="F265" t="n">
+        <v>-40.6</v>
+      </c>
+      <c r="G265" t="n">
+        <v>-34.8</v>
+      </c>
+      <c r="H265" t="n">
+        <v>-34.1</v>
+      </c>
+      <c r="I265" t="n">
+        <v>-33.6</v>
+      </c>
+      <c r="J265" t="n">
+        <v>-35.7</v>
+      </c>
+      <c r="K265" t="n">
+        <v>-34.1</v>
+      </c>
+      <c r="L265" t="n">
+        <v>-39.5</v>
+      </c>
+      <c r="M265" t="n">
+        <v>-37.2</v>
+      </c>
+      <c r="N265" t="n">
+        <v>-23.8</v>
       </c>
     </row>
     <row r="266">
@@ -24956,49 +24995,88 @@
       <c r="A264" s="1" t="n">
         <v>46023</v>
       </c>
-      <c r="B264" t="n">
+      <c r="B264" s="0" t="n">
         <v>-30.9</v>
       </c>
-      <c r="C264" t="n">
+      <c r="C264" s="0" t="n">
         <v>-28.8</v>
       </c>
-      <c r="D264" t="n">
+      <c r="D264" s="0" t="n">
         <v>-27.1</v>
       </c>
-      <c r="E264" t="n">
+      <c r="E264" s="0" t="n">
         <v>-27.7</v>
       </c>
-      <c r="F264" t="n">
+      <c r="F264" s="0" t="n">
         <v>-25.4</v>
       </c>
-      <c r="G264" t="n">
+      <c r="G264" s="0" t="n">
         <v>-27.5</v>
       </c>
-      <c r="H264" t="n">
+      <c r="H264" s="0" t="n">
         <v>-25.3</v>
       </c>
-      <c r="I264" t="n">
+      <c r="I264" s="0" t="n">
         <v>-23.2</v>
       </c>
-      <c r="J264" t="n">
+      <c r="J264" s="0" t="n">
         <v>-20.6</v>
       </c>
-      <c r="K264" t="n">
+      <c r="K264" s="0" t="n">
         <v>-20.2</v>
       </c>
-      <c r="L264" t="n">
+      <c r="L264" s="0" t="n">
         <v>-27.2</v>
       </c>
-      <c r="M264" t="n">
+      <c r="M264" s="0" t="n">
         <v>-27</v>
       </c>
-      <c r="N264" t="n">
+      <c r="N264" s="0" t="n">
         <v>-14.1</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
         <v>46024</v>
+      </c>
+      <c r="B265" t="n">
+        <v>-27.7</v>
+      </c>
+      <c r="C265" t="n">
+        <v>-24.3</v>
+      </c>
+      <c r="D265" t="n">
+        <v>-25.5</v>
+      </c>
+      <c r="E265" t="n">
+        <v>-26.7</v>
+      </c>
+      <c r="F265" t="n">
+        <v>-27.5</v>
+      </c>
+      <c r="G265" t="n">
+        <v>-27.2</v>
+      </c>
+      <c r="H265" t="n">
+        <v>-24.8</v>
+      </c>
+      <c r="I265" t="n">
+        <v>-21.9</v>
+      </c>
+      <c r="J265" t="n">
+        <v>-24.4</v>
+      </c>
+      <c r="K265" t="n">
+        <v>-16.2</v>
+      </c>
+      <c r="L265" t="n">
+        <v>-27</v>
+      </c>
+      <c r="M265" t="n">
+        <v>-27.2</v>
+      </c>
+      <c r="N265" t="n">
+        <v>-12.2</v>
       </c>
     </row>
     <row r="266">
@@ -26590,59 +26668,108 @@
       <c r="A22" s="1" t="n">
         <v>46023</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22" s="0" t="n">
         <v>-35.95</v>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
+      <c r="C22" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="D22" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E22" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="F22" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G22" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="H22" s="0" t="n">
         <v>-30.89</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I22" s="0" t="n">
         <v>-31.65</v>
       </c>
-      <c r="J22" t="n">
+      <c r="J22" s="0" t="n">
         <v>-29.51</v>
       </c>
-      <c r="K22" t="n">
+      <c r="K22" s="0" t="n">
         <v>-27.89</v>
       </c>
-      <c r="L22" t="n">
+      <c r="L22" s="0" t="n">
         <v>-34.25</v>
       </c>
-      <c r="M22" t="n">
+      <c r="M22" s="0" t="n">
         <v>-34.64</v>
       </c>
-      <c r="N22" t="n">
+      <c r="N22" s="0" t="n">
         <v>-19.57</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>46024</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-32.14</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>-30.48</v>
+      </c>
+      <c r="I23" t="n">
+        <v>-29.06</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-30.85</v>
+      </c>
+      <c r="K23" t="n">
+        <v>-27.67</v>
+      </c>
+      <c r="L23" t="n">
+        <v>-34.3</v>
+      </c>
+      <c r="M23" t="n">
+        <v>-33.36</v>
+      </c>
+      <c r="N23" t="n">
+        <v>-19.05</v>
       </c>
     </row>
     <row r="24">

--- a/气象/蒙古存档.xlsx
+++ b/气象/蒙古存档.xlsx
@@ -12530,49 +12530,88 @@
       <c r="A265" s="1" t="n">
         <v>46024</v>
       </c>
-      <c r="B265" t="n">
+      <c r="B265" s="0" t="n">
         <v>-35.8</v>
       </c>
-      <c r="C265" t="n">
+      <c r="C265" s="0" t="n">
         <v>-38.8</v>
       </c>
-      <c r="D265" t="n">
+      <c r="D265" s="0" t="n">
         <v>-37.1</v>
       </c>
-      <c r="E265" t="n">
+      <c r="E265" s="0" t="n">
         <v>-36.9</v>
       </c>
-      <c r="F265" t="n">
+      <c r="F265" s="0" t="n">
         <v>-40.6</v>
       </c>
-      <c r="G265" t="n">
+      <c r="G265" s="0" t="n">
         <v>-34.8</v>
       </c>
-      <c r="H265" t="n">
+      <c r="H265" s="0" t="n">
         <v>-34.1</v>
       </c>
-      <c r="I265" t="n">
+      <c r="I265" s="0" t="n">
         <v>-33.6</v>
       </c>
-      <c r="J265" t="n">
+      <c r="J265" s="0" t="n">
         <v>-35.7</v>
       </c>
-      <c r="K265" t="n">
+      <c r="K265" s="0" t="n">
         <v>-34.1</v>
       </c>
-      <c r="L265" t="n">
+      <c r="L265" s="0" t="n">
         <v>-39.5</v>
       </c>
-      <c r="M265" t="n">
+      <c r="M265" s="0" t="n">
         <v>-37.2</v>
       </c>
-      <c r="N265" t="n">
+      <c r="N265" s="0" t="n">
         <v>-23.8</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
         <v>46025</v>
+      </c>
+      <c r="B266" t="n">
+        <v>-36</v>
+      </c>
+      <c r="C266" t="n">
+        <v>-38.7</v>
+      </c>
+      <c r="D266" t="n">
+        <v>-35</v>
+      </c>
+      <c r="E266" t="n">
+        <v>-33.6</v>
+      </c>
+      <c r="F266" t="n">
+        <v>-38.8</v>
+      </c>
+      <c r="G266" t="n">
+        <v>-33.9</v>
+      </c>
+      <c r="H266" t="n">
+        <v>-33.2</v>
+      </c>
+      <c r="I266" t="n">
+        <v>-35.6</v>
+      </c>
+      <c r="J266" t="n">
+        <v>-37.2</v>
+      </c>
+      <c r="K266" t="n">
+        <v>-31.2</v>
+      </c>
+      <c r="L266" t="n">
+        <v>-35.6</v>
+      </c>
+      <c r="M266" t="n">
+        <v>-35.5</v>
+      </c>
+      <c r="N266" t="n">
+        <v>-23.7</v>
       </c>
     </row>
     <row r="267">
@@ -25039,49 +25078,88 @@
       <c r="A265" s="1" t="n">
         <v>46024</v>
       </c>
-      <c r="B265" t="n">
+      <c r="B265" s="0" t="n">
         <v>-27.7</v>
       </c>
-      <c r="C265" t="n">
+      <c r="C265" s="0" t="n">
         <v>-24.3</v>
       </c>
-      <c r="D265" t="n">
+      <c r="D265" s="0" t="n">
         <v>-25.5</v>
       </c>
-      <c r="E265" t="n">
+      <c r="E265" s="0" t="n">
         <v>-26.7</v>
       </c>
-      <c r="F265" t="n">
+      <c r="F265" s="0" t="n">
         <v>-27.5</v>
       </c>
-      <c r="G265" t="n">
+      <c r="G265" s="0" t="n">
         <v>-27.2</v>
       </c>
-      <c r="H265" t="n">
+      <c r="H265" s="0" t="n">
         <v>-24.8</v>
       </c>
-      <c r="I265" t="n">
+      <c r="I265" s="0" t="n">
         <v>-21.9</v>
       </c>
-      <c r="J265" t="n">
+      <c r="J265" s="0" t="n">
         <v>-24.4</v>
       </c>
-      <c r="K265" t="n">
+      <c r="K265" s="0" t="n">
         <v>-16.2</v>
       </c>
-      <c r="L265" t="n">
+      <c r="L265" s="0" t="n">
         <v>-27</v>
       </c>
-      <c r="M265" t="n">
+      <c r="M265" s="0" t="n">
         <v>-27.2</v>
       </c>
-      <c r="N265" t="n">
+      <c r="N265" s="0" t="n">
         <v>-12.2</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
         <v>46025</v>
+      </c>
+      <c r="B266" t="n">
+        <v>-28.8</v>
+      </c>
+      <c r="C266" t="n">
+        <v>-26.8</v>
+      </c>
+      <c r="D266" t="n">
+        <v>-26.2</v>
+      </c>
+      <c r="E266" t="n">
+        <v>-26</v>
+      </c>
+      <c r="F266" t="n">
+        <v>-25.5</v>
+      </c>
+      <c r="G266" t="n">
+        <v>-27.7</v>
+      </c>
+      <c r="H266" t="n">
+        <v>-19</v>
+      </c>
+      <c r="I266" t="n">
+        <v>-19.6</v>
+      </c>
+      <c r="J266" t="n">
+        <v>-23.7</v>
+      </c>
+      <c r="K266" t="n">
+        <v>-18.4</v>
+      </c>
+      <c r="L266" t="n">
+        <v>-23.6</v>
+      </c>
+      <c r="M266" t="n">
+        <v>-28.6</v>
+      </c>
+      <c r="N266" t="n">
+        <v>-8.199999999999999</v>
       </c>
     </row>
     <row r="267">
@@ -26722,59 +26800,108 @@
       <c r="A23" s="1" t="n">
         <v>46024</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23" s="0" t="n">
         <v>-32.14</v>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
+      <c r="C23" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="D23" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E23" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="F23" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G23" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="H23" s="0" t="n">
         <v>-30.48</v>
       </c>
-      <c r="I23" t="n">
+      <c r="I23" s="0" t="n">
         <v>-29.06</v>
       </c>
-      <c r="J23" t="n">
+      <c r="J23" s="0" t="n">
         <v>-30.85</v>
       </c>
-      <c r="K23" t="n">
+      <c r="K23" s="0" t="n">
         <v>-27.67</v>
       </c>
-      <c r="L23" t="n">
+      <c r="L23" s="0" t="n">
         <v>-34.3</v>
       </c>
-      <c r="M23" t="n">
+      <c r="M23" s="0" t="n">
         <v>-33.36</v>
       </c>
-      <c r="N23" t="n">
+      <c r="N23" s="0" t="n">
         <v>-19.05</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>46025</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-32.11</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>-23.96</v>
+      </c>
+      <c r="I24" t="n">
+        <v>-29.84</v>
+      </c>
+      <c r="J24" t="n">
+        <v>-32.06</v>
+      </c>
+      <c r="K24" t="n">
+        <v>-26.2</v>
+      </c>
+      <c r="L24" t="n">
+        <v>-31.5</v>
+      </c>
+      <c r="M24" t="n">
+        <v>-32.66</v>
+      </c>
+      <c r="N24" t="n">
+        <v>-16.64</v>
       </c>
     </row>
     <row r="25">

--- a/气象/蒙古存档.xlsx
+++ b/气象/蒙古存档.xlsx
@@ -12574,49 +12574,88 @@
       <c r="A266" s="1" t="n">
         <v>46025</v>
       </c>
-      <c r="B266" t="n">
+      <c r="B266" s="0" t="n">
         <v>-36</v>
       </c>
-      <c r="C266" t="n">
+      <c r="C266" s="0" t="n">
         <v>-38.7</v>
       </c>
-      <c r="D266" t="n">
+      <c r="D266" s="0" t="n">
         <v>-35</v>
       </c>
-      <c r="E266" t="n">
+      <c r="E266" s="0" t="n">
         <v>-33.6</v>
       </c>
-      <c r="F266" t="n">
+      <c r="F266" s="0" t="n">
         <v>-38.8</v>
       </c>
-      <c r="G266" t="n">
+      <c r="G266" s="0" t="n">
         <v>-33.9</v>
       </c>
-      <c r="H266" t="n">
+      <c r="H266" s="0" t="n">
         <v>-33.2</v>
       </c>
-      <c r="I266" t="n">
+      <c r="I266" s="0" t="n">
         <v>-35.6</v>
       </c>
-      <c r="J266" t="n">
+      <c r="J266" s="0" t="n">
         <v>-37.2</v>
       </c>
-      <c r="K266" t="n">
+      <c r="K266" s="0" t="n">
         <v>-31.2</v>
       </c>
-      <c r="L266" t="n">
+      <c r="L266" s="0" t="n">
         <v>-35.6</v>
       </c>
-      <c r="M266" t="n">
+      <c r="M266" s="0" t="n">
         <v>-35.5</v>
       </c>
-      <c r="N266" t="n">
+      <c r="N266" s="0" t="n">
         <v>-23.7</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
         <v>46026</v>
+      </c>
+      <c r="B267" t="n">
+        <v>-36.5</v>
+      </c>
+      <c r="C267" t="n">
+        <v>-40.5</v>
+      </c>
+      <c r="D267" t="n">
+        <v>-32</v>
+      </c>
+      <c r="E267" t="n">
+        <v>-35.8</v>
+      </c>
+      <c r="F267" t="n">
+        <v>-39</v>
+      </c>
+      <c r="G267" t="n">
+        <v>-33.7</v>
+      </c>
+      <c r="H267" t="n">
+        <v>-31.8</v>
+      </c>
+      <c r="I267" t="n">
+        <v>-34.4</v>
+      </c>
+      <c r="J267" t="n">
+        <v>-33.2</v>
+      </c>
+      <c r="K267" t="n">
+        <v>-34.2</v>
+      </c>
+      <c r="L267" t="n">
+        <v>-37.7</v>
+      </c>
+      <c r="M267" t="n">
+        <v>-36.7</v>
+      </c>
+      <c r="N267" t="n">
+        <v>-21.3</v>
       </c>
     </row>
     <row r="268">
@@ -25122,49 +25161,90 @@
       <c r="A266" s="1" t="n">
         <v>46025</v>
       </c>
-      <c r="B266" t="n">
+      <c r="B266" s="0" t="n">
         <v>-28.8</v>
       </c>
-      <c r="C266" t="n">
+      <c r="C266" s="0" t="n">
         <v>-26.8</v>
       </c>
-      <c r="D266" t="n">
+      <c r="D266" s="0" t="n">
         <v>-26.2</v>
       </c>
-      <c r="E266" t="n">
+      <c r="E266" s="0" t="n">
         <v>-26</v>
       </c>
-      <c r="F266" t="n">
+      <c r="F266" s="0" t="n">
         <v>-25.5</v>
       </c>
-      <c r="G266" t="n">
+      <c r="G266" s="0" t="n">
         <v>-27.7</v>
       </c>
-      <c r="H266" t="n">
+      <c r="H266" s="0" t="n">
         <v>-19</v>
       </c>
-      <c r="I266" t="n">
+      <c r="I266" s="0" t="n">
         <v>-19.6</v>
       </c>
-      <c r="J266" t="n">
+      <c r="J266" s="0" t="n">
         <v>-23.7</v>
       </c>
-      <c r="K266" t="n">
+      <c r="K266" s="0" t="n">
         <v>-18.4</v>
       </c>
-      <c r="L266" t="n">
+      <c r="L266" s="0" t="n">
         <v>-23.6</v>
       </c>
-      <c r="M266" t="n">
+      <c r="M266" s="0" t="n">
         <v>-28.6</v>
       </c>
-      <c r="N266" t="n">
+      <c r="N266" s="0" t="n">
         <v>-8.199999999999999</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
         <v>46026</v>
+      </c>
+      <c r="B267" t="n">
+        <v>-30.8</v>
+      </c>
+      <c r="C267" t="n">
+        <v>-27.9</v>
+      </c>
+      <c r="D267" t="n">
+        <v>-25.6</v>
+      </c>
+      <c r="E267" t="n">
+        <v>-27.6</v>
+      </c>
+      <c r="F267" t="n">
+        <v>-25.1</v>
+      </c>
+      <c r="G267" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="H267" t="n">
+        <v>-21.5</v>
+      </c>
+      <c r="I267" t="n">
+        <v>-24.3</v>
+      </c>
+      <c r="J267" t="n">
+        <v>-21.4</v>
+      </c>
+      <c r="K267" t="n">
+        <v>-19.8</v>
+      </c>
+      <c r="L267" t="n">
+        <v>-27</v>
+      </c>
+      <c r="M267" t="n">
+        <v>-25.7</v>
+      </c>
+      <c r="N267" t="n">
+        <v>-11.3</v>
       </c>
     </row>
     <row r="268">
@@ -26854,59 +26934,108 @@
       <c r="A24" s="1" t="n">
         <v>46025</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24" s="0" t="n">
         <v>-32.11</v>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
+      <c r="C24" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="D24" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E24" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="F24" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G24" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="H24" s="0" t="n">
         <v>-23.96</v>
       </c>
-      <c r="I24" t="n">
+      <c r="I24" s="0" t="n">
         <v>-29.84</v>
       </c>
-      <c r="J24" t="n">
+      <c r="J24" s="0" t="n">
         <v>-32.06</v>
       </c>
-      <c r="K24" t="n">
+      <c r="K24" s="0" t="n">
         <v>-26.2</v>
       </c>
-      <c r="L24" t="n">
+      <c r="L24" s="0" t="n">
         <v>-31.5</v>
       </c>
-      <c r="M24" t="n">
+      <c r="M24" s="0" t="n">
         <v>-32.66</v>
       </c>
-      <c r="N24" t="n">
+      <c r="N24" s="0" t="n">
         <v>-16.64</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>46026</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-33.65</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>-27.35</v>
+      </c>
+      <c r="I25" t="n">
+        <v>-30.92</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-28.11</v>
+      </c>
+      <c r="K25" t="n">
+        <v>-29.69</v>
+      </c>
+      <c r="L25" t="n">
+        <v>-33.62</v>
+      </c>
+      <c r="M25" t="n">
+        <v>-33.29</v>
+      </c>
+      <c r="N25" t="n">
+        <v>-16.31</v>
       </c>
     </row>
     <row r="26">

--- a/气象/蒙古存档.xlsx
+++ b/气象/蒙古存档.xlsx
@@ -12618,49 +12618,88 @@
       <c r="A267" s="1" t="n">
         <v>46026</v>
       </c>
-      <c r="B267" t="n">
+      <c r="B267" s="0" t="n">
         <v>-36.5</v>
       </c>
-      <c r="C267" t="n">
+      <c r="C267" s="0" t="n">
         <v>-40.5</v>
       </c>
-      <c r="D267" t="n">
+      <c r="D267" s="0" t="n">
         <v>-32</v>
       </c>
-      <c r="E267" t="n">
+      <c r="E267" s="0" t="n">
         <v>-35.8</v>
       </c>
-      <c r="F267" t="n">
+      <c r="F267" s="0" t="n">
         <v>-39</v>
       </c>
-      <c r="G267" t="n">
+      <c r="G267" s="0" t="n">
         <v>-33.7</v>
       </c>
-      <c r="H267" t="n">
+      <c r="H267" s="0" t="n">
         <v>-31.8</v>
       </c>
-      <c r="I267" t="n">
+      <c r="I267" s="0" t="n">
         <v>-34.4</v>
       </c>
-      <c r="J267" t="n">
+      <c r="J267" s="0" t="n">
         <v>-33.2</v>
       </c>
-      <c r="K267" t="n">
+      <c r="K267" s="0" t="n">
         <v>-34.2</v>
       </c>
-      <c r="L267" t="n">
+      <c r="L267" s="0" t="n">
         <v>-37.7</v>
       </c>
-      <c r="M267" t="n">
+      <c r="M267" s="0" t="n">
         <v>-36.7</v>
       </c>
-      <c r="N267" t="n">
+      <c r="N267" s="0" t="n">
         <v>-21.3</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
         <v>46027</v>
+      </c>
+      <c r="B268" t="n">
+        <v>-36.9</v>
+      </c>
+      <c r="C268" t="n">
+        <v>-38.2</v>
+      </c>
+      <c r="D268" t="n">
+        <v>-35.4</v>
+      </c>
+      <c r="E268" t="n">
+        <v>-36.9</v>
+      </c>
+      <c r="F268" t="n">
+        <v>-40.3</v>
+      </c>
+      <c r="G268" t="n">
+        <v>-32.9</v>
+      </c>
+      <c r="H268" t="n">
+        <v>-33.8</v>
+      </c>
+      <c r="I268" t="n">
+        <v>-34</v>
+      </c>
+      <c r="J268" t="n">
+        <v>-35.4</v>
+      </c>
+      <c r="K268" t="n">
+        <v>-35.2</v>
+      </c>
+      <c r="L268" t="n">
+        <v>-38.6</v>
+      </c>
+      <c r="M268" t="n">
+        <v>-34.4</v>
+      </c>
+      <c r="N268" t="n">
+        <v>-24.7</v>
       </c>
     </row>
     <row r="269">
@@ -25205,51 +25244,90 @@
       <c r="A267" s="1" t="n">
         <v>46026</v>
       </c>
-      <c r="B267" t="n">
+      <c r="B267" s="0" t="n">
         <v>-30.8</v>
       </c>
-      <c r="C267" t="n">
+      <c r="C267" s="0" t="n">
         <v>-27.9</v>
       </c>
-      <c r="D267" t="n">
+      <c r="D267" s="0" t="n">
         <v>-25.6</v>
       </c>
-      <c r="E267" t="n">
+      <c r="E267" s="0" t="n">
         <v>-27.6</v>
       </c>
-      <c r="F267" t="n">
+      <c r="F267" s="0" t="n">
         <v>-25.1</v>
       </c>
-      <c r="G267" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="H267" t="n">
+      <c r="G267" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="H267" s="0" t="n">
         <v>-21.5</v>
       </c>
-      <c r="I267" t="n">
+      <c r="I267" s="0" t="n">
         <v>-24.3</v>
       </c>
-      <c r="J267" t="n">
+      <c r="J267" s="0" t="n">
         <v>-21.4</v>
       </c>
-      <c r="K267" t="n">
+      <c r="K267" s="0" t="n">
         <v>-19.8</v>
       </c>
-      <c r="L267" t="n">
+      <c r="L267" s="0" t="n">
         <v>-27</v>
       </c>
-      <c r="M267" t="n">
+      <c r="M267" s="0" t="n">
         <v>-25.7</v>
       </c>
-      <c r="N267" t="n">
+      <c r="N267" s="0" t="n">
         <v>-11.3</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
         <v>46027</v>
+      </c>
+      <c r="B268" t="n">
+        <v>-27.9</v>
+      </c>
+      <c r="C268" t="n">
+        <v>-24.8</v>
+      </c>
+      <c r="D268" t="n">
+        <v>-26.1</v>
+      </c>
+      <c r="E268" t="n">
+        <v>-24.8</v>
+      </c>
+      <c r="F268" t="n">
+        <v>-27.5</v>
+      </c>
+      <c r="G268" t="n">
+        <v>-26.4</v>
+      </c>
+      <c r="H268" t="n">
+        <v>-23.1</v>
+      </c>
+      <c r="I268" t="n">
+        <v>-22.9</v>
+      </c>
+      <c r="J268" t="n">
+        <v>-26.7</v>
+      </c>
+      <c r="K268" t="n">
+        <v>-18.5</v>
+      </c>
+      <c r="L268" t="n">
+        <v>-25.9</v>
+      </c>
+      <c r="M268" t="n">
+        <v>-27.8</v>
+      </c>
+      <c r="N268" t="n">
+        <v>-13.6</v>
       </c>
     </row>
     <row r="269">
@@ -26988,59 +27066,108 @@
       <c r="A25" s="1" t="n">
         <v>46026</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25" s="0" t="n">
         <v>-33.65</v>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
+      <c r="C25" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="D25" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E25" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="F25" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G25" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="H25" s="0" t="n">
         <v>-27.35</v>
       </c>
-      <c r="I25" t="n">
+      <c r="I25" s="0" t="n">
         <v>-30.92</v>
       </c>
-      <c r="J25" t="n">
+      <c r="J25" s="0" t="n">
         <v>-28.11</v>
       </c>
-      <c r="K25" t="n">
+      <c r="K25" s="0" t="n">
         <v>-29.69</v>
       </c>
-      <c r="L25" t="n">
+      <c r="L25" s="0" t="n">
         <v>-33.62</v>
       </c>
-      <c r="M25" t="n">
+      <c r="M25" s="0" t="n">
         <v>-33.29</v>
       </c>
-      <c r="N25" t="n">
+      <c r="N25" s="0" t="n">
         <v>-16.31</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>46027</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-32</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>-29.15</v>
+      </c>
+      <c r="I26" t="n">
+        <v>-29.25</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-31.41</v>
+      </c>
+      <c r="K26" t="n">
+        <v>-27.77</v>
+      </c>
+      <c r="L26" t="n">
+        <v>-33.55</v>
+      </c>
+      <c r="M26" t="n">
+        <v>-31.6</v>
+      </c>
+      <c r="N26" t="n">
+        <v>-20.05</v>
       </c>
     </row>
     <row r="27">

--- a/气象/蒙古存档.xlsx
+++ b/气象/蒙古存档.xlsx
@@ -493,8 +493,8 @@
   <dimension ref="A1:N351"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A260" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D256" sqref="D256"/>
+      <pane ySplit="1" topLeftCell="A268" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E275" sqref="E275"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.9" outlineLevelCol="0"/>
@@ -11126,7 +11126,7 @@
         <v>-39.7</v>
       </c>
       <c r="M233" s="0" t="n">
-        <v>-40.4</v>
+        <v>-40.7</v>
       </c>
       <c r="N233" s="0" t="n">
         <v>-27.7</v>
@@ -12662,43 +12662,43 @@
       <c r="A268" s="1" t="n">
         <v>46027</v>
       </c>
-      <c r="B268" t="n">
+      <c r="B268" s="0" t="n">
         <v>-36.9</v>
       </c>
-      <c r="C268" t="n">
+      <c r="C268" s="0" t="n">
         <v>-38.2</v>
       </c>
-      <c r="D268" t="n">
+      <c r="D268" s="0" t="n">
         <v>-35.4</v>
       </c>
-      <c r="E268" t="n">
+      <c r="E268" s="0" t="n">
         <v>-36.9</v>
       </c>
-      <c r="F268" t="n">
+      <c r="F268" s="0" t="n">
         <v>-40.3</v>
       </c>
-      <c r="G268" t="n">
+      <c r="G268" s="0" t="n">
         <v>-32.9</v>
       </c>
-      <c r="H268" t="n">
+      <c r="H268" s="0" t="n">
         <v>-33.8</v>
       </c>
-      <c r="I268" t="n">
+      <c r="I268" s="0" t="n">
         <v>-34</v>
       </c>
-      <c r="J268" t="n">
+      <c r="J268" s="0" t="n">
         <v>-35.4</v>
       </c>
-      <c r="K268" t="n">
+      <c r="K268" s="0" t="n">
         <v>-35.2</v>
       </c>
-      <c r="L268" t="n">
+      <c r="L268" s="0" t="n">
         <v>-38.6</v>
       </c>
-      <c r="M268" t="n">
+      <c r="M268" s="0" t="n">
         <v>-34.4</v>
       </c>
-      <c r="N268" t="n">
+      <c r="N268" s="0" t="n">
         <v>-24.7</v>
       </c>
     </row>
@@ -12706,10 +12706,88 @@
       <c r="A269" s="1" t="n">
         <v>46028</v>
       </c>
+      <c r="B269" s="0" t="n">
+        <v>-29.6</v>
+      </c>
+      <c r="C269" s="0" t="n">
+        <v>-32.9</v>
+      </c>
+      <c r="D269" s="0" t="n">
+        <v>-32</v>
+      </c>
+      <c r="E269" s="0" t="n">
+        <v>-31.6</v>
+      </c>
+      <c r="F269" s="0" t="n">
+        <v>-36.6</v>
+      </c>
+      <c r="G269" s="0" t="n">
+        <v>-34.1</v>
+      </c>
+      <c r="H269" s="0" t="n">
+        <v>-34.9</v>
+      </c>
+      <c r="I269" s="0" t="n">
+        <v>-30.3</v>
+      </c>
+      <c r="J269" s="0" t="n">
+        <v>-32.9</v>
+      </c>
+      <c r="K269" s="0" t="n">
+        <v>-29.3</v>
+      </c>
+      <c r="L269" s="0" t="n">
+        <v>-32.9</v>
+      </c>
+      <c r="M269" s="0" t="n">
+        <v>-35.7</v>
+      </c>
+      <c r="N269" s="0" t="n">
+        <v>-22.3</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
         <v>46029</v>
+      </c>
+      <c r="B270" t="n">
+        <v>-30.6</v>
+      </c>
+      <c r="C270" t="n">
+        <v>-35.5</v>
+      </c>
+      <c r="D270" t="n">
+        <v>-32</v>
+      </c>
+      <c r="E270" t="n">
+        <v>-32</v>
+      </c>
+      <c r="F270" t="n">
+        <v>-35.2</v>
+      </c>
+      <c r="G270" t="n">
+        <v>-33.6</v>
+      </c>
+      <c r="H270" t="n">
+        <v>-35.4</v>
+      </c>
+      <c r="I270" t="n">
+        <v>-29.8</v>
+      </c>
+      <c r="J270" t="n">
+        <v>-34.3</v>
+      </c>
+      <c r="K270" t="n">
+        <v>-32.4</v>
+      </c>
+      <c r="L270" t="n">
+        <v>-31.7</v>
+      </c>
+      <c r="M270" t="n">
+        <v>-34.6</v>
+      </c>
+      <c r="N270" t="n">
+        <v>-22.7</v>
       </c>
     </row>
     <row r="271">
@@ -13131,7 +13209,7 @@
   <dimension ref="A1:N351"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A260" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A268" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F259" sqref="F259"/>
     </sheetView>
   </sheetViews>
@@ -25290,43 +25368,43 @@
       <c r="A268" s="1" t="n">
         <v>46027</v>
       </c>
-      <c r="B268" t="n">
+      <c r="B268" s="0" t="n">
         <v>-27.9</v>
       </c>
-      <c r="C268" t="n">
+      <c r="C268" s="0" t="n">
         <v>-24.8</v>
       </c>
-      <c r="D268" t="n">
+      <c r="D268" s="0" t="n">
         <v>-26.1</v>
       </c>
-      <c r="E268" t="n">
+      <c r="E268" s="0" t="n">
         <v>-24.8</v>
       </c>
-      <c r="F268" t="n">
+      <c r="F268" s="0" t="n">
         <v>-27.5</v>
       </c>
-      <c r="G268" t="n">
+      <c r="G268" s="0" t="n">
         <v>-26.4</v>
       </c>
-      <c r="H268" t="n">
+      <c r="H268" s="0" t="n">
         <v>-23.1</v>
       </c>
-      <c r="I268" t="n">
+      <c r="I268" s="0" t="n">
         <v>-22.9</v>
       </c>
-      <c r="J268" t="n">
+      <c r="J268" s="0" t="n">
         <v>-26.7</v>
       </c>
-      <c r="K268" t="n">
+      <c r="K268" s="0" t="n">
         <v>-18.5</v>
       </c>
-      <c r="L268" t="n">
+      <c r="L268" s="0" t="n">
         <v>-25.9</v>
       </c>
-      <c r="M268" t="n">
+      <c r="M268" s="0" t="n">
         <v>-27.8</v>
       </c>
-      <c r="N268" t="n">
+      <c r="N268" s="0" t="n">
         <v>-13.6</v>
       </c>
     </row>
@@ -25334,10 +25412,88 @@
       <c r="A269" s="1" t="n">
         <v>46028</v>
       </c>
+      <c r="B269" s="0" t="n">
+        <v>-24.4</v>
+      </c>
+      <c r="C269" s="0" t="n">
+        <v>-22.4</v>
+      </c>
+      <c r="D269" s="0" t="n">
+        <v>-23.4</v>
+      </c>
+      <c r="E269" s="0" t="n">
+        <v>-19.2</v>
+      </c>
+      <c r="F269" s="0" t="n">
+        <v>-22.1</v>
+      </c>
+      <c r="G269" s="0" t="n">
+        <v>-25.4</v>
+      </c>
+      <c r="H269" s="0" t="n">
+        <v>-24.8</v>
+      </c>
+      <c r="I269" s="0" t="n">
+        <v>-22.4</v>
+      </c>
+      <c r="J269" s="0" t="n">
+        <v>-19.7</v>
+      </c>
+      <c r="K269" s="0" t="n">
+        <v>-16</v>
+      </c>
+      <c r="L269" s="0" t="n">
+        <v>-19.6</v>
+      </c>
+      <c r="M269" s="0" t="n">
+        <v>-26.9</v>
+      </c>
+      <c r="N269" s="0" t="n">
+        <v>-13.5</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
         <v>46029</v>
+      </c>
+      <c r="B270" t="n">
+        <v>-24.2</v>
+      </c>
+      <c r="C270" t="n">
+        <v>-20.2</v>
+      </c>
+      <c r="D270" t="n">
+        <v>-15.4</v>
+      </c>
+      <c r="E270" t="n">
+        <v>-21</v>
+      </c>
+      <c r="F270" t="n">
+        <v>-22.3</v>
+      </c>
+      <c r="G270" t="n">
+        <v>-25.4</v>
+      </c>
+      <c r="H270" t="n">
+        <v>-24.1</v>
+      </c>
+      <c r="I270" t="n">
+        <v>-21.3</v>
+      </c>
+      <c r="J270" t="n">
+        <v>-18.7</v>
+      </c>
+      <c r="K270" t="n">
+        <v>-4.9</v>
+      </c>
+      <c r="L270" t="n">
+        <v>-21.6</v>
+      </c>
+      <c r="M270" t="n">
+        <v>-26.3</v>
+      </c>
+      <c r="N270" t="n">
+        <v>-13</v>
       </c>
     </row>
     <row r="271">
@@ -25759,7 +25915,7 @@
   <dimension ref="A1:N109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
@@ -27120,53 +27276,53 @@
       <c r="A26" s="1" t="n">
         <v>46027</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26" s="0" t="n">
         <v>-32</v>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
+      <c r="C26" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="D26" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E26" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="F26" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G26" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="H26" s="0" t="n">
         <v>-29.15</v>
       </c>
-      <c r="I26" t="n">
+      <c r="I26" s="0" t="n">
         <v>-29.25</v>
       </c>
-      <c r="J26" t="n">
+      <c r="J26" s="0" t="n">
         <v>-31.41</v>
       </c>
-      <c r="K26" t="n">
+      <c r="K26" s="0" t="n">
         <v>-27.77</v>
       </c>
-      <c r="L26" t="n">
+      <c r="L26" s="0" t="n">
         <v>-33.55</v>
       </c>
-      <c r="M26" t="n">
+      <c r="M26" s="0" t="n">
         <v>-31.6</v>
       </c>
-      <c r="N26" t="n">
+      <c r="N26" s="0" t="n">
         <v>-20.05</v>
       </c>
     </row>
@@ -27174,10 +27330,108 @@
       <c r="A27" s="1" t="n">
         <v>46028</v>
       </c>
+      <c r="B27" s="0" t="n">
+        <v>-27.31</v>
+      </c>
+      <c r="C27" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="D27" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E27" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="F27" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G27" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="H27" s="0" t="n">
+        <v>-30.74</v>
+      </c>
+      <c r="I27" s="0" t="n">
+        <v>-27.07</v>
+      </c>
+      <c r="J27" s="0" t="n">
+        <v>-26.6</v>
+      </c>
+      <c r="K27" s="0" t="n">
+        <v>-24.01</v>
+      </c>
+      <c r="L27" s="0" t="n">
+        <v>-27.29</v>
+      </c>
+      <c r="M27" s="0" t="n">
+        <v>-31.54</v>
+      </c>
+      <c r="N27" s="0" t="n">
+        <v>-18.85</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>46029</v>
+      </c>
+      <c r="B28" t="n">
+        <v>-27.43</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>-29.86</v>
+      </c>
+      <c r="I28" t="n">
+        <v>-26.39</v>
+      </c>
+      <c r="J28" t="n">
+        <v>-26.1</v>
+      </c>
+      <c r="K28" t="n">
+        <v>-17.7</v>
+      </c>
+      <c r="L28" t="n">
+        <v>-27.44</v>
+      </c>
+      <c r="M28" t="n">
+        <v>-31.44</v>
+      </c>
+      <c r="N28" t="n">
+        <v>-18.05</v>
       </c>
     </row>
     <row r="29">

--- a/气象/蒙古存档.xlsx
+++ b/气象/蒙古存档.xlsx
@@ -12750,49 +12750,88 @@
       <c r="A270" s="1" t="n">
         <v>46029</v>
       </c>
-      <c r="B270" t="n">
+      <c r="B270" s="0" t="n">
         <v>-30.6</v>
       </c>
-      <c r="C270" t="n">
+      <c r="C270" s="0" t="n">
         <v>-35.5</v>
       </c>
-      <c r="D270" t="n">
+      <c r="D270" s="0" t="n">
         <v>-32</v>
       </c>
-      <c r="E270" t="n">
+      <c r="E270" s="0" t="n">
         <v>-32</v>
       </c>
-      <c r="F270" t="n">
+      <c r="F270" s="0" t="n">
         <v>-35.2</v>
       </c>
-      <c r="G270" t="n">
+      <c r="G270" s="0" t="n">
         <v>-33.6</v>
       </c>
-      <c r="H270" t="n">
+      <c r="H270" s="0" t="n">
         <v>-35.4</v>
       </c>
-      <c r="I270" t="n">
+      <c r="I270" s="0" t="n">
         <v>-29.8</v>
       </c>
-      <c r="J270" t="n">
+      <c r="J270" s="0" t="n">
         <v>-34.3</v>
       </c>
-      <c r="K270" t="n">
+      <c r="K270" s="0" t="n">
         <v>-32.4</v>
       </c>
-      <c r="L270" t="n">
+      <c r="L270" s="0" t="n">
         <v>-31.7</v>
       </c>
-      <c r="M270" t="n">
+      <c r="M270" s="0" t="n">
         <v>-34.6</v>
       </c>
-      <c r="N270" t="n">
+      <c r="N270" s="0" t="n">
         <v>-22.7</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
         <v>46030</v>
+      </c>
+      <c r="B271" t="n">
+        <v>-35.4</v>
+      </c>
+      <c r="C271" t="n">
+        <v>-33.2</v>
+      </c>
+      <c r="D271" t="n">
+        <v>-29</v>
+      </c>
+      <c r="E271" t="n">
+        <v>-27</v>
+      </c>
+      <c r="F271" t="n">
+        <v>-28.4</v>
+      </c>
+      <c r="G271" t="n">
+        <v>-31.8</v>
+      </c>
+      <c r="H271" t="n">
+        <v>-25</v>
+      </c>
+      <c r="I271" t="n">
+        <v>-32.3</v>
+      </c>
+      <c r="J271" t="n">
+        <v>-32.4</v>
+      </c>
+      <c r="K271" t="n">
+        <v>-23</v>
+      </c>
+      <c r="L271" t="n">
+        <v>-27</v>
+      </c>
+      <c r="M271" t="n">
+        <v>-34</v>
+      </c>
+      <c r="N271" t="n">
+        <v>-18.2</v>
       </c>
     </row>
     <row r="272">
@@ -25456,49 +25495,88 @@
       <c r="A270" s="1" t="n">
         <v>46029</v>
       </c>
-      <c r="B270" t="n">
+      <c r="B270" s="0" t="n">
         <v>-24.2</v>
       </c>
-      <c r="C270" t="n">
+      <c r="C270" s="0" t="n">
         <v>-20.2</v>
       </c>
-      <c r="D270" t="n">
+      <c r="D270" s="0" t="n">
         <v>-15.4</v>
       </c>
-      <c r="E270" t="n">
+      <c r="E270" s="0" t="n">
         <v>-21</v>
       </c>
-      <c r="F270" t="n">
+      <c r="F270" s="0" t="n">
         <v>-22.3</v>
       </c>
-      <c r="G270" t="n">
+      <c r="G270" s="0" t="n">
         <v>-25.4</v>
       </c>
-      <c r="H270" t="n">
+      <c r="H270" s="0" t="n">
         <v>-24.1</v>
       </c>
-      <c r="I270" t="n">
+      <c r="I270" s="0" t="n">
         <v>-21.3</v>
       </c>
-      <c r="J270" t="n">
+      <c r="J270" s="0" t="n">
         <v>-18.7</v>
       </c>
-      <c r="K270" t="n">
+      <c r="K270" s="0" t="n">
         <v>-4.9</v>
       </c>
-      <c r="L270" t="n">
+      <c r="L270" s="0" t="n">
         <v>-21.6</v>
       </c>
-      <c r="M270" t="n">
+      <c r="M270" s="0" t="n">
         <v>-26.3</v>
       </c>
-      <c r="N270" t="n">
+      <c r="N270" s="0" t="n">
         <v>-13</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
         <v>46030</v>
+      </c>
+      <c r="B271" t="n">
+        <v>-24.5</v>
+      </c>
+      <c r="C271" t="n">
+        <v>-22.9</v>
+      </c>
+      <c r="D271" t="n">
+        <v>-22</v>
+      </c>
+      <c r="E271" t="n">
+        <v>-14.1</v>
+      </c>
+      <c r="F271" t="n">
+        <v>-13.6</v>
+      </c>
+      <c r="G271" t="n">
+        <v>-26</v>
+      </c>
+      <c r="H271" t="n">
+        <v>-14.5</v>
+      </c>
+      <c r="I271" t="n">
+        <v>-21.7</v>
+      </c>
+      <c r="J271" t="n">
+        <v>-21.3</v>
+      </c>
+      <c r="K271" t="n">
+        <v>-7</v>
+      </c>
+      <c r="L271" t="n">
+        <v>-16.4</v>
+      </c>
+      <c r="M271" t="n">
+        <v>-24.3</v>
+      </c>
+      <c r="N271" t="n">
+        <v>-11.8</v>
       </c>
     </row>
     <row r="272">
@@ -27384,59 +27462,108 @@
       <c r="A28" s="1" t="n">
         <v>46029</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28" s="0" t="n">
         <v>-27.43</v>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
+      <c r="C28" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="D28" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E28" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="F28" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G28" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="H28" s="0" t="n">
         <v>-29.86</v>
       </c>
-      <c r="I28" t="n">
+      <c r="I28" s="0" t="n">
         <v>-26.39</v>
       </c>
-      <c r="J28" t="n">
+      <c r="J28" s="0" t="n">
         <v>-26.1</v>
       </c>
-      <c r="K28" t="n">
+      <c r="K28" s="0" t="n">
         <v>-17.7</v>
       </c>
-      <c r="L28" t="n">
+      <c r="L28" s="0" t="n">
         <v>-27.44</v>
       </c>
-      <c r="M28" t="n">
+      <c r="M28" s="0" t="n">
         <v>-31.44</v>
       </c>
-      <c r="N28" t="n">
+      <c r="N28" s="0" t="n">
         <v>-18.05</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>46030</v>
+      </c>
+      <c r="B29" t="n">
+        <v>-30.56</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>-19.91</v>
+      </c>
+      <c r="I29" t="n">
+        <v>-27.94</v>
+      </c>
+      <c r="J29" t="n">
+        <v>-25.66</v>
+      </c>
+      <c r="K29" t="n">
+        <v>-15.34</v>
+      </c>
+      <c r="L29" t="n">
+        <v>-22.3</v>
+      </c>
+      <c r="M29" t="n">
+        <v>-28.84</v>
+      </c>
+      <c r="N29" t="n">
+        <v>-14.84</v>
       </c>
     </row>
     <row r="30">

--- a/气象/蒙古存档.xlsx
+++ b/气象/蒙古存档.xlsx
@@ -12794,49 +12794,88 @@
       <c r="A271" s="1" t="n">
         <v>46030</v>
       </c>
-      <c r="B271" t="n">
+      <c r="B271" s="0" t="n">
         <v>-35.4</v>
       </c>
-      <c r="C271" t="n">
+      <c r="C271" s="0" t="n">
         <v>-33.2</v>
       </c>
-      <c r="D271" t="n">
+      <c r="D271" s="0" t="n">
         <v>-29</v>
       </c>
-      <c r="E271" t="n">
+      <c r="E271" s="0" t="n">
         <v>-27</v>
       </c>
-      <c r="F271" t="n">
+      <c r="F271" s="0" t="n">
         <v>-28.4</v>
       </c>
-      <c r="G271" t="n">
+      <c r="G271" s="0" t="n">
         <v>-31.8</v>
       </c>
-      <c r="H271" t="n">
+      <c r="H271" s="0" t="n">
         <v>-25</v>
       </c>
-      <c r="I271" t="n">
+      <c r="I271" s="0" t="n">
         <v>-32.3</v>
       </c>
-      <c r="J271" t="n">
+      <c r="J271" s="0" t="n">
         <v>-32.4</v>
       </c>
-      <c r="K271" t="n">
+      <c r="K271" s="0" t="n">
         <v>-23</v>
       </c>
-      <c r="L271" t="n">
+      <c r="L271" s="0" t="n">
         <v>-27</v>
       </c>
-      <c r="M271" t="n">
+      <c r="M271" s="0" t="n">
         <v>-34</v>
       </c>
-      <c r="N271" t="n">
+      <c r="N271" s="0" t="n">
         <v>-18.2</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
         <v>46031</v>
+      </c>
+      <c r="B272" t="n">
+        <v>-37.8</v>
+      </c>
+      <c r="C272" t="n">
+        <v>-37.6</v>
+      </c>
+      <c r="D272" t="n">
+        <v>-36.9</v>
+      </c>
+      <c r="E272" t="n">
+        <v>-28.1</v>
+      </c>
+      <c r="F272" t="n">
+        <v>-29.2</v>
+      </c>
+      <c r="G272" t="n">
+        <v>-30.8</v>
+      </c>
+      <c r="H272" t="n">
+        <v>-29.2</v>
+      </c>
+      <c r="I272" t="n">
+        <v>-37.8</v>
+      </c>
+      <c r="J272" t="n">
+        <v>-36</v>
+      </c>
+      <c r="K272" t="n">
+        <v>-33.9</v>
+      </c>
+      <c r="L272" t="n">
+        <v>-30.9</v>
+      </c>
+      <c r="M272" t="n">
+        <v>-38.3</v>
+      </c>
+      <c r="N272" t="n">
+        <v>-19</v>
       </c>
     </row>
     <row r="273">
@@ -25539,49 +25578,88 @@
       <c r="A271" s="1" t="n">
         <v>46030</v>
       </c>
-      <c r="B271" t="n">
+      <c r="B271" s="0" t="n">
         <v>-24.5</v>
       </c>
-      <c r="C271" t="n">
+      <c r="C271" s="0" t="n">
         <v>-22.9</v>
       </c>
-      <c r="D271" t="n">
+      <c r="D271" s="0" t="n">
         <v>-22</v>
       </c>
-      <c r="E271" t="n">
+      <c r="E271" s="0" t="n">
         <v>-14.1</v>
       </c>
-      <c r="F271" t="n">
+      <c r="F271" s="0" t="n">
         <v>-13.6</v>
       </c>
-      <c r="G271" t="n">
+      <c r="G271" s="0" t="n">
         <v>-26</v>
       </c>
-      <c r="H271" t="n">
+      <c r="H271" s="0" t="n">
         <v>-14.5</v>
       </c>
-      <c r="I271" t="n">
+      <c r="I271" s="0" t="n">
         <v>-21.7</v>
       </c>
-      <c r="J271" t="n">
+      <c r="J271" s="0" t="n">
         <v>-21.3</v>
       </c>
-      <c r="K271" t="n">
+      <c r="K271" s="0" t="n">
         <v>-7</v>
       </c>
-      <c r="L271" t="n">
+      <c r="L271" s="0" t="n">
         <v>-16.4</v>
       </c>
-      <c r="M271" t="n">
+      <c r="M271" s="0" t="n">
         <v>-24.3</v>
       </c>
-      <c r="N271" t="n">
+      <c r="N271" s="0" t="n">
         <v>-11.8</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
         <v>46031</v>
+      </c>
+      <c r="B272" t="n">
+        <v>-28.7</v>
+      </c>
+      <c r="C272" t="n">
+        <v>-24.9</v>
+      </c>
+      <c r="D272" t="n">
+        <v>-22.9</v>
+      </c>
+      <c r="E272" t="n">
+        <v>-16.4</v>
+      </c>
+      <c r="F272" t="n">
+        <v>-16.1</v>
+      </c>
+      <c r="G272" t="n">
+        <v>-20.7</v>
+      </c>
+      <c r="H272" t="n">
+        <v>-19.3</v>
+      </c>
+      <c r="I272" t="n">
+        <v>-22.4</v>
+      </c>
+      <c r="J272" t="n">
+        <v>-24.9</v>
+      </c>
+      <c r="K272" t="n">
+        <v>-16.6</v>
+      </c>
+      <c r="L272" t="n">
+        <v>-19.6</v>
+      </c>
+      <c r="M272" t="n">
+        <v>-22.5</v>
+      </c>
+      <c r="N272" t="n">
+        <v>-13.7</v>
       </c>
     </row>
     <row r="273">
@@ -27516,59 +27594,108 @@
       <c r="A29" s="1" t="n">
         <v>46030</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29" s="0" t="n">
         <v>-30.56</v>
       </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
+      <c r="C29" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="D29" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E29" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="F29" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G29" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="H29" s="0" t="n">
         <v>-19.91</v>
       </c>
-      <c r="I29" t="n">
+      <c r="I29" s="0" t="n">
         <v>-27.94</v>
       </c>
-      <c r="J29" t="n">
+      <c r="J29" s="0" t="n">
         <v>-25.66</v>
       </c>
-      <c r="K29" t="n">
+      <c r="K29" s="0" t="n">
         <v>-15.34</v>
       </c>
-      <c r="L29" t="n">
+      <c r="L29" s="0" t="n">
         <v>-22.3</v>
       </c>
-      <c r="M29" t="n">
+      <c r="M29" s="0" t="n">
         <v>-28.84</v>
       </c>
-      <c r="N29" t="n">
+      <c r="N29" s="0" t="n">
         <v>-14.84</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>46031</v>
+      </c>
+      <c r="B30" t="n">
+        <v>-32.72</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>-23.04</v>
+      </c>
+      <c r="I30" t="n">
+        <v>-32.24</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-31.49</v>
+      </c>
+      <c r="K30" t="n">
+        <v>-26.79</v>
+      </c>
+      <c r="L30" t="n">
+        <v>-24.95</v>
+      </c>
+      <c r="M30" t="n">
+        <v>-27.38</v>
+      </c>
+      <c r="N30" t="n">
+        <v>-16.41</v>
       </c>
     </row>
     <row r="31">

--- a/气象/蒙古存档.xlsx
+++ b/气象/蒙古存档.xlsx
@@ -12838,49 +12838,88 @@
       <c r="A272" s="1" t="n">
         <v>46031</v>
       </c>
-      <c r="B272" t="n">
+      <c r="B272" s="0" t="n">
         <v>-37.8</v>
       </c>
-      <c r="C272" t="n">
+      <c r="C272" s="0" t="n">
         <v>-37.6</v>
       </c>
-      <c r="D272" t="n">
+      <c r="D272" s="0" t="n">
         <v>-36.9</v>
       </c>
-      <c r="E272" t="n">
+      <c r="E272" s="0" t="n">
         <v>-28.1</v>
       </c>
-      <c r="F272" t="n">
+      <c r="F272" s="0" t="n">
         <v>-29.2</v>
       </c>
-      <c r="G272" t="n">
+      <c r="G272" s="0" t="n">
         <v>-30.8</v>
       </c>
-      <c r="H272" t="n">
+      <c r="H272" s="0" t="n">
         <v>-29.2</v>
       </c>
-      <c r="I272" t="n">
+      <c r="I272" s="0" t="n">
         <v>-37.8</v>
       </c>
-      <c r="J272" t="n">
+      <c r="J272" s="0" t="n">
         <v>-36</v>
       </c>
-      <c r="K272" t="n">
+      <c r="K272" s="0" t="n">
         <v>-33.9</v>
       </c>
-      <c r="L272" t="n">
+      <c r="L272" s="0" t="n">
         <v>-30.9</v>
       </c>
-      <c r="M272" t="n">
+      <c r="M272" s="0" t="n">
         <v>-38.3</v>
       </c>
-      <c r="N272" t="n">
+      <c r="N272" s="0" t="n">
         <v>-19</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
         <v>46032</v>
+      </c>
+      <c r="B273" t="n">
+        <v>-38.9</v>
+      </c>
+      <c r="C273" t="n">
+        <v>-39.6</v>
+      </c>
+      <c r="D273" t="n">
+        <v>-36.9</v>
+      </c>
+      <c r="E273" t="n">
+        <v>-34.6</v>
+      </c>
+      <c r="F273" t="n">
+        <v>-35.4</v>
+      </c>
+      <c r="G273" t="n">
+        <v>-29.2</v>
+      </c>
+      <c r="H273" t="n">
+        <v>-31</v>
+      </c>
+      <c r="I273" t="n">
+        <v>-34.8</v>
+      </c>
+      <c r="J273" t="n">
+        <v>-38</v>
+      </c>
+      <c r="K273" t="n">
+        <v>-37.7</v>
+      </c>
+      <c r="L273" t="n">
+        <v>-34.9</v>
+      </c>
+      <c r="M273" t="n">
+        <v>-31.8</v>
+      </c>
+      <c r="N273" t="n">
+        <v>-23.2</v>
       </c>
     </row>
     <row r="274">
@@ -25622,49 +25661,88 @@
       <c r="A272" s="1" t="n">
         <v>46031</v>
       </c>
-      <c r="B272" t="n">
+      <c r="B272" s="0" t="n">
         <v>-28.7</v>
       </c>
-      <c r="C272" t="n">
+      <c r="C272" s="0" t="n">
         <v>-24.9</v>
       </c>
-      <c r="D272" t="n">
+      <c r="D272" s="0" t="n">
         <v>-22.9</v>
       </c>
-      <c r="E272" t="n">
+      <c r="E272" s="0" t="n">
         <v>-16.4</v>
       </c>
-      <c r="F272" t="n">
+      <c r="F272" s="0" t="n">
         <v>-16.1</v>
       </c>
-      <c r="G272" t="n">
+      <c r="G272" s="0" t="n">
         <v>-20.7</v>
       </c>
-      <c r="H272" t="n">
+      <c r="H272" s="0" t="n">
         <v>-19.3</v>
       </c>
-      <c r="I272" t="n">
+      <c r="I272" s="0" t="n">
         <v>-22.4</v>
       </c>
-      <c r="J272" t="n">
+      <c r="J272" s="0" t="n">
         <v>-24.9</v>
       </c>
-      <c r="K272" t="n">
+      <c r="K272" s="0" t="n">
         <v>-16.6</v>
       </c>
-      <c r="L272" t="n">
+      <c r="L272" s="0" t="n">
         <v>-19.6</v>
       </c>
-      <c r="M272" t="n">
+      <c r="M272" s="0" t="n">
         <v>-22.5</v>
       </c>
-      <c r="N272" t="n">
+      <c r="N272" s="0" t="n">
         <v>-13.7</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
         <v>46032</v>
+      </c>
+      <c r="B273" t="n">
+        <v>-26.6</v>
+      </c>
+      <c r="C273" t="n">
+        <v>-24.1</v>
+      </c>
+      <c r="D273" t="n">
+        <v>-19.3</v>
+      </c>
+      <c r="E273" t="n">
+        <v>-21.6</v>
+      </c>
+      <c r="F273" t="n">
+        <v>-10.3</v>
+      </c>
+      <c r="G273" t="n">
+        <v>-22.2</v>
+      </c>
+      <c r="H273" t="n">
+        <v>-20.7</v>
+      </c>
+      <c r="I273" t="n">
+        <v>-23.4</v>
+      </c>
+      <c r="J273" t="n">
+        <v>-24.9</v>
+      </c>
+      <c r="K273" t="n">
+        <v>-12.2</v>
+      </c>
+      <c r="L273" t="n">
+        <v>-24.3</v>
+      </c>
+      <c r="M273" t="n">
+        <v>-22.6</v>
+      </c>
+      <c r="N273" t="n">
+        <v>-19</v>
       </c>
     </row>
     <row r="274">
@@ -27648,59 +27726,108 @@
       <c r="A30" s="1" t="n">
         <v>46031</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30" s="0" t="n">
         <v>-32.72</v>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
+      <c r="C30" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="D30" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E30" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="F30" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G30" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="H30" s="0" t="n">
         <v>-23.04</v>
       </c>
-      <c r="I30" t="n">
+      <c r="I30" s="0" t="n">
         <v>-32.24</v>
       </c>
-      <c r="J30" t="n">
+      <c r="J30" s="0" t="n">
         <v>-31.49</v>
       </c>
-      <c r="K30" t="n">
+      <c r="K30" s="0" t="n">
         <v>-26.79</v>
       </c>
-      <c r="L30" t="n">
+      <c r="L30" s="0" t="n">
         <v>-24.95</v>
       </c>
-      <c r="M30" t="n">
+      <c r="M30" s="0" t="n">
         <v>-27.38</v>
       </c>
-      <c r="N30" t="n">
+      <c r="N30" s="0" t="n">
         <v>-16.41</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>46032</v>
+      </c>
+      <c r="B31" t="n">
+        <v>-32.21</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>-26.74</v>
+      </c>
+      <c r="I31" t="n">
+        <v>-29.72</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-31.44</v>
+      </c>
+      <c r="K31" t="n">
+        <v>-24.51</v>
+      </c>
+      <c r="L31" t="n">
+        <v>-29.92</v>
+      </c>
+      <c r="M31" t="n">
+        <v>-28.32</v>
+      </c>
+      <c r="N31" t="n">
+        <v>-21.45</v>
       </c>
     </row>
     <row r="32">

--- a/气象/蒙古存档.xlsx
+++ b/气象/蒙古存档.xlsx
@@ -12882,43 +12882,43 @@
       <c r="A273" s="1" t="n">
         <v>46032</v>
       </c>
-      <c r="B273" t="n">
+      <c r="B273" s="0" t="n">
         <v>-38.9</v>
       </c>
-      <c r="C273" t="n">
+      <c r="C273" s="0" t="n">
         <v>-39.6</v>
       </c>
-      <c r="D273" t="n">
+      <c r="D273" s="0" t="n">
         <v>-36.9</v>
       </c>
-      <c r="E273" t="n">
+      <c r="E273" s="0" t="n">
         <v>-34.6</v>
       </c>
-      <c r="F273" t="n">
+      <c r="F273" s="0" t="n">
         <v>-35.4</v>
       </c>
-      <c r="G273" t="n">
+      <c r="G273" s="0" t="n">
         <v>-29.2</v>
       </c>
-      <c r="H273" t="n">
+      <c r="H273" s="0" t="n">
         <v>-31</v>
       </c>
-      <c r="I273" t="n">
+      <c r="I273" s="0" t="n">
         <v>-34.8</v>
       </c>
-      <c r="J273" t="n">
+      <c r="J273" s="0" t="n">
         <v>-38</v>
       </c>
-      <c r="K273" t="n">
+      <c r="K273" s="0" t="n">
         <v>-37.7</v>
       </c>
-      <c r="L273" t="n">
+      <c r="L273" s="0" t="n">
         <v>-34.9</v>
       </c>
-      <c r="M273" t="n">
+      <c r="M273" s="0" t="n">
         <v>-31.8</v>
       </c>
-      <c r="N273" t="n">
+      <c r="N273" s="0" t="n">
         <v>-23.2</v>
       </c>
     </row>
@@ -12926,10 +12926,92 @@
       <c r="A274" s="1" t="n">
         <v>46033</v>
       </c>
+      <c r="B274" s="0" t="n">
+        <v>-33.7</v>
+      </c>
+      <c r="C274" s="0" t="n">
+        <v>-33</v>
+      </c>
+      <c r="D274" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E274" s="0" t="n">
+        <v>-29.9</v>
+      </c>
+      <c r="F274" s="0" t="n">
+        <v>-32.3</v>
+      </c>
+      <c r="G274" s="0" t="n">
+        <v>-25.1</v>
+      </c>
+      <c r="H274" s="0" t="n">
+        <v>-34.6</v>
+      </c>
+      <c r="I274" s="0" t="n">
+        <v>-32.5</v>
+      </c>
+      <c r="J274" s="0" t="n">
+        <v>-26.6</v>
+      </c>
+      <c r="K274" s="0" t="n">
+        <v>-20.9</v>
+      </c>
+      <c r="L274" s="0" t="n">
+        <v>-31.1</v>
+      </c>
+      <c r="M274" s="0" t="n">
+        <v>-29.2</v>
+      </c>
+      <c r="N274" s="0" t="n">
+        <v>-24.7</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
         <v>46034</v>
+      </c>
+      <c r="B275" t="n">
+        <v>-28.7</v>
+      </c>
+      <c r="C275" t="n">
+        <v>-29.6</v>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E275" t="n">
+        <v>-16.7</v>
+      </c>
+      <c r="F275" t="n">
+        <v>-24</v>
+      </c>
+      <c r="G275" t="n">
+        <v>-22.8</v>
+      </c>
+      <c r="H275" t="n">
+        <v>-33.8</v>
+      </c>
+      <c r="I275" t="n">
+        <v>-32.3</v>
+      </c>
+      <c r="J275" t="n">
+        <v>-23.5</v>
+      </c>
+      <c r="K275" t="n">
+        <v>-23.9</v>
+      </c>
+      <c r="L275" t="n">
+        <v>-17.8</v>
+      </c>
+      <c r="M275" t="n">
+        <v>-27.2</v>
+      </c>
+      <c r="N275" t="n">
+        <v>-21.9</v>
       </c>
     </row>
     <row r="276">
@@ -25705,43 +25787,43 @@
       <c r="A273" s="1" t="n">
         <v>46032</v>
       </c>
-      <c r="B273" t="n">
+      <c r="B273" s="0" t="n">
         <v>-26.6</v>
       </c>
-      <c r="C273" t="n">
+      <c r="C273" s="0" t="n">
         <v>-24.1</v>
       </c>
-      <c r="D273" t="n">
+      <c r="D273" s="0" t="n">
         <v>-19.3</v>
       </c>
-      <c r="E273" t="n">
+      <c r="E273" s="0" t="n">
         <v>-21.6</v>
       </c>
-      <c r="F273" t="n">
+      <c r="F273" s="0" t="n">
         <v>-10.3</v>
       </c>
-      <c r="G273" t="n">
+      <c r="G273" s="0" t="n">
         <v>-22.2</v>
       </c>
-      <c r="H273" t="n">
+      <c r="H273" s="0" t="n">
         <v>-20.7</v>
       </c>
-      <c r="I273" t="n">
+      <c r="I273" s="0" t="n">
         <v>-23.4</v>
       </c>
-      <c r="J273" t="n">
+      <c r="J273" s="0" t="n">
         <v>-24.9</v>
       </c>
-      <c r="K273" t="n">
+      <c r="K273" s="0" t="n">
         <v>-12.2</v>
       </c>
-      <c r="L273" t="n">
+      <c r="L273" s="0" t="n">
         <v>-24.3</v>
       </c>
-      <c r="M273" t="n">
+      <c r="M273" s="0" t="n">
         <v>-22.6</v>
       </c>
-      <c r="N273" t="n">
+      <c r="N273" s="0" t="n">
         <v>-19</v>
       </c>
     </row>
@@ -25749,10 +25831,88 @@
       <c r="A274" s="1" t="n">
         <v>46033</v>
       </c>
+      <c r="B274" s="0" t="n">
+        <v>-24.3</v>
+      </c>
+      <c r="C274" s="0" t="n">
+        <v>-22.9</v>
+      </c>
+      <c r="D274" s="0" t="n">
+        <v>-17.7</v>
+      </c>
+      <c r="E274" s="0" t="n">
+        <v>-6.8</v>
+      </c>
+      <c r="F274" s="0" t="n">
+        <v>-5.7</v>
+      </c>
+      <c r="G274" s="0" t="n">
+        <v>-11.4</v>
+      </c>
+      <c r="H274" s="0" t="n">
+        <v>-13.8</v>
+      </c>
+      <c r="I274" s="0" t="n">
+        <v>-21.2</v>
+      </c>
+      <c r="J274" s="0" t="n">
+        <v>-17.3</v>
+      </c>
+      <c r="K274" s="0" t="n">
+        <v>-7.7</v>
+      </c>
+      <c r="L274" s="0" t="n">
+        <v>-6.5</v>
+      </c>
+      <c r="M274" s="0" t="n">
+        <v>-13.3</v>
+      </c>
+      <c r="N274" s="0" t="n">
+        <v>-8.4</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
         <v>46034</v>
+      </c>
+      <c r="B275" t="n">
+        <v>-22.5</v>
+      </c>
+      <c r="C275" t="n">
+        <v>-20</v>
+      </c>
+      <c r="D275" t="n">
+        <v>-17.8</v>
+      </c>
+      <c r="E275" t="n">
+        <v>-8.9</v>
+      </c>
+      <c r="F275" t="n">
+        <v>-8.5</v>
+      </c>
+      <c r="G275" t="n">
+        <v>-15.6</v>
+      </c>
+      <c r="H275" t="n">
+        <v>-14.5</v>
+      </c>
+      <c r="I275" t="n">
+        <v>-21.7</v>
+      </c>
+      <c r="J275" t="n">
+        <v>-17.5</v>
+      </c>
+      <c r="K275" t="n">
+        <v>-7.9</v>
+      </c>
+      <c r="L275" t="n">
+        <v>-8.6</v>
+      </c>
+      <c r="M275" t="n">
+        <v>-15.5</v>
+      </c>
+      <c r="N275" t="n">
+        <v>-10.2</v>
       </c>
     </row>
     <row r="276">
@@ -27780,53 +27940,53 @@
       <c r="A31" s="1" t="n">
         <v>46032</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31" s="0" t="n">
         <v>-32.21</v>
       </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
+      <c r="C31" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="D31" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E31" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="F31" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G31" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="H31" s="0" t="n">
         <v>-26.74</v>
       </c>
-      <c r="I31" t="n">
+      <c r="I31" s="0" t="n">
         <v>-29.72</v>
       </c>
-      <c r="J31" t="n">
+      <c r="J31" s="0" t="n">
         <v>-31.44</v>
       </c>
-      <c r="K31" t="n">
+      <c r="K31" s="0" t="n">
         <v>-24.51</v>
       </c>
-      <c r="L31" t="n">
+      <c r="L31" s="0" t="n">
         <v>-29.92</v>
       </c>
-      <c r="M31" t="n">
+      <c r="M31" s="0" t="n">
         <v>-28.32</v>
       </c>
-      <c r="N31" t="n">
+      <c r="N31" s="0" t="n">
         <v>-21.45</v>
       </c>
     </row>
@@ -27834,10 +27994,108 @@
       <c r="A32" s="1" t="n">
         <v>46033</v>
       </c>
+      <c r="B32" s="0" t="n">
+        <v>-27.75</v>
+      </c>
+      <c r="C32" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="D32" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E32" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="F32" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G32" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="H32" s="0" t="n">
+        <v>-22.5</v>
+      </c>
+      <c r="I32" s="0" t="n">
+        <v>-28.81</v>
+      </c>
+      <c r="J32" s="0" t="n">
+        <v>-21.39</v>
+      </c>
+      <c r="K32" s="0" t="n">
+        <v>-10.03</v>
+      </c>
+      <c r="L32" s="0" t="n">
+        <v>-20.18</v>
+      </c>
+      <c r="M32" s="0" t="n">
+        <v>-21.59</v>
+      </c>
+      <c r="N32" s="0" t="n">
+        <v>-18.2</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>46034</v>
+      </c>
+      <c r="B33" t="n">
+        <v>-24.6</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>-26.96</v>
+      </c>
+      <c r="I33" t="n">
+        <v>-26.95</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-20.12</v>
+      </c>
+      <c r="K33" t="n">
+        <v>-15.44</v>
+      </c>
+      <c r="L33" t="n">
+        <v>-14.45</v>
+      </c>
+      <c r="M33" t="n">
+        <v>-22.76</v>
+      </c>
+      <c r="N33" t="n">
+        <v>-17.61</v>
       </c>
     </row>
     <row r="34">

--- a/气象/蒙古存档.xlsx
+++ b/气象/蒙古存档.xlsx
@@ -12972,45 +12972,45 @@
       <c r="A275" s="1" t="n">
         <v>46034</v>
       </c>
-      <c r="B275" t="n">
+      <c r="B275" s="0" t="n">
         <v>-28.7</v>
       </c>
-      <c r="C275" t="n">
+      <c r="C275" s="0" t="n">
         <v>-29.6</v>
       </c>
-      <c r="D275" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="E275" t="n">
+      <c r="D275" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E275" s="0" t="n">
         <v>-16.7</v>
       </c>
-      <c r="F275" t="n">
+      <c r="F275" s="0" t="n">
         <v>-24</v>
       </c>
-      <c r="G275" t="n">
+      <c r="G275" s="0" t="n">
         <v>-22.8</v>
       </c>
-      <c r="H275" t="n">
+      <c r="H275" s="0" t="n">
         <v>-33.8</v>
       </c>
-      <c r="I275" t="n">
+      <c r="I275" s="0" t="n">
         <v>-32.3</v>
       </c>
-      <c r="J275" t="n">
+      <c r="J275" s="0" t="n">
         <v>-23.5</v>
       </c>
-      <c r="K275" t="n">
+      <c r="K275" s="0" t="n">
         <v>-23.9</v>
       </c>
-      <c r="L275" t="n">
+      <c r="L275" s="0" t="n">
         <v>-17.8</v>
       </c>
-      <c r="M275" t="n">
+      <c r="M275" s="0" t="n">
         <v>-27.2</v>
       </c>
-      <c r="N275" t="n">
+      <c r="N275" s="0" t="n">
         <v>-21.9</v>
       </c>
     </row>
@@ -13018,15 +13018,132 @@
       <c r="A276" s="1" t="n">
         <v>46035</v>
       </c>
+      <c r="B276" s="0" t="n">
+        <v>-27</v>
+      </c>
+      <c r="C276" s="0" t="n">
+        <v>-26.8</v>
+      </c>
+      <c r="D276" s="0" t="n">
+        <v>-21.2</v>
+      </c>
+      <c r="E276" s="0" t="n">
+        <v>-17.8</v>
+      </c>
+      <c r="F276" s="0" t="n">
+        <v>-21.4</v>
+      </c>
+      <c r="G276" s="0" t="n">
+        <v>-26.5</v>
+      </c>
+      <c r="H276" s="0" t="n">
+        <v>-34</v>
+      </c>
+      <c r="I276" s="0" t="n">
+        <v>-26.1</v>
+      </c>
+      <c r="J276" s="0" t="n">
+        <v>-23.5</v>
+      </c>
+      <c r="K276" s="0" t="n">
+        <v>-9.199999999999999</v>
+      </c>
+      <c r="L276" s="0" t="n">
+        <v>-19.9</v>
+      </c>
+      <c r="M276" s="0" t="n">
+        <v>-28.1</v>
+      </c>
+      <c r="N276" s="0" t="n">
+        <v>-21.4</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
         <v>46036</v>
       </c>
+      <c r="B277" s="0" t="n">
+        <v>-29.9</v>
+      </c>
+      <c r="C277" s="0" t="n">
+        <v>-29.3</v>
+      </c>
+      <c r="D277" s="0" t="n">
+        <v>-29</v>
+      </c>
+      <c r="E277" s="0" t="n">
+        <v>-20.9</v>
+      </c>
+      <c r="F277" s="0" t="n">
+        <v>-20.3</v>
+      </c>
+      <c r="G277" s="0" t="n">
+        <v>-27.2</v>
+      </c>
+      <c r="H277" s="0" t="n">
+        <v>-20.2</v>
+      </c>
+      <c r="I277" s="0" t="n">
+        <v>-31.9</v>
+      </c>
+      <c r="J277" s="0" t="n">
+        <v>-28.7</v>
+      </c>
+      <c r="K277" s="0" t="n">
+        <v>-27.8</v>
+      </c>
+      <c r="L277" s="0" t="n">
+        <v>-21.6</v>
+      </c>
+      <c r="M277" s="0" t="n">
+        <v>-27.1</v>
+      </c>
+      <c r="N277" s="0" t="n">
+        <v>-17.1</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
         <v>46037</v>
+      </c>
+      <c r="B278" t="n">
+        <v>-33.8</v>
+      </c>
+      <c r="C278" t="n">
+        <v>-38.7</v>
+      </c>
+      <c r="D278" t="n">
+        <v>-44</v>
+      </c>
+      <c r="E278" t="n">
+        <v>-33.8</v>
+      </c>
+      <c r="F278" t="n">
+        <v>-29.8</v>
+      </c>
+      <c r="G278" t="n">
+        <v>-34.3</v>
+      </c>
+      <c r="H278" t="n">
+        <v>-28.2</v>
+      </c>
+      <c r="I278" t="n">
+        <v>-33.2</v>
+      </c>
+      <c r="J278" t="n">
+        <v>-43.2</v>
+      </c>
+      <c r="K278" t="n">
+        <v>-40</v>
+      </c>
+      <c r="L278" t="n">
+        <v>-35.8</v>
+      </c>
+      <c r="M278" t="n">
+        <v>-36.6</v>
+      </c>
+      <c r="N278" t="n">
+        <v>-23.8</v>
       </c>
     </row>
     <row r="279">
@@ -25875,43 +25992,43 @@
       <c r="A275" s="1" t="n">
         <v>46034</v>
       </c>
-      <c r="B275" t="n">
+      <c r="B275" s="0" t="n">
         <v>-22.5</v>
       </c>
-      <c r="C275" t="n">
+      <c r="C275" s="0" t="n">
         <v>-20</v>
       </c>
-      <c r="D275" t="n">
+      <c r="D275" s="0" t="n">
         <v>-17.8</v>
       </c>
-      <c r="E275" t="n">
+      <c r="E275" s="0" t="n">
         <v>-8.9</v>
       </c>
-      <c r="F275" t="n">
+      <c r="F275" s="0" t="n">
         <v>-8.5</v>
       </c>
-      <c r="G275" t="n">
+      <c r="G275" s="0" t="n">
         <v>-15.6</v>
       </c>
-      <c r="H275" t="n">
+      <c r="H275" s="0" t="n">
         <v>-14.5</v>
       </c>
-      <c r="I275" t="n">
+      <c r="I275" s="0" t="n">
         <v>-21.7</v>
       </c>
-      <c r="J275" t="n">
+      <c r="J275" s="0" t="n">
         <v>-17.5</v>
       </c>
-      <c r="K275" t="n">
+      <c r="K275" s="0" t="n">
         <v>-7.9</v>
       </c>
-      <c r="L275" t="n">
+      <c r="L275" s="0" t="n">
         <v>-8.6</v>
       </c>
-      <c r="M275" t="n">
+      <c r="M275" s="0" t="n">
         <v>-15.5</v>
       </c>
-      <c r="N275" t="n">
+      <c r="N275" s="0" t="n">
         <v>-10.2</v>
       </c>
     </row>
@@ -25919,15 +26036,132 @@
       <c r="A276" s="1" t="n">
         <v>46035</v>
       </c>
+      <c r="B276" s="0" t="n">
+        <v>-21.2</v>
+      </c>
+      <c r="C276" s="0" t="n">
+        <v>-20.3</v>
+      </c>
+      <c r="D276" s="0" t="n">
+        <v>-14.8</v>
+      </c>
+      <c r="E276" s="0" t="n">
+        <v>-1.7</v>
+      </c>
+      <c r="F276" s="0" t="n">
+        <v>-4.2</v>
+      </c>
+      <c r="G276" s="0" t="n">
+        <v>-18.8</v>
+      </c>
+      <c r="H276" s="0" t="n">
+        <v>-20.2</v>
+      </c>
+      <c r="I276" s="0" t="n">
+        <v>-17.2</v>
+      </c>
+      <c r="J276" s="0" t="n">
+        <v>-10.8</v>
+      </c>
+      <c r="K276" s="0" t="n">
+        <v>-4.3</v>
+      </c>
+      <c r="L276" s="0" t="n">
+        <v>-2.4</v>
+      </c>
+      <c r="M276" s="0" t="n">
+        <v>-15.8</v>
+      </c>
+      <c r="N276" s="0" t="n">
+        <v>-12.5</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
         <v>46036</v>
       </c>
+      <c r="B277" s="0" t="n">
+        <v>-21.3</v>
+      </c>
+      <c r="C277" s="0" t="n">
+        <v>-20.7</v>
+      </c>
+      <c r="D277" s="0" t="n">
+        <v>-17.4</v>
+      </c>
+      <c r="E277" s="0" t="n">
+        <v>-7</v>
+      </c>
+      <c r="F277" s="0" t="n">
+        <v>-9</v>
+      </c>
+      <c r="G277" s="0" t="n">
+        <v>-17.4</v>
+      </c>
+      <c r="H277" s="0" t="n">
+        <v>-15.5</v>
+      </c>
+      <c r="I277" s="0" t="n">
+        <v>-18</v>
+      </c>
+      <c r="J277" s="0" t="n">
+        <v>-16.5</v>
+      </c>
+      <c r="K277" s="0" t="n">
+        <v>-8.199999999999999</v>
+      </c>
+      <c r="L277" s="0" t="n">
+        <v>-7.4</v>
+      </c>
+      <c r="M277" s="0" t="n">
+        <v>-18.5</v>
+      </c>
+      <c r="N277" s="0" t="n">
+        <v>-8.9</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
         <v>46037</v>
+      </c>
+      <c r="B278" t="n">
+        <v>-25.3</v>
+      </c>
+      <c r="C278" t="n">
+        <v>-25.4</v>
+      </c>
+      <c r="D278" t="n">
+        <v>-29</v>
+      </c>
+      <c r="E278" t="n">
+        <v>-20.9</v>
+      </c>
+      <c r="F278" t="n">
+        <v>-17.8</v>
+      </c>
+      <c r="G278" t="n">
+        <v>-25.2</v>
+      </c>
+      <c r="H278" t="n">
+        <v>-14.9</v>
+      </c>
+      <c r="I278" t="n">
+        <v>-20.3</v>
+      </c>
+      <c r="J278" t="n">
+        <v>-28.4</v>
+      </c>
+      <c r="K278" t="n">
+        <v>-27.3</v>
+      </c>
+      <c r="L278" t="n">
+        <v>-21.6</v>
+      </c>
+      <c r="M278" t="n">
+        <v>-25</v>
+      </c>
+      <c r="N278" t="n">
+        <v>-15.2</v>
       </c>
     </row>
     <row r="279">
@@ -28048,53 +28282,53 @@
       <c r="A33" s="1" t="n">
         <v>46034</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33" s="0" t="n">
         <v>-24.6</v>
       </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
+      <c r="C33" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="D33" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E33" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="F33" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G33" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="H33" s="0" t="n">
         <v>-26.96</v>
       </c>
-      <c r="I33" t="n">
+      <c r="I33" s="0" t="n">
         <v>-26.95</v>
       </c>
-      <c r="J33" t="n">
+      <c r="J33" s="0" t="n">
         <v>-20.12</v>
       </c>
-      <c r="K33" t="n">
+      <c r="K33" s="0" t="n">
         <v>-15.44</v>
       </c>
-      <c r="L33" t="n">
+      <c r="L33" s="0" t="n">
         <v>-14.45</v>
       </c>
-      <c r="M33" t="n">
+      <c r="M33" s="0" t="n">
         <v>-22.76</v>
       </c>
-      <c r="N33" t="n">
+      <c r="N33" s="0" t="n">
         <v>-17.61</v>
       </c>
     </row>
@@ -28102,15 +28336,162 @@
       <c r="A34" s="1" t="n">
         <v>46035</v>
       </c>
+      <c r="B34" s="0" t="n">
+        <v>-23.18</v>
+      </c>
+      <c r="C34" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="D34" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E34" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="F34" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G34" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="H34" s="0" t="n">
+        <v>-27.06</v>
+      </c>
+      <c r="I34" s="0" t="n">
+        <v>-23.26</v>
+      </c>
+      <c r="J34" s="0" t="n">
+        <v>-16.28</v>
+      </c>
+      <c r="K34" s="0" t="n">
+        <v>-6.42</v>
+      </c>
+      <c r="L34" s="0" t="n">
+        <v>-11.64</v>
+      </c>
+      <c r="M34" s="0" t="n">
+        <v>-23.79</v>
+      </c>
+      <c r="N34" s="0" t="n">
+        <v>-17.9</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>46036</v>
       </c>
+      <c r="B35" s="0" t="n">
+        <v>-24.29</v>
+      </c>
+      <c r="C35" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="D35" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E35" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="F35" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G35" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="H35" s="0" t="n">
+        <v>-18.02</v>
+      </c>
+      <c r="I35" s="0" t="n">
+        <v>-25.97</v>
+      </c>
+      <c r="J35" s="0" t="n">
+        <v>-20.04</v>
+      </c>
+      <c r="K35" s="0" t="n">
+        <v>-16.26</v>
+      </c>
+      <c r="L35" s="0" t="n">
+        <v>-13.44</v>
+      </c>
+      <c r="M35" s="0" t="n">
+        <v>-22.61</v>
+      </c>
+      <c r="N35" s="0" t="n">
+        <v>-14.3</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>46037</v>
+      </c>
+      <c r="B36" t="n">
+        <v>-29.13</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>-20.94</v>
+      </c>
+      <c r="I36" t="n">
+        <v>-26.36</v>
+      </c>
+      <c r="J36" t="n">
+        <v>-37.25</v>
+      </c>
+      <c r="K36" t="n">
+        <v>-33.92</v>
+      </c>
+      <c r="L36" t="n">
+        <v>-30.9</v>
+      </c>
+      <c r="M36" t="n">
+        <v>-32.6</v>
+      </c>
+      <c r="N36" t="n">
+        <v>-20.47</v>
       </c>
     </row>
     <row r="37">

--- a/气象/蒙古存档.xlsx
+++ b/气象/蒙古存档.xlsx
@@ -13106,49 +13106,88 @@
       <c r="A278" s="1" t="n">
         <v>46037</v>
       </c>
-      <c r="B278" t="n">
+      <c r="B278" s="0" t="n">
         <v>-33.8</v>
       </c>
-      <c r="C278" t="n">
+      <c r="C278" s="0" t="n">
         <v>-38.7</v>
       </c>
-      <c r="D278" t="n">
+      <c r="D278" s="0" t="n">
         <v>-44</v>
       </c>
-      <c r="E278" t="n">
+      <c r="E278" s="0" t="n">
         <v>-33.8</v>
       </c>
-      <c r="F278" t="n">
+      <c r="F278" s="0" t="n">
         <v>-29.8</v>
       </c>
-      <c r="G278" t="n">
+      <c r="G278" s="0" t="n">
         <v>-34.3</v>
       </c>
-      <c r="H278" t="n">
+      <c r="H278" s="0" t="n">
         <v>-28.2</v>
       </c>
-      <c r="I278" t="n">
+      <c r="I278" s="0" t="n">
         <v>-33.2</v>
       </c>
-      <c r="J278" t="n">
+      <c r="J278" s="0" t="n">
         <v>-43.2</v>
       </c>
-      <c r="K278" t="n">
+      <c r="K278" s="0" t="n">
         <v>-40</v>
       </c>
-      <c r="L278" t="n">
+      <c r="L278" s="0" t="n">
         <v>-35.8</v>
       </c>
-      <c r="M278" t="n">
+      <c r="M278" s="0" t="n">
         <v>-36.6</v>
       </c>
-      <c r="N278" t="n">
+      <c r="N278" s="0" t="n">
         <v>-23.8</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
         <v>46038</v>
+      </c>
+      <c r="B279" t="n">
+        <v>-38.8</v>
+      </c>
+      <c r="C279" t="n">
+        <v>-43.2</v>
+      </c>
+      <c r="D279" t="n">
+        <v>-47.6</v>
+      </c>
+      <c r="E279" t="n">
+        <v>-41</v>
+      </c>
+      <c r="F279" t="n">
+        <v>-43.5</v>
+      </c>
+      <c r="G279" t="n">
+        <v>-41.5</v>
+      </c>
+      <c r="H279" t="n">
+        <v>-41.6</v>
+      </c>
+      <c r="I279" t="n">
+        <v>-35.9</v>
+      </c>
+      <c r="J279" t="n">
+        <v>-47</v>
+      </c>
+      <c r="K279" t="n">
+        <v>-43.9</v>
+      </c>
+      <c r="L279" t="n">
+        <v>-43.1</v>
+      </c>
+      <c r="M279" t="n">
+        <v>-44.1</v>
+      </c>
+      <c r="N279" t="n">
+        <v>-30.6</v>
       </c>
     </row>
     <row r="280">
@@ -26124,49 +26163,88 @@
       <c r="A278" s="1" t="n">
         <v>46037</v>
       </c>
-      <c r="B278" t="n">
+      <c r="B278" s="0" t="n">
         <v>-25.3</v>
       </c>
-      <c r="C278" t="n">
+      <c r="C278" s="0" t="n">
         <v>-25.4</v>
       </c>
-      <c r="D278" t="n">
+      <c r="D278" s="0" t="n">
         <v>-29</v>
       </c>
-      <c r="E278" t="n">
+      <c r="E278" s="0" t="n">
         <v>-20.9</v>
       </c>
-      <c r="F278" t="n">
+      <c r="F278" s="0" t="n">
         <v>-17.8</v>
       </c>
-      <c r="G278" t="n">
+      <c r="G278" s="0" t="n">
         <v>-25.2</v>
       </c>
-      <c r="H278" t="n">
+      <c r="H278" s="0" t="n">
         <v>-14.9</v>
       </c>
-      <c r="I278" t="n">
+      <c r="I278" s="0" t="n">
         <v>-20.3</v>
       </c>
-      <c r="J278" t="n">
+      <c r="J278" s="0" t="n">
         <v>-28.4</v>
       </c>
-      <c r="K278" t="n">
+      <c r="K278" s="0" t="n">
         <v>-27.3</v>
       </c>
-      <c r="L278" t="n">
+      <c r="L278" s="0" t="n">
         <v>-21.6</v>
       </c>
-      <c r="M278" t="n">
+      <c r="M278" s="0" t="n">
         <v>-25</v>
       </c>
-      <c r="N278" t="n">
+      <c r="N278" s="0" t="n">
         <v>-15.2</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
         <v>46038</v>
+      </c>
+      <c r="B279" t="n">
+        <v>-28.6</v>
+      </c>
+      <c r="C279" t="n">
+        <v>-27</v>
+      </c>
+      <c r="D279" t="n">
+        <v>-32.8</v>
+      </c>
+      <c r="E279" t="n">
+        <v>-30.4</v>
+      </c>
+      <c r="F279" t="n">
+        <v>-29.6</v>
+      </c>
+      <c r="G279" t="n">
+        <v>-34.3</v>
+      </c>
+      <c r="H279" t="n">
+        <v>-28.2</v>
+      </c>
+      <c r="I279" t="n">
+        <v>-22.8</v>
+      </c>
+      <c r="J279" t="n">
+        <v>-33.1</v>
+      </c>
+      <c r="K279" t="n">
+        <v>-22.7</v>
+      </c>
+      <c r="L279" t="n">
+        <v>-32</v>
+      </c>
+      <c r="M279" t="n">
+        <v>-36</v>
+      </c>
+      <c r="N279" t="n">
+        <v>-22.3</v>
       </c>
     </row>
     <row r="280">
@@ -28444,59 +28522,108 @@
       <c r="A36" s="1" t="n">
         <v>46037</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36" s="0" t="n">
         <v>-29.13</v>
       </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
+      <c r="C36" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="D36" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E36" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="F36" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G36" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="H36" s="0" t="n">
         <v>-20.94</v>
       </c>
-      <c r="I36" t="n">
+      <c r="I36" s="0" t="n">
         <v>-26.36</v>
       </c>
-      <c r="J36" t="n">
+      <c r="J36" s="0" t="n">
         <v>-37.25</v>
       </c>
-      <c r="K36" t="n">
+      <c r="K36" s="0" t="n">
         <v>-33.92</v>
       </c>
-      <c r="L36" t="n">
+      <c r="L36" s="0" t="n">
         <v>-30.9</v>
       </c>
-      <c r="M36" t="n">
+      <c r="M36" s="0" t="n">
         <v>-32.6</v>
       </c>
-      <c r="N36" t="n">
+      <c r="N36" s="0" t="n">
         <v>-20.47</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>46038</v>
+      </c>
+      <c r="B37" t="n">
+        <v>-33.59</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>-36.01</v>
+      </c>
+      <c r="I37" t="n">
+        <v>-32.09</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-40</v>
+      </c>
+      <c r="K37" t="n">
+        <v>-33.7</v>
+      </c>
+      <c r="L37" t="n">
+        <v>-37.41</v>
+      </c>
+      <c r="M37" t="n">
+        <v>-40.4</v>
+      </c>
+      <c r="N37" t="n">
+        <v>-27.42</v>
       </c>
     </row>
     <row r="38">

--- a/气象/蒙古存档.xlsx
+++ b/气象/蒙古存档.xlsx
@@ -13150,43 +13150,43 @@
       <c r="A279" s="1" t="n">
         <v>46038</v>
       </c>
-      <c r="B279" t="n">
+      <c r="B279" s="0" t="n">
         <v>-38.8</v>
       </c>
-      <c r="C279" t="n">
+      <c r="C279" s="0" t="n">
         <v>-43.2</v>
       </c>
-      <c r="D279" t="n">
+      <c r="D279" s="0" t="n">
         <v>-47.6</v>
       </c>
-      <c r="E279" t="n">
+      <c r="E279" s="0" t="n">
         <v>-41</v>
       </c>
-      <c r="F279" t="n">
+      <c r="F279" s="0" t="n">
         <v>-43.5</v>
       </c>
-      <c r="G279" t="n">
+      <c r="G279" s="0" t="n">
         <v>-41.5</v>
       </c>
-      <c r="H279" t="n">
+      <c r="H279" s="0" t="n">
         <v>-41.6</v>
       </c>
-      <c r="I279" t="n">
+      <c r="I279" s="0" t="n">
         <v>-35.9</v>
       </c>
-      <c r="J279" t="n">
+      <c r="J279" s="0" t="n">
         <v>-47</v>
       </c>
-      <c r="K279" t="n">
+      <c r="K279" s="0" t="n">
         <v>-43.9</v>
       </c>
-      <c r="L279" t="n">
+      <c r="L279" s="0" t="n">
         <v>-43.1</v>
       </c>
-      <c r="M279" t="n">
+      <c r="M279" s="0" t="n">
         <v>-44.1</v>
       </c>
-      <c r="N279" t="n">
+      <c r="N279" s="0" t="n">
         <v>-30.6</v>
       </c>
     </row>
@@ -13194,15 +13194,132 @@
       <c r="A280" s="1" t="n">
         <v>46039</v>
       </c>
+      <c r="B280" s="0" t="n">
+        <v>-44.4</v>
+      </c>
+      <c r="C280" s="0" t="n">
+        <v>-47.5</v>
+      </c>
+      <c r="D280" s="0" t="n">
+        <v>-51.2</v>
+      </c>
+      <c r="E280" s="0" t="n">
+        <v>-36.8</v>
+      </c>
+      <c r="F280" s="0" t="n">
+        <v>-42.3</v>
+      </c>
+      <c r="G280" s="0" t="n">
+        <v>-45.3</v>
+      </c>
+      <c r="H280" s="0" t="n">
+        <v>-44.3</v>
+      </c>
+      <c r="I280" s="0" t="n">
+        <v>-40.1</v>
+      </c>
+      <c r="J280" s="0" t="n">
+        <v>-47.4</v>
+      </c>
+      <c r="K280" s="0" t="n">
+        <v>-40</v>
+      </c>
+      <c r="L280" s="0" t="n">
+        <v>-39.9</v>
+      </c>
+      <c r="M280" s="0" t="n">
+        <v>-47.7</v>
+      </c>
+      <c r="N280" s="0" t="n">
+        <v>-30.2</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
         <v>46040</v>
       </c>
+      <c r="B281" s="0" t="n">
+        <v>-47.8</v>
+      </c>
+      <c r="C281" s="0" t="n">
+        <v>-48.9</v>
+      </c>
+      <c r="D281" s="0" t="n">
+        <v>-52</v>
+      </c>
+      <c r="E281" s="0" t="n">
+        <v>-44.2</v>
+      </c>
+      <c r="F281" s="0" t="n">
+        <v>-45</v>
+      </c>
+      <c r="G281" s="0" t="n">
+        <v>-42.4</v>
+      </c>
+      <c r="H281" s="0" t="n">
+        <v>-48.5</v>
+      </c>
+      <c r="I281" s="0" t="n">
+        <v>-41.5</v>
+      </c>
+      <c r="J281" s="0" t="n">
+        <v>-51.1</v>
+      </c>
+      <c r="K281" s="0" t="n">
+        <v>-48.3</v>
+      </c>
+      <c r="L281" s="0" t="n">
+        <v>-45</v>
+      </c>
+      <c r="M281" s="0" t="n">
+        <v>-44.1</v>
+      </c>
+      <c r="N281" s="0" t="n">
+        <v>-34.8</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
         <v>46041</v>
+      </c>
+      <c r="B282" t="n">
+        <v>-47.1</v>
+      </c>
+      <c r="C282" t="n">
+        <v>-48.6</v>
+      </c>
+      <c r="D282" t="n">
+        <v>-48.6</v>
+      </c>
+      <c r="E282" t="n">
+        <v>-45.4</v>
+      </c>
+      <c r="F282" t="n">
+        <v>-47.3</v>
+      </c>
+      <c r="G282" t="n">
+        <v>-45.6</v>
+      </c>
+      <c r="H282" t="n">
+        <v>-47.1</v>
+      </c>
+      <c r="I282" t="n">
+        <v>-42.1</v>
+      </c>
+      <c r="J282" t="n">
+        <v>-49.9</v>
+      </c>
+      <c r="K282" t="n">
+        <v>-47.2</v>
+      </c>
+      <c r="L282" t="n">
+        <v>-47.4</v>
+      </c>
+      <c r="M282" t="n">
+        <v>-47.1</v>
+      </c>
+      <c r="N282" t="n">
+        <v>-34.9</v>
       </c>
     </row>
     <row r="283">
@@ -26207,43 +26324,43 @@
       <c r="A279" s="1" t="n">
         <v>46038</v>
       </c>
-      <c r="B279" t="n">
+      <c r="B279" s="0" t="n">
         <v>-28.6</v>
       </c>
-      <c r="C279" t="n">
+      <c r="C279" s="0" t="n">
         <v>-27</v>
       </c>
-      <c r="D279" t="n">
+      <c r="D279" s="0" t="n">
         <v>-32.8</v>
       </c>
-      <c r="E279" t="n">
+      <c r="E279" s="0" t="n">
         <v>-30.4</v>
       </c>
-      <c r="F279" t="n">
+      <c r="F279" s="0" t="n">
         <v>-29.6</v>
       </c>
-      <c r="G279" t="n">
+      <c r="G279" s="0" t="n">
         <v>-34.3</v>
       </c>
-      <c r="H279" t="n">
+      <c r="H279" s="0" t="n">
         <v>-28.2</v>
       </c>
-      <c r="I279" t="n">
+      <c r="I279" s="0" t="n">
         <v>-22.8</v>
       </c>
-      <c r="J279" t="n">
+      <c r="J279" s="0" t="n">
         <v>-33.1</v>
       </c>
-      <c r="K279" t="n">
+      <c r="K279" s="0" t="n">
         <v>-22.7</v>
       </c>
-      <c r="L279" t="n">
+      <c r="L279" s="0" t="n">
         <v>-32</v>
       </c>
-      <c r="M279" t="n">
+      <c r="M279" s="0" t="n">
         <v>-36</v>
       </c>
-      <c r="N279" t="n">
+      <c r="N279" s="0" t="n">
         <v>-22.3</v>
       </c>
     </row>
@@ -26251,15 +26368,132 @@
       <c r="A280" s="1" t="n">
         <v>46039</v>
       </c>
+      <c r="B280" s="0" t="n">
+        <v>-32.3</v>
+      </c>
+      <c r="C280" s="0" t="n">
+        <v>-31.9</v>
+      </c>
+      <c r="D280" s="0" t="n">
+        <v>-38.4</v>
+      </c>
+      <c r="E280" s="0" t="n">
+        <v>-28.8</v>
+      </c>
+      <c r="F280" s="0" t="n">
+        <v>-28</v>
+      </c>
+      <c r="G280" s="0" t="n">
+        <v>-37.5</v>
+      </c>
+      <c r="H280" s="0" t="n">
+        <v>-34.1</v>
+      </c>
+      <c r="I280" s="0" t="n">
+        <v>-26.5</v>
+      </c>
+      <c r="J280" s="0" t="n">
+        <v>-37.1</v>
+      </c>
+      <c r="K280" s="0" t="n">
+        <v>-25.1</v>
+      </c>
+      <c r="L280" s="0" t="n">
+        <v>-29.5</v>
+      </c>
+      <c r="M280" s="0" t="n">
+        <v>-37</v>
+      </c>
+      <c r="N280" s="0" t="n">
+        <v>-23.9</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
         <v>46040</v>
       </c>
+      <c r="B281" s="0" t="n">
+        <v>-34.8</v>
+      </c>
+      <c r="C281" s="0" t="n">
+        <v>-33.8</v>
+      </c>
+      <c r="D281" s="0" t="n">
+        <v>-38.7</v>
+      </c>
+      <c r="E281" s="0" t="n">
+        <v>-34.4</v>
+      </c>
+      <c r="F281" s="0" t="n">
+        <v>-29.7</v>
+      </c>
+      <c r="G281" s="0" t="n">
+        <v>-34.2</v>
+      </c>
+      <c r="H281" s="0" t="n">
+        <v>-35.5</v>
+      </c>
+      <c r="I281" s="0" t="n">
+        <v>-27.7</v>
+      </c>
+      <c r="J281" s="0" t="n">
+        <v>-39.4</v>
+      </c>
+      <c r="K281" s="0" t="n">
+        <v>-34.2</v>
+      </c>
+      <c r="L281" s="0" t="n">
+        <v>-35.2</v>
+      </c>
+      <c r="M281" s="0" t="n">
+        <v>-32.1</v>
+      </c>
+      <c r="N281" s="0" t="n">
+        <v>-28.8</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
         <v>46041</v>
+      </c>
+      <c r="B282" t="n">
+        <v>-37.4</v>
+      </c>
+      <c r="C282" t="n">
+        <v>-35.9</v>
+      </c>
+      <c r="D282" t="n">
+        <v>-35.5</v>
+      </c>
+      <c r="E282" t="n">
+        <v>-37.3</v>
+      </c>
+      <c r="F282" t="n">
+        <v>-34.7</v>
+      </c>
+      <c r="G282" t="n">
+        <v>-37.7</v>
+      </c>
+      <c r="H282" t="n">
+        <v>-36.3</v>
+      </c>
+      <c r="I282" t="n">
+        <v>-31.6</v>
+      </c>
+      <c r="J282" t="n">
+        <v>-37.6</v>
+      </c>
+      <c r="K282" t="n">
+        <v>-33</v>
+      </c>
+      <c r="L282" t="n">
+        <v>-36.5</v>
+      </c>
+      <c r="M282" t="n">
+        <v>-38.5</v>
+      </c>
+      <c r="N282" t="n">
+        <v>-27</v>
       </c>
     </row>
     <row r="283">
@@ -28576,53 +28810,53 @@
       <c r="A37" s="1" t="n">
         <v>46038</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37" s="0" t="n">
         <v>-33.59</v>
       </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
+      <c r="C37" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="D37" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E37" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="F37" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G37" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="H37" s="0" t="n">
         <v>-36.01</v>
       </c>
-      <c r="I37" t="n">
+      <c r="I37" s="0" t="n">
         <v>-32.09</v>
       </c>
-      <c r="J37" t="n">
+      <c r="J37" s="0" t="n">
         <v>-40</v>
       </c>
-      <c r="K37" t="n">
+      <c r="K37" s="0" t="n">
         <v>-33.7</v>
       </c>
-      <c r="L37" t="n">
+      <c r="L37" s="0" t="n">
         <v>-37.41</v>
       </c>
-      <c r="M37" t="n">
+      <c r="M37" s="0" t="n">
         <v>-40.4</v>
       </c>
-      <c r="N37" t="n">
+      <c r="N37" s="0" t="n">
         <v>-27.42</v>
       </c>
     </row>
@@ -28630,15 +28864,162 @@
       <c r="A38" s="1" t="n">
         <v>46039</v>
       </c>
+      <c r="B38" s="0" t="n">
+        <v>-39.48</v>
+      </c>
+      <c r="C38" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="D38" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E38" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="F38" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G38" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="H38" s="0" t="n">
+        <v>-40.31</v>
+      </c>
+      <c r="I38" s="0" t="n">
+        <v>-33.79</v>
+      </c>
+      <c r="J38" s="0" t="n">
+        <v>-41.66</v>
+      </c>
+      <c r="K38" s="0" t="n">
+        <v>-32.46</v>
+      </c>
+      <c r="L38" s="0" t="n">
+        <v>-36.25</v>
+      </c>
+      <c r="M38" s="0" t="n">
+        <v>-43.65</v>
+      </c>
+      <c r="N38" s="0" t="n">
+        <v>-28.11</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>46040</v>
       </c>
+      <c r="B39" s="0" t="n">
+        <v>-42.1</v>
+      </c>
+      <c r="C39" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="D39" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E39" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="F39" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G39" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="H39" s="0" t="n">
+        <v>-43.86</v>
+      </c>
+      <c r="I39" s="0" t="n">
+        <v>-37.27</v>
+      </c>
+      <c r="J39" s="0" t="n">
+        <v>-45.49</v>
+      </c>
+      <c r="K39" s="0" t="n">
+        <v>-43.33</v>
+      </c>
+      <c r="L39" s="0" t="n">
+        <v>-41.22</v>
+      </c>
+      <c r="M39" s="0" t="n">
+        <v>-40.34</v>
+      </c>
+      <c r="N39" s="0" t="n">
+        <v>-31.65</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>46041</v>
+      </c>
+      <c r="B40" t="n">
+        <v>-43.43</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>-42.56</v>
+      </c>
+      <c r="I40" t="n">
+        <v>-38.1</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-45.54</v>
+      </c>
+      <c r="K40" t="n">
+        <v>-42.22</v>
+      </c>
+      <c r="L40" t="n">
+        <v>-43.42</v>
+      </c>
+      <c r="M40" t="n">
+        <v>-43.83</v>
+      </c>
+      <c r="N40" t="n">
+        <v>-31.69</v>
       </c>
     </row>
     <row r="41">

--- a/气象/蒙古存档.xlsx
+++ b/气象/蒙古存档.xlsx
@@ -13282,43 +13282,43 @@
       <c r="A282" s="1" t="n">
         <v>46041</v>
       </c>
-      <c r="B282" t="n">
+      <c r="B282" s="0" t="n">
         <v>-47.1</v>
       </c>
-      <c r="C282" t="n">
+      <c r="C282" s="0" t="n">
         <v>-48.6</v>
       </c>
-      <c r="D282" t="n">
+      <c r="D282" s="0" t="n">
         <v>-48.6</v>
       </c>
-      <c r="E282" t="n">
+      <c r="E282" s="0" t="n">
         <v>-45.4</v>
       </c>
-      <c r="F282" t="n">
+      <c r="F282" s="0" t="n">
         <v>-47.3</v>
       </c>
-      <c r="G282" t="n">
+      <c r="G282" s="0" t="n">
         <v>-45.6</v>
       </c>
-      <c r="H282" t="n">
+      <c r="H282" s="0" t="n">
         <v>-47.1</v>
       </c>
-      <c r="I282" t="n">
+      <c r="I282" s="0" t="n">
         <v>-42.1</v>
       </c>
-      <c r="J282" t="n">
+      <c r="J282" s="0" t="n">
         <v>-49.9</v>
       </c>
-      <c r="K282" t="n">
+      <c r="K282" s="0" t="n">
         <v>-47.2</v>
       </c>
-      <c r="L282" t="n">
+      <c r="L282" s="0" t="n">
         <v>-47.4</v>
       </c>
-      <c r="M282" t="n">
+      <c r="M282" s="0" t="n">
         <v>-47.1</v>
       </c>
-      <c r="N282" t="n">
+      <c r="N282" s="0" t="n">
         <v>-34.9</v>
       </c>
     </row>
@@ -13326,15 +13326,132 @@
       <c r="A283" s="1" t="n">
         <v>46042</v>
       </c>
+      <c r="B283" s="0" t="n">
+        <v>-46</v>
+      </c>
+      <c r="C283" s="0" t="n">
+        <v>-47.5</v>
+      </c>
+      <c r="D283" s="0" t="n">
+        <v>-47.7</v>
+      </c>
+      <c r="E283" s="0" t="n">
+        <v>-45.1</v>
+      </c>
+      <c r="F283" s="0" t="n">
+        <v>-46.5</v>
+      </c>
+      <c r="G283" s="0" t="n">
+        <v>-47.1</v>
+      </c>
+      <c r="H283" s="0" t="n">
+        <v>-45.7</v>
+      </c>
+      <c r="I283" s="0" t="n">
+        <v>-40.3</v>
+      </c>
+      <c r="J283" s="0" t="n">
+        <v>-48.2</v>
+      </c>
+      <c r="K283" s="0" t="n">
+        <v>-45.3</v>
+      </c>
+      <c r="L283" s="0" t="n">
+        <v>-47</v>
+      </c>
+      <c r="M283" s="0" t="n">
+        <v>-48</v>
+      </c>
+      <c r="N283" s="0" t="n">
+        <v>-34.6</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
         <v>46043</v>
       </c>
+      <c r="B284" s="0" t="n">
+        <v>-40.1</v>
+      </c>
+      <c r="C284" s="0" t="n">
+        <v>-40.5</v>
+      </c>
+      <c r="D284" s="0" t="n">
+        <v>-42.1</v>
+      </c>
+      <c r="E284" s="0" t="n">
+        <v>-42.2</v>
+      </c>
+      <c r="F284" s="0" t="n">
+        <v>-43.9</v>
+      </c>
+      <c r="G284" s="0" t="n">
+        <v>-41.7</v>
+      </c>
+      <c r="H284" s="0" t="n">
+        <v>-45.2</v>
+      </c>
+      <c r="I284" s="0" t="n">
+        <v>-39.8</v>
+      </c>
+      <c r="J284" s="0" t="n">
+        <v>-41.1</v>
+      </c>
+      <c r="K284" s="0" t="n">
+        <v>-40.7</v>
+      </c>
+      <c r="L284" s="0" t="n">
+        <v>-44.1</v>
+      </c>
+      <c r="M284" s="0" t="n">
+        <v>-43.2</v>
+      </c>
+      <c r="N284" s="0" t="n">
+        <v>-32.1</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
         <v>46044</v>
+      </c>
+      <c r="B285" t="n">
+        <v>-41.2</v>
+      </c>
+      <c r="C285" t="n">
+        <v>-42.2</v>
+      </c>
+      <c r="D285" t="n">
+        <v>-45.5</v>
+      </c>
+      <c r="E285" t="n">
+        <v>-40.3</v>
+      </c>
+      <c r="F285" t="n">
+        <v>-41.8</v>
+      </c>
+      <c r="G285" t="n">
+        <v>-42</v>
+      </c>
+      <c r="H285" t="n">
+        <v>-43.8</v>
+      </c>
+      <c r="I285" t="n">
+        <v>-38.4</v>
+      </c>
+      <c r="J285" t="n">
+        <v>-41.5</v>
+      </c>
+      <c r="K285" t="n">
+        <v>-37</v>
+      </c>
+      <c r="L285" t="n">
+        <v>-42.3</v>
+      </c>
+      <c r="M285" t="n">
+        <v>-44.8</v>
+      </c>
+      <c r="N285" t="n">
+        <v>-32.2</v>
       </c>
     </row>
     <row r="286">
@@ -26456,43 +26573,43 @@
       <c r="A282" s="1" t="n">
         <v>46041</v>
       </c>
-      <c r="B282" t="n">
+      <c r="B282" s="0" t="n">
         <v>-37.4</v>
       </c>
-      <c r="C282" t="n">
+      <c r="C282" s="0" t="n">
         <v>-35.9</v>
       </c>
-      <c r="D282" t="n">
+      <c r="D282" s="0" t="n">
         <v>-35.5</v>
       </c>
-      <c r="E282" t="n">
+      <c r="E282" s="0" t="n">
         <v>-37.3</v>
       </c>
-      <c r="F282" t="n">
+      <c r="F282" s="0" t="n">
         <v>-34.7</v>
       </c>
-      <c r="G282" t="n">
+      <c r="G282" s="0" t="n">
         <v>-37.7</v>
       </c>
-      <c r="H282" t="n">
+      <c r="H282" s="0" t="n">
         <v>-36.3</v>
       </c>
-      <c r="I282" t="n">
+      <c r="I282" s="0" t="n">
         <v>-31.6</v>
       </c>
-      <c r="J282" t="n">
+      <c r="J282" s="0" t="n">
         <v>-37.6</v>
       </c>
-      <c r="K282" t="n">
+      <c r="K282" s="0" t="n">
         <v>-33</v>
       </c>
-      <c r="L282" t="n">
+      <c r="L282" s="0" t="n">
         <v>-36.5</v>
       </c>
-      <c r="M282" t="n">
+      <c r="M282" s="0" t="n">
         <v>-38.5</v>
       </c>
-      <c r="N282" t="n">
+      <c r="N282" s="0" t="n">
         <v>-27</v>
       </c>
     </row>
@@ -26500,15 +26617,132 @@
       <c r="A283" s="1" t="n">
         <v>46042</v>
       </c>
+      <c r="B283" s="0" t="n">
+        <v>-35.4</v>
+      </c>
+      <c r="C283" s="0" t="n">
+        <v>-30.6</v>
+      </c>
+      <c r="D283" s="0" t="n">
+        <v>-33.8</v>
+      </c>
+      <c r="E283" s="0" t="n">
+        <v>-37.4</v>
+      </c>
+      <c r="F283" s="0" t="n">
+        <v>-31.8</v>
+      </c>
+      <c r="G283" s="0" t="n">
+        <v>-37.2</v>
+      </c>
+      <c r="H283" s="0" t="n">
+        <v>-35.3</v>
+      </c>
+      <c r="I283" s="0" t="n">
+        <v>-31.1</v>
+      </c>
+      <c r="J283" s="0" t="n">
+        <v>-32.9</v>
+      </c>
+      <c r="K283" s="0" t="n">
+        <v>-27.1</v>
+      </c>
+      <c r="L283" s="0" t="n">
+        <v>-36</v>
+      </c>
+      <c r="M283" s="0" t="n">
+        <v>-37.9</v>
+      </c>
+      <c r="N283" s="0" t="n">
+        <v>-24.9</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
         <v>46043</v>
       </c>
+      <c r="B284" s="0" t="n">
+        <v>-32.8</v>
+      </c>
+      <c r="C284" s="0" t="n">
+        <v>-32.4</v>
+      </c>
+      <c r="D284" s="0" t="n">
+        <v>-32.4</v>
+      </c>
+      <c r="E284" s="0" t="n">
+        <v>-34.4</v>
+      </c>
+      <c r="F284" s="0" t="n">
+        <v>-31.6</v>
+      </c>
+      <c r="G284" s="0" t="n">
+        <v>-34.4</v>
+      </c>
+      <c r="H284" s="0" t="n">
+        <v>-34.4</v>
+      </c>
+      <c r="I284" s="0" t="n">
+        <v>-30.1</v>
+      </c>
+      <c r="J284" s="0" t="n">
+        <v>-31.8</v>
+      </c>
+      <c r="K284" s="0" t="n">
+        <v>-24.2</v>
+      </c>
+      <c r="L284" s="0" t="n">
+        <v>-33.4</v>
+      </c>
+      <c r="M284" s="0" t="n">
+        <v>-36.8</v>
+      </c>
+      <c r="N284" s="0" t="n">
+        <v>-22.5</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
         <v>46044</v>
+      </c>
+      <c r="B285" t="n">
+        <v>-33.2</v>
+      </c>
+      <c r="C285" t="n">
+        <v>-30.6</v>
+      </c>
+      <c r="D285" t="n">
+        <v>-31</v>
+      </c>
+      <c r="E285" t="n">
+        <v>-31.2</v>
+      </c>
+      <c r="F285" t="n">
+        <v>-28.8</v>
+      </c>
+      <c r="G285" t="n">
+        <v>-33.4</v>
+      </c>
+      <c r="H285" t="n">
+        <v>-32.2</v>
+      </c>
+      <c r="I285" t="n">
+        <v>-29.9</v>
+      </c>
+      <c r="J285" t="n">
+        <v>-29.2</v>
+      </c>
+      <c r="K285" t="n">
+        <v>-21.1</v>
+      </c>
+      <c r="L285" t="n">
+        <v>-29.2</v>
+      </c>
+      <c r="M285" t="n">
+        <v>-35.1</v>
+      </c>
+      <c r="N285" t="n">
+        <v>-20.9</v>
       </c>
     </row>
     <row r="286">
@@ -28972,53 +29206,53 @@
       <c r="A40" s="1" t="n">
         <v>46041</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40" s="0" t="n">
         <v>-43.43</v>
       </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="H40" t="n">
+      <c r="C40" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="D40" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E40" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="F40" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G40" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="H40" s="0" t="n">
         <v>-42.56</v>
       </c>
-      <c r="I40" t="n">
+      <c r="I40" s="0" t="n">
         <v>-38.1</v>
       </c>
-      <c r="J40" t="n">
+      <c r="J40" s="0" t="n">
         <v>-45.54</v>
       </c>
-      <c r="K40" t="n">
+      <c r="K40" s="0" t="n">
         <v>-42.22</v>
       </c>
-      <c r="L40" t="n">
+      <c r="L40" s="0" t="n">
         <v>-43.42</v>
       </c>
-      <c r="M40" t="n">
+      <c r="M40" s="0" t="n">
         <v>-43.83</v>
       </c>
-      <c r="N40" t="n">
+      <c r="N40" s="0" t="n">
         <v>-31.69</v>
       </c>
     </row>
@@ -29026,15 +29260,162 @@
       <c r="A41" s="1" t="n">
         <v>46042</v>
       </c>
+      <c r="B41" s="0" t="n">
+        <v>-40.56</v>
+      </c>
+      <c r="C41" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="D41" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E41" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="F41" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G41" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="H41" s="0" t="n">
+        <v>-41.56</v>
+      </c>
+      <c r="I41" s="0" t="n">
+        <v>-35.06</v>
+      </c>
+      <c r="J41" s="0" t="n">
+        <v>-41.49</v>
+      </c>
+      <c r="K41" s="0" t="n">
+        <v>-39.15</v>
+      </c>
+      <c r="L41" s="0" t="n">
+        <v>-43.02</v>
+      </c>
+      <c r="M41" s="0" t="n">
+        <v>-44.51</v>
+      </c>
+      <c r="N41" s="0" t="n">
+        <v>-30.48</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>46043</v>
       </c>
+      <c r="B42" s="0" t="n">
+        <v>-36.65</v>
+      </c>
+      <c r="C42" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="D42" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E42" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="F42" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G42" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="H42" s="0" t="n">
+        <v>-40.6</v>
+      </c>
+      <c r="I42" s="0" t="n">
+        <v>-35.33</v>
+      </c>
+      <c r="J42" s="0" t="n">
+        <v>-37.34</v>
+      </c>
+      <c r="K42" s="0" t="n">
+        <v>-32.93</v>
+      </c>
+      <c r="L42" s="0" t="n">
+        <v>-40.69</v>
+      </c>
+      <c r="M42" s="0" t="n">
+        <v>-40.54</v>
+      </c>
+      <c r="N42" s="0" t="n">
+        <v>-28.26</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>46044</v>
+      </c>
+      <c r="B43" t="n">
+        <v>-36.74</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>-38.75</v>
+      </c>
+      <c r="I43" t="n">
+        <v>-34.96</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-37.02</v>
+      </c>
+      <c r="K43" t="n">
+        <v>-30.54</v>
+      </c>
+      <c r="L43" t="n">
+        <v>-38.12</v>
+      </c>
+      <c r="M43" t="n">
+        <v>-40.51</v>
+      </c>
+      <c r="N43" t="n">
+        <v>-27.03</v>
       </c>
     </row>
     <row r="44">

--- a/气象/蒙古存档.xlsx
+++ b/气象/蒙古存档.xlsx
@@ -494,7 +494,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A268" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E275" sqref="E275"/>
+      <selection pane="bottomLeft" activeCell="D291" sqref="D291"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.9" outlineLevelCol="0"/>
@@ -13414,43 +13414,43 @@
       <c r="A285" s="1" t="n">
         <v>46044</v>
       </c>
-      <c r="B285" t="n">
+      <c r="B285" s="0" t="n">
         <v>-41.2</v>
       </c>
-      <c r="C285" t="n">
+      <c r="C285" s="0" t="n">
         <v>-42.2</v>
       </c>
-      <c r="D285" t="n">
+      <c r="D285" s="0" t="n">
         <v>-45.5</v>
       </c>
-      <c r="E285" t="n">
+      <c r="E285" s="0" t="n">
         <v>-40.3</v>
       </c>
-      <c r="F285" t="n">
+      <c r="F285" s="0" t="n">
         <v>-41.8</v>
       </c>
-      <c r="G285" t="n">
+      <c r="G285" s="0" t="n">
         <v>-42</v>
       </c>
-      <c r="H285" t="n">
+      <c r="H285" s="0" t="n">
         <v>-43.8</v>
       </c>
-      <c r="I285" t="n">
+      <c r="I285" s="0" t="n">
         <v>-38.4</v>
       </c>
-      <c r="J285" t="n">
+      <c r="J285" s="0" t="n">
         <v>-41.5</v>
       </c>
-      <c r="K285" t="n">
+      <c r="K285" s="0" t="n">
         <v>-37</v>
       </c>
-      <c r="L285" t="n">
+      <c r="L285" s="0" t="n">
         <v>-42.3</v>
       </c>
-      <c r="M285" t="n">
+      <c r="M285" s="0" t="n">
         <v>-44.8</v>
       </c>
-      <c r="N285" t="n">
+      <c r="N285" s="0" t="n">
         <v>-32.2</v>
       </c>
     </row>
@@ -13458,15 +13458,132 @@
       <c r="A286" s="1" t="n">
         <v>46045</v>
       </c>
+      <c r="B286" s="0" t="n">
+        <v>-42.7</v>
+      </c>
+      <c r="C286" s="0" t="n">
+        <v>-44.2</v>
+      </c>
+      <c r="D286" s="0" t="n">
+        <v>-42.4</v>
+      </c>
+      <c r="E286" s="0" t="n">
+        <v>-39.5</v>
+      </c>
+      <c r="F286" s="0" t="n">
+        <v>-40.6</v>
+      </c>
+      <c r="G286" s="0" t="n">
+        <v>-40.2</v>
+      </c>
+      <c r="H286" s="0" t="n">
+        <v>-42.4</v>
+      </c>
+      <c r="I286" s="0" t="n">
+        <v>-39.5</v>
+      </c>
+      <c r="J286" s="0" t="n">
+        <v>-42.1</v>
+      </c>
+      <c r="K286" s="0" t="n">
+        <v>-37</v>
+      </c>
+      <c r="L286" s="0" t="n">
+        <v>-40.8</v>
+      </c>
+      <c r="M286" s="0" t="n">
+        <v>-42</v>
+      </c>
+      <c r="N286" s="0" t="n">
+        <v>-29.9</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
         <v>46046</v>
       </c>
+      <c r="B287" s="0" t="n">
+        <v>-34.6</v>
+      </c>
+      <c r="C287" s="0" t="n">
+        <v>-35.1</v>
+      </c>
+      <c r="D287" s="0" t="n">
+        <v>-34.5</v>
+      </c>
+      <c r="E287" s="0" t="n">
+        <v>-33.6</v>
+      </c>
+      <c r="F287" s="0" t="n">
+        <v>-35.3</v>
+      </c>
+      <c r="G287" s="0" t="n">
+        <v>-39.3</v>
+      </c>
+      <c r="H287" s="0" t="n">
+        <v>-41.3</v>
+      </c>
+      <c r="I287" s="0" t="n">
+        <v>-32.1</v>
+      </c>
+      <c r="J287" s="0" t="n">
+        <v>-36.8</v>
+      </c>
+      <c r="K287" s="0" t="n">
+        <v>-29.6</v>
+      </c>
+      <c r="L287" s="0" t="n">
+        <v>-35.1</v>
+      </c>
+      <c r="M287" s="0" t="n">
+        <v>-40.7</v>
+      </c>
+      <c r="N287" s="0" t="n">
+        <v>-28.7</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
         <v>46047</v>
+      </c>
+      <c r="B288" t="n">
+        <v>-36.1</v>
+      </c>
+      <c r="C288" t="n">
+        <v>-36.8</v>
+      </c>
+      <c r="D288" t="n">
+        <v>-32</v>
+      </c>
+      <c r="E288" t="n">
+        <v>-29.8</v>
+      </c>
+      <c r="F288" t="n">
+        <v>-26.1</v>
+      </c>
+      <c r="G288" t="n">
+        <v>-29.6</v>
+      </c>
+      <c r="H288" t="n">
+        <v>-34.3</v>
+      </c>
+      <c r="I288" t="n">
+        <v>-35.7</v>
+      </c>
+      <c r="J288" t="n">
+        <v>-30.8</v>
+      </c>
+      <c r="K288" t="n">
+        <v>-30.3</v>
+      </c>
+      <c r="L288" t="n">
+        <v>-26</v>
+      </c>
+      <c r="M288" t="n">
+        <v>-31.1</v>
+      </c>
+      <c r="N288" t="n">
+        <v>-20.6</v>
       </c>
     </row>
     <row r="289">
@@ -13799,7 +13916,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A268" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F259" sqref="F259"/>
+      <selection pane="bottomLeft" activeCell="D291" sqref="D291"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.9" outlineLevelCol="0"/>
@@ -26705,43 +26822,43 @@
       <c r="A285" s="1" t="n">
         <v>46044</v>
       </c>
-      <c r="B285" t="n">
+      <c r="B285" s="0" t="n">
         <v>-33.2</v>
       </c>
-      <c r="C285" t="n">
+      <c r="C285" s="0" t="n">
         <v>-30.6</v>
       </c>
-      <c r="D285" t="n">
+      <c r="D285" s="0" t="n">
         <v>-31</v>
       </c>
-      <c r="E285" t="n">
+      <c r="E285" s="0" t="n">
         <v>-31.2</v>
       </c>
-      <c r="F285" t="n">
+      <c r="F285" s="0" t="n">
         <v>-28.8</v>
       </c>
-      <c r="G285" t="n">
+      <c r="G285" s="0" t="n">
         <v>-33.4</v>
       </c>
-      <c r="H285" t="n">
+      <c r="H285" s="0" t="n">
         <v>-32.2</v>
       </c>
-      <c r="I285" t="n">
+      <c r="I285" s="0" t="n">
         <v>-29.9</v>
       </c>
-      <c r="J285" t="n">
+      <c r="J285" s="0" t="n">
         <v>-29.2</v>
       </c>
-      <c r="K285" t="n">
+      <c r="K285" s="0" t="n">
         <v>-21.1</v>
       </c>
-      <c r="L285" t="n">
+      <c r="L285" s="0" t="n">
         <v>-29.2</v>
       </c>
-      <c r="M285" t="n">
+      <c r="M285" s="0" t="n">
         <v>-35.1</v>
       </c>
-      <c r="N285" t="n">
+      <c r="N285" s="0" t="n">
         <v>-20.9</v>
       </c>
     </row>
@@ -26749,15 +26866,132 @@
       <c r="A286" s="1" t="n">
         <v>46045</v>
       </c>
+      <c r="B286" s="0" t="n">
+        <v>-33</v>
+      </c>
+      <c r="C286" s="0" t="n">
+        <v>-30.2</v>
+      </c>
+      <c r="D286" s="0" t="n">
+        <v>-26.5</v>
+      </c>
+      <c r="E286" s="0" t="n">
+        <v>-30.5</v>
+      </c>
+      <c r="F286" s="0" t="n">
+        <v>-27.4</v>
+      </c>
+      <c r="G286" s="0" t="n">
+        <v>-31.4</v>
+      </c>
+      <c r="H286" s="0" t="n">
+        <v>-31.1</v>
+      </c>
+      <c r="I286" s="0" t="n">
+        <v>-29.1</v>
+      </c>
+      <c r="J286" s="0" t="n">
+        <v>-28.8</v>
+      </c>
+      <c r="K286" s="0" t="n">
+        <v>-20.9</v>
+      </c>
+      <c r="L286" s="0" t="n">
+        <v>-29.4</v>
+      </c>
+      <c r="M286" s="0" t="n">
+        <v>-33.5</v>
+      </c>
+      <c r="N286" s="0" t="n">
+        <v>-18.9</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
         <v>46046</v>
       </c>
+      <c r="B287" s="0" t="n">
+        <v>-27.3</v>
+      </c>
+      <c r="C287" s="0" t="n">
+        <v>-26.8</v>
+      </c>
+      <c r="D287" s="0" t="n">
+        <v>-24.5</v>
+      </c>
+      <c r="E287" s="0" t="n">
+        <v>-20.2</v>
+      </c>
+      <c r="F287" s="0" t="n">
+        <v>-14.1</v>
+      </c>
+      <c r="G287" s="0" t="n">
+        <v>-28.1</v>
+      </c>
+      <c r="H287" s="0" t="n">
+        <v>-29.7</v>
+      </c>
+      <c r="I287" s="0" t="n">
+        <v>-26.6</v>
+      </c>
+      <c r="J287" s="0" t="n">
+        <v>-21.8</v>
+      </c>
+      <c r="K287" s="0" t="n">
+        <v>-11.9</v>
+      </c>
+      <c r="L287" s="0" t="n">
+        <v>-18.4</v>
+      </c>
+      <c r="M287" s="0" t="n">
+        <v>-27.6</v>
+      </c>
+      <c r="N287" s="0" t="n">
+        <v>-16.9</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
         <v>46047</v>
+      </c>
+      <c r="B288" t="n">
+        <v>-27.2</v>
+      </c>
+      <c r="C288" t="n">
+        <v>-28.4</v>
+      </c>
+      <c r="D288" t="n">
+        <v>-23.2</v>
+      </c>
+      <c r="E288" t="n">
+        <v>-16.8</v>
+      </c>
+      <c r="F288" t="n">
+        <v>-14.1</v>
+      </c>
+      <c r="G288" t="n">
+        <v>-25</v>
+      </c>
+      <c r="H288" t="n">
+        <v>-20.5</v>
+      </c>
+      <c r="I288" t="n">
+        <v>-22.5</v>
+      </c>
+      <c r="J288" t="n">
+        <v>-24.6</v>
+      </c>
+      <c r="K288" t="n">
+        <v>-12.5</v>
+      </c>
+      <c r="L288" t="n">
+        <v>-13.5</v>
+      </c>
+      <c r="M288" t="n">
+        <v>-22</v>
+      </c>
+      <c r="N288" t="n">
+        <v>-13.1</v>
       </c>
     </row>
     <row r="289">
@@ -27090,7 +27324,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L8" sqref="L8"/>
+      <selection pane="bottomLeft" activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.9" outlineLevelCol="0"/>
@@ -29368,53 +29602,53 @@
       <c r="A43" s="1" t="n">
         <v>46044</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43" s="0" t="n">
         <v>-36.74</v>
       </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="H43" t="n">
+      <c r="C43" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="D43" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E43" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="F43" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G43" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="H43" s="0" t="n">
         <v>-38.75</v>
       </c>
-      <c r="I43" t="n">
+      <c r="I43" s="0" t="n">
         <v>-34.96</v>
       </c>
-      <c r="J43" t="n">
+      <c r="J43" s="0" t="n">
         <v>-37.02</v>
       </c>
-      <c r="K43" t="n">
+      <c r="K43" s="0" t="n">
         <v>-30.54</v>
       </c>
-      <c r="L43" t="n">
+      <c r="L43" s="0" t="n">
         <v>-38.12</v>
       </c>
-      <c r="M43" t="n">
+      <c r="M43" s="0" t="n">
         <v>-40.51</v>
       </c>
-      <c r="N43" t="n">
+      <c r="N43" s="0" t="n">
         <v>-27.03</v>
       </c>
     </row>
@@ -29422,15 +29656,164 @@
       <c r="A44" s="1" t="n">
         <v>46045</v>
       </c>
+      <c r="B44" s="0" t="n">
+        <v>-37.34</v>
+      </c>
+      <c r="C44" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="D44" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E44" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="F44" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G44" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="H44" s="0" t="n">
+        <v>-37.59</v>
+      </c>
+      <c r="I44" s="0" t="n">
+        <v>-33.12</v>
+      </c>
+      <c r="J44" s="0" t="n">
+        <v>-36.14</v>
+      </c>
+      <c r="K44" s="0" t="n">
+        <v>-29.96</v>
+      </c>
+      <c r="L44" s="0" t="n">
+        <v>-36.16</v>
+      </c>
+      <c r="M44" s="0" t="n">
+        <v>-38.8</v>
+      </c>
+      <c r="N44" s="0" t="n">
+        <v>-25.21</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>46046</v>
       </c>
+      <c r="B45" s="0" t="n">
+        <v>-30.18</v>
+      </c>
+      <c r="C45" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="D45" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E45" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="F45" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G45" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="H45" s="0" t="n">
+        <v>-36.81</v>
+      </c>
+      <c r="I45" s="0" t="n">
+        <v>-29.38</v>
+      </c>
+      <c r="J45" s="0" t="n">
+        <v>-28.15</v>
+      </c>
+      <c r="K45" s="0" t="n">
+        <v>-17.7</v>
+      </c>
+      <c r="L45" s="0" t="n">
+        <v>-27</v>
+      </c>
+      <c r="M45" s="0" t="n">
+        <v>-35.01</v>
+      </c>
+      <c r="N45" s="0" t="n">
+        <v>-23.26</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>46047</v>
+      </c>
+      <c r="B46" t="n">
+        <v>-29.65</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>-26.59</v>
+      </c>
+      <c r="I46" t="n">
+        <v>-31.44</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>-21.94</v>
+      </c>
+      <c r="L46" t="n">
+        <v>-20.82</v>
+      </c>
+      <c r="M46" t="n">
+        <v>-28.36</v>
+      </c>
+      <c r="N46" t="n">
+        <v>-15.73</v>
       </c>
     </row>
     <row r="47">

--- a/气象/蒙古存档.xlsx
+++ b/气象/蒙古存档.xlsx
@@ -13546,43 +13546,43 @@
       <c r="A288" s="1" t="n">
         <v>46047</v>
       </c>
-      <c r="B288" t="n">
+      <c r="B288" s="0" t="n">
         <v>-36.1</v>
       </c>
-      <c r="C288" t="n">
+      <c r="C288" s="0" t="n">
         <v>-36.8</v>
       </c>
-      <c r="D288" t="n">
+      <c r="D288" s="0" t="n">
         <v>-32</v>
       </c>
-      <c r="E288" t="n">
+      <c r="E288" s="0" t="n">
         <v>-29.8</v>
       </c>
-      <c r="F288" t="n">
+      <c r="F288" s="0" t="n">
         <v>-26.1</v>
       </c>
-      <c r="G288" t="n">
+      <c r="G288" s="0" t="n">
         <v>-29.6</v>
       </c>
-      <c r="H288" t="n">
+      <c r="H288" s="0" t="n">
         <v>-34.3</v>
       </c>
-      <c r="I288" t="n">
+      <c r="I288" s="0" t="n">
         <v>-35.7</v>
       </c>
-      <c r="J288" t="n">
+      <c r="J288" s="0" t="n">
         <v>-30.8</v>
       </c>
-      <c r="K288" t="n">
+      <c r="K288" s="0" t="n">
         <v>-30.3</v>
       </c>
-      <c r="L288" t="n">
+      <c r="L288" s="0" t="n">
         <v>-26</v>
       </c>
-      <c r="M288" t="n">
+      <c r="M288" s="0" t="n">
         <v>-31.1</v>
       </c>
-      <c r="N288" t="n">
+      <c r="N288" s="0" t="n">
         <v>-20.6</v>
       </c>
     </row>
@@ -13590,10 +13590,88 @@
       <c r="A289" s="1" t="n">
         <v>46048</v>
       </c>
+      <c r="B289" s="0" t="n">
+        <v>-40</v>
+      </c>
+      <c r="C289" s="0" t="n">
+        <v>-41</v>
+      </c>
+      <c r="D289" s="0" t="n">
+        <v>-39.5</v>
+      </c>
+      <c r="E289" s="0" t="n">
+        <v>-35</v>
+      </c>
+      <c r="F289" s="0" t="n">
+        <v>-36.1</v>
+      </c>
+      <c r="G289" s="0" t="n">
+        <v>-35.8</v>
+      </c>
+      <c r="H289" s="0" t="n">
+        <v>-33.3</v>
+      </c>
+      <c r="I289" s="0" t="n">
+        <v>-32.4</v>
+      </c>
+      <c r="J289" s="0" t="n">
+        <v>-38.9</v>
+      </c>
+      <c r="K289" s="0" t="n">
+        <v>-35.4</v>
+      </c>
+      <c r="L289" s="0" t="n">
+        <v>-35.1</v>
+      </c>
+      <c r="M289" s="0" t="n">
+        <v>-38.4</v>
+      </c>
+      <c r="N289" s="0" t="n">
+        <v>-24.7</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
         <v>46049</v>
+      </c>
+      <c r="B290" t="n">
+        <v>-39.5</v>
+      </c>
+      <c r="C290" t="n">
+        <v>-38.7</v>
+      </c>
+      <c r="D290" t="n">
+        <v>-36.9</v>
+      </c>
+      <c r="E290" t="n">
+        <v>-32.8</v>
+      </c>
+      <c r="F290" t="n">
+        <v>-34.7</v>
+      </c>
+      <c r="G290" t="n">
+        <v>-38.3</v>
+      </c>
+      <c r="H290" t="n">
+        <v>-38.4</v>
+      </c>
+      <c r="I290" t="n">
+        <v>-35.6</v>
+      </c>
+      <c r="J290" t="n">
+        <v>-36.8</v>
+      </c>
+      <c r="K290" t="n">
+        <v>-29.5</v>
+      </c>
+      <c r="L290" t="n">
+        <v>-35</v>
+      </c>
+      <c r="M290" t="n">
+        <v>-38.5</v>
+      </c>
+      <c r="N290" t="n">
+        <v>-25.2</v>
       </c>
     </row>
     <row r="291">
@@ -26954,43 +27032,43 @@
       <c r="A288" s="1" t="n">
         <v>46047</v>
       </c>
-      <c r="B288" t="n">
+      <c r="B288" s="0" t="n">
         <v>-27.2</v>
       </c>
-      <c r="C288" t="n">
+      <c r="C288" s="0" t="n">
         <v>-28.4</v>
       </c>
-      <c r="D288" t="n">
+      <c r="D288" s="0" t="n">
         <v>-23.2</v>
       </c>
-      <c r="E288" t="n">
+      <c r="E288" s="0" t="n">
         <v>-16.8</v>
       </c>
-      <c r="F288" t="n">
+      <c r="F288" s="0" t="n">
         <v>-14.1</v>
       </c>
-      <c r="G288" t="n">
+      <c r="G288" s="0" t="n">
         <v>-25</v>
       </c>
-      <c r="H288" t="n">
+      <c r="H288" s="0" t="n">
         <v>-20.5</v>
       </c>
-      <c r="I288" t="n">
+      <c r="I288" s="0" t="n">
         <v>-22.5</v>
       </c>
-      <c r="J288" t="n">
+      <c r="J288" s="0" t="n">
         <v>-24.6</v>
       </c>
-      <c r="K288" t="n">
+      <c r="K288" s="0" t="n">
         <v>-12.5</v>
       </c>
-      <c r="L288" t="n">
+      <c r="L288" s="0" t="n">
         <v>-13.5</v>
       </c>
-      <c r="M288" t="n">
+      <c r="M288" s="0" t="n">
         <v>-22</v>
       </c>
-      <c r="N288" t="n">
+      <c r="N288" s="0" t="n">
         <v>-13.1</v>
       </c>
     </row>
@@ -26998,10 +27076,92 @@
       <c r="A289" s="1" t="n">
         <v>46048</v>
       </c>
+      <c r="B289" s="0" t="n">
+        <v>-29.7</v>
+      </c>
+      <c r="C289" s="0" t="n">
+        <v>-27.3</v>
+      </c>
+      <c r="D289" s="0" t="n">
+        <v>-24.6</v>
+      </c>
+      <c r="E289" s="0" t="n">
+        <v>-25.9</v>
+      </c>
+      <c r="F289" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G289" s="0" t="n">
+        <v>-28</v>
+      </c>
+      <c r="H289" s="0" t="n">
+        <v>-22.8</v>
+      </c>
+      <c r="I289" s="0" t="n">
+        <v>-25.1</v>
+      </c>
+      <c r="J289" s="0" t="n">
+        <v>-24.1</v>
+      </c>
+      <c r="K289" s="0" t="n">
+        <v>-18.8</v>
+      </c>
+      <c r="L289" s="0" t="n">
+        <v>-24.2</v>
+      </c>
+      <c r="M289" s="0" t="n">
+        <v>-27.8</v>
+      </c>
+      <c r="N289" s="0" t="n">
+        <v>-15.5</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
         <v>46049</v>
+      </c>
+      <c r="B290" t="n">
+        <v>-29.7</v>
+      </c>
+      <c r="C290" t="n">
+        <v>-26.1</v>
+      </c>
+      <c r="D290" t="n">
+        <v>-27.2</v>
+      </c>
+      <c r="E290" t="n">
+        <v>-23.6</v>
+      </c>
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G290" t="n">
+        <v>-28.3</v>
+      </c>
+      <c r="H290" t="n">
+        <v>-26.1</v>
+      </c>
+      <c r="I290" t="n">
+        <v>-24.3</v>
+      </c>
+      <c r="J290" t="n">
+        <v>-26.2</v>
+      </c>
+      <c r="K290" t="n">
+        <v>-15.1</v>
+      </c>
+      <c r="L290" t="n">
+        <v>-20.1</v>
+      </c>
+      <c r="M290" t="n">
+        <v>-29.2</v>
+      </c>
+      <c r="N290" t="n">
+        <v>-16.4</v>
       </c>
     </row>
     <row r="291">
@@ -29764,55 +29924,55 @@
       <c r="A46" s="1" t="n">
         <v>46047</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46" s="0" t="n">
         <v>-29.65</v>
       </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="H46" t="n">
+      <c r="C46" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="D46" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E46" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="F46" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G46" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="H46" s="0" t="n">
         <v>-26.59</v>
       </c>
-      <c r="I46" t="n">
+      <c r="I46" s="0" t="n">
         <v>-31.44</v>
       </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="K46" t="n">
+      <c r="J46" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="K46" s="0" t="n">
         <v>-21.94</v>
       </c>
-      <c r="L46" t="n">
+      <c r="L46" s="0" t="n">
         <v>-20.82</v>
       </c>
-      <c r="M46" t="n">
+      <c r="M46" s="0" t="n">
         <v>-28.36</v>
       </c>
-      <c r="N46" t="n">
+      <c r="N46" s="0" t="n">
         <v>-15.73</v>
       </c>
     </row>
@@ -29820,10 +29980,108 @@
       <c r="A47" s="1" t="n">
         <v>46048</v>
       </c>
+      <c r="B47" s="0" t="n">
+        <v>-35.26</v>
+      </c>
+      <c r="C47" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="D47" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E47" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="F47" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G47" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="H47" s="0" t="n">
+        <v>-28.64</v>
+      </c>
+      <c r="I47" s="0" t="n">
+        <v>-30</v>
+      </c>
+      <c r="J47" s="0" t="n">
+        <v>-31.89</v>
+      </c>
+      <c r="K47" s="0" t="n">
+        <v>-28.54</v>
+      </c>
+      <c r="L47" s="0" t="n">
+        <v>-30.89</v>
+      </c>
+      <c r="M47" s="0" t="n">
+        <v>-34</v>
+      </c>
+      <c r="N47" s="0" t="n">
+        <v>-20.45</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46049</v>
+      </c>
+      <c r="B48" t="n">
+        <v>-35.35</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>-33.61</v>
+      </c>
+      <c r="I48" t="n">
+        <v>-31.36</v>
+      </c>
+      <c r="J48" t="n">
+        <v>-31.22</v>
+      </c>
+      <c r="K48" t="n">
+        <v>-24.07</v>
+      </c>
+      <c r="L48" t="n">
+        <v>-30.33</v>
+      </c>
+      <c r="M48" t="n">
+        <v>-34.7</v>
+      </c>
+      <c r="N48" t="n">
+        <v>-21.59</v>
       </c>
     </row>
     <row r="49">

--- a/气象/蒙古存档.xlsx
+++ b/气象/蒙古存档.xlsx
@@ -13820,57 +13820,96 @@
       <c r="A294" s="1" t="n">
         <v>46053</v>
       </c>
-      <c r="B294" t="n">
+      <c r="B294" s="0" t="n">
         <v>-35.9</v>
       </c>
-      <c r="C294" t="n">
+      <c r="C294" s="0" t="n">
         <v>-37.8</v>
       </c>
-      <c r="D294" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="E294" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="F294" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="G294" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="H294" t="n">
+      <c r="D294" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E294" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="F294" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G294" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="H294" s="0" t="n">
         <v>-34.4</v>
       </c>
-      <c r="I294" t="n">
+      <c r="I294" s="0" t="n">
         <v>-33.6</v>
       </c>
-      <c r="J294" t="n">
+      <c r="J294" s="0" t="n">
         <v>-33.3</v>
       </c>
-      <c r="K294" t="n">
+      <c r="K294" s="0" t="n">
         <v>-31</v>
       </c>
-      <c r="L294" t="n">
+      <c r="L294" s="0" t="n">
         <v>-30.6</v>
       </c>
-      <c r="M294" t="n">
+      <c r="M294" s="0" t="n">
         <v>-32.5</v>
       </c>
-      <c r="N294" t="n">
+      <c r="N294" s="0" t="n">
         <v>-22.8</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
         <v>46054</v>
+      </c>
+      <c r="B295" t="n">
+        <v>-36.6</v>
+      </c>
+      <c r="C295" t="n">
+        <v>-38.8</v>
+      </c>
+      <c r="D295" t="n">
+        <v>-35.3</v>
+      </c>
+      <c r="E295" t="n">
+        <v>-32.4</v>
+      </c>
+      <c r="F295" t="n">
+        <v>-35.2</v>
+      </c>
+      <c r="G295" t="n">
+        <v>-32.4</v>
+      </c>
+      <c r="H295" t="n">
+        <v>-30.5</v>
+      </c>
+      <c r="I295" t="n">
+        <v>-34.6</v>
+      </c>
+      <c r="J295" t="n">
+        <v>-35.3</v>
+      </c>
+      <c r="K295" t="n">
+        <v>-31.8</v>
+      </c>
+      <c r="L295" t="n">
+        <v>-32.2</v>
+      </c>
+      <c r="M295" t="n">
+        <v>-33</v>
+      </c>
+      <c r="N295" t="n">
+        <v>-22.7</v>
       </c>
     </row>
     <row r="296">
@@ -27486,51 +27525,92 @@
       <c r="A294" s="1" t="n">
         <v>46053</v>
       </c>
-      <c r="B294" t="n">
+      <c r="B294" s="0" t="n">
         <v>-23.7</v>
       </c>
-      <c r="C294" t="n">
+      <c r="C294" s="0" t="n">
         <v>-23.1</v>
       </c>
-      <c r="D294" t="n">
+      <c r="D294" s="0" t="n">
         <v>-24.2</v>
       </c>
-      <c r="E294" t="n">
+      <c r="E294" s="0" t="n">
         <v>-20.9</v>
       </c>
-      <c r="F294" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="G294" t="n">
+      <c r="F294" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G294" s="0" t="n">
         <v>-23.7</v>
       </c>
-      <c r="H294" t="n">
+      <c r="H294" s="0" t="n">
         <v>-22.8</v>
       </c>
-      <c r="I294" t="n">
+      <c r="I294" s="0" t="n">
         <v>-18.6</v>
       </c>
-      <c r="J294" t="n">
+      <c r="J294" s="0" t="n">
         <v>-22</v>
       </c>
-      <c r="K294" t="n">
+      <c r="K294" s="0" t="n">
         <v>-14.4</v>
       </c>
-      <c r="L294" t="n">
+      <c r="L294" s="0" t="n">
         <v>-18</v>
       </c>
-      <c r="M294" t="n">
+      <c r="M294" s="0" t="n">
         <v>-24.5</v>
       </c>
-      <c r="N294" t="n">
+      <c r="N294" s="0" t="n">
         <v>-12.6</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
         <v>46054</v>
+      </c>
+      <c r="B295" t="n">
+        <v>-27.5</v>
+      </c>
+      <c r="C295" t="n">
+        <v>-24.8</v>
+      </c>
+      <c r="D295" t="n">
+        <v>-24</v>
+      </c>
+      <c r="E295" t="n">
+        <v>-22.6</v>
+      </c>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G295" t="n">
+        <v>-23.8</v>
+      </c>
+      <c r="H295" t="n">
+        <v>-19.3</v>
+      </c>
+      <c r="I295" t="n">
+        <v>-23</v>
+      </c>
+      <c r="J295" t="n">
+        <v>-22</v>
+      </c>
+      <c r="K295" t="n">
+        <v>-12.6</v>
+      </c>
+      <c r="L295" t="n">
+        <v>-20.2</v>
+      </c>
+      <c r="M295" t="n">
+        <v>-21.8</v>
+      </c>
+      <c r="N295" t="n">
+        <v>-8.800000000000001</v>
       </c>
     </row>
     <row r="296">
@@ -30594,65 +30674,114 @@
       <c r="A52" s="1" t="n">
         <v>46053</v>
       </c>
-      <c r="B52" t="n">
+      <c r="B52" s="0" t="n">
         <v>-30.54</v>
       </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="K52" t="n">
+      <c r="C52" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="D52" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E52" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="F52" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G52" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="H52" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="I52" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="J52" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="K52" s="0" t="n">
         <v>-24.74</v>
       </c>
-      <c r="L52" t="n">
+      <c r="L52" s="0" t="n">
         <v>-25.96</v>
       </c>
-      <c r="M52" t="n">
+      <c r="M52" s="0" t="n">
         <v>-29.49</v>
       </c>
-      <c r="N52" t="n">
+      <c r="N52" s="0" t="n">
         <v>-18.59</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>46054</v>
+      </c>
+      <c r="B53" t="n">
+        <v>-33.08</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>-25.85</v>
+      </c>
+      <c r="I53" t="n">
+        <v>-29.59</v>
+      </c>
+      <c r="J53" t="n">
+        <v>-29.73</v>
+      </c>
+      <c r="K53" t="n">
+        <v>-25.33</v>
+      </c>
+      <c r="L53" t="n">
+        <v>-27.43</v>
+      </c>
+      <c r="M53" t="n">
+        <v>-28.49</v>
+      </c>
+      <c r="N53" t="n">
+        <v>-17.2</v>
       </c>
     </row>
     <row r="54">

--- a/气象/蒙古存档.xlsx
+++ b/气象/蒙古存档.xlsx
@@ -13872,49 +13872,88 @@
       <c r="A295" s="1" t="n">
         <v>46054</v>
       </c>
-      <c r="B295" t="n">
+      <c r="B295" s="0" t="n">
         <v>-36.6</v>
       </c>
-      <c r="C295" t="n">
+      <c r="C295" s="0" t="n">
         <v>-38.8</v>
       </c>
-      <c r="D295" t="n">
+      <c r="D295" s="0" t="n">
         <v>-35.3</v>
       </c>
-      <c r="E295" t="n">
+      <c r="E295" s="0" t="n">
         <v>-32.4</v>
       </c>
-      <c r="F295" t="n">
+      <c r="F295" s="0" t="n">
         <v>-35.2</v>
       </c>
-      <c r="G295" t="n">
+      <c r="G295" s="0" t="n">
         <v>-32.4</v>
       </c>
-      <c r="H295" t="n">
+      <c r="H295" s="0" t="n">
         <v>-30.5</v>
       </c>
-      <c r="I295" t="n">
+      <c r="I295" s="0" t="n">
         <v>-34.6</v>
       </c>
-      <c r="J295" t="n">
+      <c r="J295" s="0" t="n">
         <v>-35.3</v>
       </c>
-      <c r="K295" t="n">
+      <c r="K295" s="0" t="n">
         <v>-31.8</v>
       </c>
-      <c r="L295" t="n">
+      <c r="L295" s="0" t="n">
         <v>-32.2</v>
       </c>
-      <c r="M295" t="n">
+      <c r="M295" s="0" t="n">
         <v>-33</v>
       </c>
-      <c r="N295" t="n">
+      <c r="N295" s="0" t="n">
         <v>-22.7</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
         <v>46055</v>
+      </c>
+      <c r="B296" t="n">
+        <v>-37.3</v>
+      </c>
+      <c r="C296" t="n">
+        <v>-38.4</v>
+      </c>
+      <c r="D296" t="n">
+        <v>-37.6</v>
+      </c>
+      <c r="E296" t="n">
+        <v>-33.9</v>
+      </c>
+      <c r="F296" t="n">
+        <v>-36.2</v>
+      </c>
+      <c r="G296" t="n">
+        <v>-33.5</v>
+      </c>
+      <c r="H296" t="n">
+        <v>-31.7</v>
+      </c>
+      <c r="I296" t="n">
+        <v>-34.6</v>
+      </c>
+      <c r="J296" t="n">
+        <v>-34.6</v>
+      </c>
+      <c r="K296" t="n">
+        <v>-32.2</v>
+      </c>
+      <c r="L296" t="n">
+        <v>-34.6</v>
+      </c>
+      <c r="M296" t="n">
+        <v>-33.7</v>
+      </c>
+      <c r="N296" t="n">
+        <v>-20.2</v>
       </c>
     </row>
     <row r="297">
@@ -27571,51 +27610,90 @@
       <c r="A295" s="1" t="n">
         <v>46054</v>
       </c>
-      <c r="B295" t="n">
+      <c r="B295" s="0" t="n">
         <v>-27.5</v>
       </c>
-      <c r="C295" t="n">
+      <c r="C295" s="0" t="n">
         <v>-24.8</v>
       </c>
-      <c r="D295" t="n">
+      <c r="D295" s="0" t="n">
         <v>-24</v>
       </c>
-      <c r="E295" t="n">
+      <c r="E295" s="0" t="n">
         <v>-22.6</v>
       </c>
-      <c r="F295" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="G295" t="n">
+      <c r="F295" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G295" s="0" t="n">
         <v>-23.8</v>
       </c>
-      <c r="H295" t="n">
+      <c r="H295" s="0" t="n">
         <v>-19.3</v>
       </c>
-      <c r="I295" t="n">
+      <c r="I295" s="0" t="n">
         <v>-23</v>
       </c>
-      <c r="J295" t="n">
+      <c r="J295" s="0" t="n">
         <v>-22</v>
       </c>
-      <c r="K295" t="n">
+      <c r="K295" s="0" t="n">
         <v>-12.6</v>
       </c>
-      <c r="L295" t="n">
+      <c r="L295" s="0" t="n">
         <v>-20.2</v>
       </c>
-      <c r="M295" t="n">
+      <c r="M295" s="0" t="n">
         <v>-21.8</v>
       </c>
-      <c r="N295" t="n">
+      <c r="N295" s="0" t="n">
         <v>-8.800000000000001</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
         <v>46055</v>
+      </c>
+      <c r="B296" t="n">
+        <v>-27.8</v>
+      </c>
+      <c r="C296" t="n">
+        <v>-21.1</v>
+      </c>
+      <c r="D296" t="n">
+        <v>-25</v>
+      </c>
+      <c r="E296" t="n">
+        <v>-22.7</v>
+      </c>
+      <c r="F296" t="n">
+        <v>-22.1</v>
+      </c>
+      <c r="G296" t="n">
+        <v>-24.1</v>
+      </c>
+      <c r="H296" t="n">
+        <v>-16.9</v>
+      </c>
+      <c r="I296" t="n">
+        <v>-23.6</v>
+      </c>
+      <c r="J296" t="n">
+        <v>-23.3</v>
+      </c>
+      <c r="K296" t="n">
+        <v>-12.5</v>
+      </c>
+      <c r="L296" t="n">
+        <v>-21.2</v>
+      </c>
+      <c r="M296" t="n">
+        <v>-24.7</v>
+      </c>
+      <c r="N296" t="n">
+        <v>-4.8</v>
       </c>
     </row>
     <row r="297">
@@ -30734,59 +30812,108 @@
       <c r="A53" s="1" t="n">
         <v>46054</v>
       </c>
-      <c r="B53" t="n">
+      <c r="B53" s="0" t="n">
         <v>-33.08</v>
       </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="H53" t="n">
+      <c r="C53" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="D53" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E53" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="F53" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G53" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="H53" s="0" t="n">
         <v>-25.85</v>
       </c>
-      <c r="I53" t="n">
+      <c r="I53" s="0" t="n">
         <v>-29.59</v>
       </c>
-      <c r="J53" t="n">
+      <c r="J53" s="0" t="n">
         <v>-29.73</v>
       </c>
-      <c r="K53" t="n">
+      <c r="K53" s="0" t="n">
         <v>-25.33</v>
       </c>
-      <c r="L53" t="n">
+      <c r="L53" s="0" t="n">
         <v>-27.43</v>
       </c>
-      <c r="M53" t="n">
+      <c r="M53" s="0" t="n">
         <v>-28.49</v>
       </c>
-      <c r="N53" t="n">
+      <c r="N53" s="0" t="n">
         <v>-17.2</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>46055</v>
+      </c>
+      <c r="B54" t="n">
+        <v>-33.35</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>-26.5</v>
+      </c>
+      <c r="I54" t="n">
+        <v>-29.81</v>
+      </c>
+      <c r="J54" t="n">
+        <v>-30.34</v>
+      </c>
+      <c r="K54" t="n">
+        <v>-24.9</v>
+      </c>
+      <c r="L54" t="n">
+        <v>-29.25</v>
+      </c>
+      <c r="M54" t="n">
+        <v>-29.56</v>
+      </c>
+      <c r="N54" t="n">
+        <v>-14.4</v>
       </c>
     </row>
     <row r="55">

--- a/气象/蒙古存档.xlsx
+++ b/气象/蒙古存档.xlsx
@@ -13916,49 +13916,88 @@
       <c r="A296" s="1" t="n">
         <v>46055</v>
       </c>
-      <c r="B296" t="n">
+      <c r="B296" s="0" t="n">
         <v>-37.3</v>
       </c>
-      <c r="C296" t="n">
+      <c r="C296" s="0" t="n">
         <v>-38.4</v>
       </c>
-      <c r="D296" t="n">
+      <c r="D296" s="0" t="n">
         <v>-37.6</v>
       </c>
-      <c r="E296" t="n">
+      <c r="E296" s="0" t="n">
         <v>-33.9</v>
       </c>
-      <c r="F296" t="n">
+      <c r="F296" s="0" t="n">
         <v>-36.2</v>
       </c>
-      <c r="G296" t="n">
+      <c r="G296" s="0" t="n">
         <v>-33.5</v>
       </c>
-      <c r="H296" t="n">
+      <c r="H296" s="0" t="n">
         <v>-31.7</v>
       </c>
-      <c r="I296" t="n">
+      <c r="I296" s="0" t="n">
         <v>-34.6</v>
       </c>
-      <c r="J296" t="n">
+      <c r="J296" s="0" t="n">
         <v>-34.6</v>
       </c>
-      <c r="K296" t="n">
+      <c r="K296" s="0" t="n">
         <v>-32.2</v>
       </c>
-      <c r="L296" t="n">
+      <c r="L296" s="0" t="n">
         <v>-34.6</v>
       </c>
-      <c r="M296" t="n">
+      <c r="M296" s="0" t="n">
         <v>-33.7</v>
       </c>
-      <c r="N296" t="n">
+      <c r="N296" s="0" t="n">
         <v>-20.2</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
         <v>46056</v>
+      </c>
+      <c r="B297" t="n">
+        <v>-37.4</v>
+      </c>
+      <c r="C297" t="n">
+        <v>-36.4</v>
+      </c>
+      <c r="D297" t="n">
+        <v>-38</v>
+      </c>
+      <c r="E297" t="n">
+        <v>-33.7</v>
+      </c>
+      <c r="F297" t="n">
+        <v>-36.5</v>
+      </c>
+      <c r="G297" t="n">
+        <v>-33.8</v>
+      </c>
+      <c r="H297" t="n">
+        <v>-27.7</v>
+      </c>
+      <c r="I297" t="n">
+        <v>-34.9</v>
+      </c>
+      <c r="J297" t="n">
+        <v>-36.6</v>
+      </c>
+      <c r="K297" t="n">
+        <v>-32</v>
+      </c>
+      <c r="L297" t="n">
+        <v>-33.9</v>
+      </c>
+      <c r="M297" t="n">
+        <v>-33.3</v>
+      </c>
+      <c r="N297" t="n">
+        <v>-19.8</v>
       </c>
     </row>
     <row r="298">
@@ -27656,49 +27695,88 @@
       <c r="A296" s="1" t="n">
         <v>46055</v>
       </c>
-      <c r="B296" t="n">
+      <c r="B296" s="0" t="n">
         <v>-27.8</v>
       </c>
-      <c r="C296" t="n">
+      <c r="C296" s="0" t="n">
         <v>-21.1</v>
       </c>
-      <c r="D296" t="n">
+      <c r="D296" s="0" t="n">
         <v>-25</v>
       </c>
-      <c r="E296" t="n">
+      <c r="E296" s="0" t="n">
         <v>-22.7</v>
       </c>
-      <c r="F296" t="n">
+      <c r="F296" s="0" t="n">
         <v>-22.1</v>
       </c>
-      <c r="G296" t="n">
+      <c r="G296" s="0" t="n">
         <v>-24.1</v>
       </c>
-      <c r="H296" t="n">
+      <c r="H296" s="0" t="n">
         <v>-16.9</v>
       </c>
-      <c r="I296" t="n">
+      <c r="I296" s="0" t="n">
         <v>-23.6</v>
       </c>
-      <c r="J296" t="n">
+      <c r="J296" s="0" t="n">
         <v>-23.3</v>
       </c>
-      <c r="K296" t="n">
+      <c r="K296" s="0" t="n">
         <v>-12.5</v>
       </c>
-      <c r="L296" t="n">
+      <c r="L296" s="0" t="n">
         <v>-21.2</v>
       </c>
-      <c r="M296" t="n">
+      <c r="M296" s="0" t="n">
         <v>-24.7</v>
       </c>
-      <c r="N296" t="n">
+      <c r="N296" s="0" t="n">
         <v>-4.8</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
         <v>46056</v>
+      </c>
+      <c r="B297" t="n">
+        <v>-28</v>
+      </c>
+      <c r="C297" t="n">
+        <v>-24.3</v>
+      </c>
+      <c r="D297" t="n">
+        <v>-24.6</v>
+      </c>
+      <c r="E297" t="n">
+        <v>-22.7</v>
+      </c>
+      <c r="F297" t="n">
+        <v>-21.8</v>
+      </c>
+      <c r="G297" t="n">
+        <v>-21.1</v>
+      </c>
+      <c r="H297" t="n">
+        <v>-16</v>
+      </c>
+      <c r="I297" t="n">
+        <v>-23.9</v>
+      </c>
+      <c r="J297" t="n">
+        <v>-24.3</v>
+      </c>
+      <c r="K297" t="n">
+        <v>-12.3</v>
+      </c>
+      <c r="L297" t="n">
+        <v>-20.7</v>
+      </c>
+      <c r="M297" t="n">
+        <v>-21.5</v>
+      </c>
+      <c r="N297" t="n">
+        <v>-8.199999999999999</v>
       </c>
     </row>
     <row r="298">
@@ -30866,59 +30944,108 @@
       <c r="A54" s="1" t="n">
         <v>46055</v>
       </c>
-      <c r="B54" t="n">
+      <c r="B54" s="0" t="n">
         <v>-33.35</v>
       </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="H54" t="n">
+      <c r="C54" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="D54" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E54" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="F54" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G54" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="H54" s="0" t="n">
         <v>-26.5</v>
       </c>
-      <c r="I54" t="n">
+      <c r="I54" s="0" t="n">
         <v>-29.81</v>
       </c>
-      <c r="J54" t="n">
+      <c r="J54" s="0" t="n">
         <v>-30.34</v>
       </c>
-      <c r="K54" t="n">
+      <c r="K54" s="0" t="n">
         <v>-24.9</v>
       </c>
-      <c r="L54" t="n">
+      <c r="L54" s="0" t="n">
         <v>-29.25</v>
       </c>
-      <c r="M54" t="n">
+      <c r="M54" s="0" t="n">
         <v>-29.56</v>
       </c>
-      <c r="N54" t="n">
+      <c r="N54" s="0" t="n">
         <v>-14.4</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>46056</v>
+      </c>
+      <c r="B55" t="n">
+        <v>-33.71</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>-22.34</v>
+      </c>
+      <c r="I55" t="n">
+        <v>-29.54</v>
+      </c>
+      <c r="J55" t="n">
+        <v>-31.46</v>
+      </c>
+      <c r="K55" t="n">
+        <v>-24.86</v>
+      </c>
+      <c r="L55" t="n">
+        <v>-28.82</v>
+      </c>
+      <c r="M55" t="n">
+        <v>-28.06</v>
+      </c>
+      <c r="N55" t="n">
+        <v>-14.49</v>
       </c>
     </row>
     <row r="56">

--- a/气象/蒙古存档.xlsx
+++ b/气象/蒙古存档.xlsx
@@ -13960,49 +13960,88 @@
       <c r="A297" s="1" t="n">
         <v>46056</v>
       </c>
-      <c r="B297" t="n">
+      <c r="B297" s="0" t="n">
         <v>-37.4</v>
       </c>
-      <c r="C297" t="n">
+      <c r="C297" s="0" t="n">
         <v>-36.4</v>
       </c>
-      <c r="D297" t="n">
+      <c r="D297" s="0" t="n">
         <v>-38</v>
       </c>
-      <c r="E297" t="n">
+      <c r="E297" s="0" t="n">
         <v>-33.7</v>
       </c>
-      <c r="F297" t="n">
+      <c r="F297" s="0" t="n">
         <v>-36.5</v>
       </c>
-      <c r="G297" t="n">
+      <c r="G297" s="0" t="n">
         <v>-33.8</v>
       </c>
-      <c r="H297" t="n">
+      <c r="H297" s="0" t="n">
         <v>-27.7</v>
       </c>
-      <c r="I297" t="n">
+      <c r="I297" s="0" t="n">
         <v>-34.9</v>
       </c>
-      <c r="J297" t="n">
+      <c r="J297" s="0" t="n">
         <v>-36.6</v>
       </c>
-      <c r="K297" t="n">
+      <c r="K297" s="0" t="n">
         <v>-32</v>
       </c>
-      <c r="L297" t="n">
+      <c r="L297" s="0" t="n">
         <v>-33.9</v>
       </c>
-      <c r="M297" t="n">
+      <c r="M297" s="0" t="n">
         <v>-33.3</v>
       </c>
-      <c r="N297" t="n">
+      <c r="N297" s="0" t="n">
         <v>-19.8</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
         <v>46057</v>
+      </c>
+      <c r="B298" t="n">
+        <v>-37.1</v>
+      </c>
+      <c r="C298" t="n">
+        <v>-37.2</v>
+      </c>
+      <c r="D298" t="n">
+        <v>-39.1</v>
+      </c>
+      <c r="E298" t="n">
+        <v>-33.3</v>
+      </c>
+      <c r="F298" t="n">
+        <v>-36</v>
+      </c>
+      <c r="G298" t="n">
+        <v>-29.5</v>
+      </c>
+      <c r="H298" t="n">
+        <v>-23.8</v>
+      </c>
+      <c r="I298" t="n">
+        <v>-33.1</v>
+      </c>
+      <c r="J298" t="n">
+        <v>-35.7</v>
+      </c>
+      <c r="K298" t="n">
+        <v>-32.7</v>
+      </c>
+      <c r="L298" t="n">
+        <v>-34.1</v>
+      </c>
+      <c r="M298" t="n">
+        <v>-31.2</v>
+      </c>
+      <c r="N298" t="n">
+        <v>-22.3</v>
       </c>
     </row>
     <row r="299">
@@ -27739,49 +27778,88 @@
       <c r="A297" s="1" t="n">
         <v>46056</v>
       </c>
-      <c r="B297" t="n">
+      <c r="B297" s="0" t="n">
         <v>-28</v>
       </c>
-      <c r="C297" t="n">
+      <c r="C297" s="0" t="n">
         <v>-24.3</v>
       </c>
-      <c r="D297" t="n">
+      <c r="D297" s="0" t="n">
         <v>-24.6</v>
       </c>
-      <c r="E297" t="n">
+      <c r="E297" s="0" t="n">
         <v>-22.7</v>
       </c>
-      <c r="F297" t="n">
+      <c r="F297" s="0" t="n">
         <v>-21.8</v>
       </c>
-      <c r="G297" t="n">
+      <c r="G297" s="0" t="n">
         <v>-21.1</v>
       </c>
-      <c r="H297" t="n">
+      <c r="H297" s="0" t="n">
         <v>-16</v>
       </c>
-      <c r="I297" t="n">
+      <c r="I297" s="0" t="n">
         <v>-23.9</v>
       </c>
-      <c r="J297" t="n">
+      <c r="J297" s="0" t="n">
         <v>-24.3</v>
       </c>
-      <c r="K297" t="n">
+      <c r="K297" s="0" t="n">
         <v>-12.3</v>
       </c>
-      <c r="L297" t="n">
+      <c r="L297" s="0" t="n">
         <v>-20.7</v>
       </c>
-      <c r="M297" t="n">
+      <c r="M297" s="0" t="n">
         <v>-21.5</v>
       </c>
-      <c r="N297" t="n">
+      <c r="N297" s="0" t="n">
         <v>-8.199999999999999</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
         <v>46057</v>
+      </c>
+      <c r="B298" t="n">
+        <v>-27.1</v>
+      </c>
+      <c r="C298" t="n">
+        <v>-24.8</v>
+      </c>
+      <c r="D298" t="n">
+        <v>-26.1</v>
+      </c>
+      <c r="E298" t="n">
+        <v>-18.6</v>
+      </c>
+      <c r="F298" t="n">
+        <v>-20.2</v>
+      </c>
+      <c r="G298" t="n">
+        <v>-20.8</v>
+      </c>
+      <c r="H298" t="n">
+        <v>-15.7</v>
+      </c>
+      <c r="I298" t="n">
+        <v>-21.3</v>
+      </c>
+      <c r="J298" t="n">
+        <v>-25</v>
+      </c>
+      <c r="K298" t="n">
+        <v>-14.5</v>
+      </c>
+      <c r="L298" t="n">
+        <v>-19.6</v>
+      </c>
+      <c r="M298" t="n">
+        <v>-18.2</v>
+      </c>
+      <c r="N298" t="n">
+        <v>-12.8</v>
       </c>
     </row>
     <row r="299">
@@ -30998,59 +31076,108 @@
       <c r="A55" s="1" t="n">
         <v>46056</v>
       </c>
-      <c r="B55" t="n">
+      <c r="B55" s="0" t="n">
         <v>-33.71</v>
       </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="H55" t="n">
+      <c r="C55" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="D55" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E55" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="F55" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G55" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="H55" s="0" t="n">
         <v>-22.34</v>
       </c>
-      <c r="I55" t="n">
+      <c r="I55" s="0" t="n">
         <v>-29.54</v>
       </c>
-      <c r="J55" t="n">
+      <c r="J55" s="0" t="n">
         <v>-31.46</v>
       </c>
-      <c r="K55" t="n">
+      <c r="K55" s="0" t="n">
         <v>-24.86</v>
       </c>
-      <c r="L55" t="n">
+      <c r="L55" s="0" t="n">
         <v>-28.82</v>
       </c>
-      <c r="M55" t="n">
+      <c r="M55" s="0" t="n">
         <v>-28.06</v>
       </c>
-      <c r="N55" t="n">
+      <c r="N55" s="0" t="n">
         <v>-14.49</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>46057</v>
+      </c>
+      <c r="B56" t="n">
+        <v>-32.76</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>-19.19</v>
+      </c>
+      <c r="I56" t="n">
+        <v>-27.76</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-32.33</v>
+      </c>
+      <c r="K56" t="n">
+        <v>-23.95</v>
+      </c>
+      <c r="L56" t="n">
+        <v>-28.44</v>
+      </c>
+      <c r="M56" t="n">
+        <v>-26.65</v>
+      </c>
+      <c r="N56" t="n">
+        <v>-18.51</v>
       </c>
     </row>
     <row r="57">

--- a/气象/蒙古存档.xlsx
+++ b/气象/蒙古存档.xlsx
@@ -14004,49 +14004,88 @@
       <c r="A298" s="1" t="n">
         <v>46057</v>
       </c>
-      <c r="B298" t="n">
+      <c r="B298" s="0" t="n">
         <v>-37.1</v>
       </c>
-      <c r="C298" t="n">
+      <c r="C298" s="0" t="n">
         <v>-37.2</v>
       </c>
-      <c r="D298" t="n">
+      <c r="D298" s="0" t="n">
         <v>-39.1</v>
       </c>
-      <c r="E298" t="n">
+      <c r="E298" s="0" t="n">
         <v>-33.3</v>
       </c>
-      <c r="F298" t="n">
+      <c r="F298" s="0" t="n">
         <v>-36</v>
       </c>
-      <c r="G298" t="n">
+      <c r="G298" s="0" t="n">
         <v>-29.5</v>
       </c>
-      <c r="H298" t="n">
+      <c r="H298" s="0" t="n">
         <v>-23.8</v>
       </c>
-      <c r="I298" t="n">
+      <c r="I298" s="0" t="n">
         <v>-33.1</v>
       </c>
-      <c r="J298" t="n">
+      <c r="J298" s="0" t="n">
         <v>-35.7</v>
       </c>
-      <c r="K298" t="n">
+      <c r="K298" s="0" t="n">
         <v>-32.7</v>
       </c>
-      <c r="L298" t="n">
+      <c r="L298" s="0" t="n">
         <v>-34.1</v>
       </c>
-      <c r="M298" t="n">
+      <c r="M298" s="0" t="n">
         <v>-31.2</v>
       </c>
-      <c r="N298" t="n">
+      <c r="N298" s="0" t="n">
         <v>-22.3</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
         <v>46058</v>
+      </c>
+      <c r="B299" t="n">
+        <v>-42.6</v>
+      </c>
+      <c r="C299" t="n">
+        <v>-45.8</v>
+      </c>
+      <c r="D299" t="n">
+        <v>-43</v>
+      </c>
+      <c r="E299" t="n">
+        <v>-35</v>
+      </c>
+      <c r="F299" t="n">
+        <v>-31</v>
+      </c>
+      <c r="G299" t="n">
+        <v>-38.1</v>
+      </c>
+      <c r="H299" t="n">
+        <v>-38.5</v>
+      </c>
+      <c r="I299" t="n">
+        <v>-37.5</v>
+      </c>
+      <c r="J299" t="n">
+        <v>-44.2</v>
+      </c>
+      <c r="K299" t="n">
+        <v>-30.9</v>
+      </c>
+      <c r="L299" t="n">
+        <v>-39.4</v>
+      </c>
+      <c r="M299" t="n">
+        <v>-39.5</v>
+      </c>
+      <c r="N299" t="n">
+        <v>-27</v>
       </c>
     </row>
     <row r="300">
@@ -27822,49 +27861,88 @@
       <c r="A298" s="1" t="n">
         <v>46057</v>
       </c>
-      <c r="B298" t="n">
+      <c r="B298" s="0" t="n">
         <v>-27.1</v>
       </c>
-      <c r="C298" t="n">
+      <c r="C298" s="0" t="n">
         <v>-24.8</v>
       </c>
-      <c r="D298" t="n">
+      <c r="D298" s="0" t="n">
         <v>-26.1</v>
       </c>
-      <c r="E298" t="n">
+      <c r="E298" s="0" t="n">
         <v>-18.6</v>
       </c>
-      <c r="F298" t="n">
+      <c r="F298" s="0" t="n">
         <v>-20.2</v>
       </c>
-      <c r="G298" t="n">
+      <c r="G298" s="0" t="n">
         <v>-20.8</v>
       </c>
-      <c r="H298" t="n">
+      <c r="H298" s="0" t="n">
         <v>-15.7</v>
       </c>
-      <c r="I298" t="n">
+      <c r="I298" s="0" t="n">
         <v>-21.3</v>
       </c>
-      <c r="J298" t="n">
+      <c r="J298" s="0" t="n">
         <v>-25</v>
       </c>
-      <c r="K298" t="n">
+      <c r="K298" s="0" t="n">
         <v>-14.5</v>
       </c>
-      <c r="L298" t="n">
+      <c r="L298" s="0" t="n">
         <v>-19.6</v>
       </c>
-      <c r="M298" t="n">
+      <c r="M298" s="0" t="n">
         <v>-18.2</v>
       </c>
-      <c r="N298" t="n">
+      <c r="N298" s="0" t="n">
         <v>-12.8</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
         <v>46058</v>
+      </c>
+      <c r="B299" t="n">
+        <v>-28.5</v>
+      </c>
+      <c r="C299" t="n">
+        <v>-28.1</v>
+      </c>
+      <c r="D299" t="n">
+        <v>-29.2</v>
+      </c>
+      <c r="E299" t="n">
+        <v>-24.2</v>
+      </c>
+      <c r="F299" t="n">
+        <v>-15.6</v>
+      </c>
+      <c r="G299" t="n">
+        <v>-27.8</v>
+      </c>
+      <c r="H299" t="n">
+        <v>-23.7</v>
+      </c>
+      <c r="I299" t="n">
+        <v>-21.4</v>
+      </c>
+      <c r="J299" t="n">
+        <v>-26.6</v>
+      </c>
+      <c r="K299" t="n">
+        <v>-18.1</v>
+      </c>
+      <c r="L299" t="n">
+        <v>-24.1</v>
+      </c>
+      <c r="M299" t="n">
+        <v>-27.4</v>
+      </c>
+      <c r="N299" t="n">
+        <v>-18.6</v>
       </c>
     </row>
     <row r="300">
@@ -31130,59 +31208,108 @@
       <c r="A56" s="1" t="n">
         <v>46057</v>
       </c>
-      <c r="B56" t="n">
+      <c r="B56" s="0" t="n">
         <v>-32.76</v>
       </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="H56" t="n">
+      <c r="C56" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="D56" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E56" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="F56" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G56" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="H56" s="0" t="n">
         <v>-19.19</v>
       </c>
-      <c r="I56" t="n">
+      <c r="I56" s="0" t="n">
         <v>-27.76</v>
       </c>
-      <c r="J56" t="n">
+      <c r="J56" s="0" t="n">
         <v>-32.33</v>
       </c>
-      <c r="K56" t="n">
+      <c r="K56" s="0" t="n">
         <v>-23.95</v>
       </c>
-      <c r="L56" t="n">
+      <c r="L56" s="0" t="n">
         <v>-28.44</v>
       </c>
-      <c r="M56" t="n">
+      <c r="M56" s="0" t="n">
         <v>-26.65</v>
       </c>
-      <c r="N56" t="n">
+      <c r="N56" s="0" t="n">
         <v>-18.51</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>46058</v>
+      </c>
+      <c r="B57" t="n">
+        <v>-37.36</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>-32.42</v>
+      </c>
+      <c r="I57" t="n">
+        <v>-32.27</v>
+      </c>
+      <c r="J57" t="n">
+        <v>-36.52</v>
+      </c>
+      <c r="K57" t="n">
+        <v>-25.86</v>
+      </c>
+      <c r="L57" t="n">
+        <v>-31.55</v>
+      </c>
+      <c r="M57" t="n">
+        <v>-34.46</v>
+      </c>
+      <c r="N57" t="n">
+        <v>-23.12</v>
       </c>
     </row>
     <row r="58">

--- a/气象/蒙古存档.xlsx
+++ b/气象/蒙古存档.xlsx
@@ -14048,49 +14048,88 @@
       <c r="A299" s="1" t="n">
         <v>46058</v>
       </c>
-      <c r="B299" t="n">
+      <c r="B299" s="0" t="n">
         <v>-42.6</v>
       </c>
-      <c r="C299" t="n">
+      <c r="C299" s="0" t="n">
         <v>-45.8</v>
       </c>
-      <c r="D299" t="n">
+      <c r="D299" s="0" t="n">
         <v>-43</v>
       </c>
-      <c r="E299" t="n">
+      <c r="E299" s="0" t="n">
         <v>-35</v>
       </c>
-      <c r="F299" t="n">
+      <c r="F299" s="0" t="n">
         <v>-31</v>
       </c>
-      <c r="G299" t="n">
+      <c r="G299" s="0" t="n">
         <v>-38.1</v>
       </c>
-      <c r="H299" t="n">
+      <c r="H299" s="0" t="n">
         <v>-38.5</v>
       </c>
-      <c r="I299" t="n">
+      <c r="I299" s="0" t="n">
         <v>-37.5</v>
       </c>
-      <c r="J299" t="n">
+      <c r="J299" s="0" t="n">
         <v>-44.2</v>
       </c>
-      <c r="K299" t="n">
+      <c r="K299" s="0" t="n">
         <v>-30.9</v>
       </c>
-      <c r="L299" t="n">
+      <c r="L299" s="0" t="n">
         <v>-39.4</v>
       </c>
-      <c r="M299" t="n">
+      <c r="M299" s="0" t="n">
         <v>-39.5</v>
       </c>
-      <c r="N299" t="n">
+      <c r="N299" s="0" t="n">
         <v>-27</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
         <v>46059</v>
+      </c>
+      <c r="B300" t="n">
+        <v>-42.4</v>
+      </c>
+      <c r="C300" t="n">
+        <v>-44.8</v>
+      </c>
+      <c r="D300" t="n">
+        <v>-44</v>
+      </c>
+      <c r="E300" t="n">
+        <v>-39.4</v>
+      </c>
+      <c r="F300" t="n">
+        <v>-40.3</v>
+      </c>
+      <c r="G300" t="n">
+        <v>-38.7</v>
+      </c>
+      <c r="H300" t="n">
+        <v>-39</v>
+      </c>
+      <c r="I300" t="n">
+        <v>-37.9</v>
+      </c>
+      <c r="J300" t="n">
+        <v>-42.9</v>
+      </c>
+      <c r="K300" t="n">
+        <v>-40</v>
+      </c>
+      <c r="L300" t="n">
+        <v>-40.1</v>
+      </c>
+      <c r="M300" t="n">
+        <v>-39.3</v>
+      </c>
+      <c r="N300" t="n">
+        <v>-27.4</v>
       </c>
     </row>
     <row r="301">
@@ -27905,49 +27944,88 @@
       <c r="A299" s="1" t="n">
         <v>46058</v>
       </c>
-      <c r="B299" t="n">
+      <c r="B299" s="0" t="n">
         <v>-28.5</v>
       </c>
-      <c r="C299" t="n">
+      <c r="C299" s="0" t="n">
         <v>-28.1</v>
       </c>
-      <c r="D299" t="n">
+      <c r="D299" s="0" t="n">
         <v>-29.2</v>
       </c>
-      <c r="E299" t="n">
+      <c r="E299" s="0" t="n">
         <v>-24.2</v>
       </c>
-      <c r="F299" t="n">
+      <c r="F299" s="0" t="n">
         <v>-15.6</v>
       </c>
-      <c r="G299" t="n">
+      <c r="G299" s="0" t="n">
         <v>-27.8</v>
       </c>
-      <c r="H299" t="n">
+      <c r="H299" s="0" t="n">
         <v>-23.7</v>
       </c>
-      <c r="I299" t="n">
+      <c r="I299" s="0" t="n">
         <v>-21.4</v>
       </c>
-      <c r="J299" t="n">
+      <c r="J299" s="0" t="n">
         <v>-26.6</v>
       </c>
-      <c r="K299" t="n">
+      <c r="K299" s="0" t="n">
         <v>-18.1</v>
       </c>
-      <c r="L299" t="n">
+      <c r="L299" s="0" t="n">
         <v>-24.1</v>
       </c>
-      <c r="M299" t="n">
+      <c r="M299" s="0" t="n">
         <v>-27.4</v>
       </c>
-      <c r="N299" t="n">
+      <c r="N299" s="0" t="n">
         <v>-18.6</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
         <v>46059</v>
+      </c>
+      <c r="B300" t="n">
+        <v>-30.6</v>
+      </c>
+      <c r="C300" t="n">
+        <v>-27.1</v>
+      </c>
+      <c r="D300" t="n">
+        <v>-24</v>
+      </c>
+      <c r="E300" t="n">
+        <v>-27.4</v>
+      </c>
+      <c r="F300" t="n">
+        <v>-28.2</v>
+      </c>
+      <c r="G300" t="n">
+        <v>-28.6</v>
+      </c>
+      <c r="H300" t="n">
+        <v>-25.7</v>
+      </c>
+      <c r="I300" t="n">
+        <v>-23.5</v>
+      </c>
+      <c r="J300" t="n">
+        <v>-26.9</v>
+      </c>
+      <c r="K300" t="n">
+        <v>-19.3</v>
+      </c>
+      <c r="L300" t="n">
+        <v>-25.5</v>
+      </c>
+      <c r="M300" t="n">
+        <v>-28.7</v>
+      </c>
+      <c r="N300" t="n">
+        <v>-16.4</v>
       </c>
     </row>
     <row r="301">
@@ -31262,59 +31340,108 @@
       <c r="A57" s="1" t="n">
         <v>46058</v>
       </c>
-      <c r="B57" t="n">
+      <c r="B57" s="0" t="n">
         <v>-37.36</v>
       </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="H57" t="n">
+      <c r="C57" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="D57" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E57" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="F57" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G57" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="H57" s="0" t="n">
         <v>-32.42</v>
       </c>
-      <c r="I57" t="n">
+      <c r="I57" s="0" t="n">
         <v>-32.27</v>
       </c>
-      <c r="J57" t="n">
+      <c r="J57" s="0" t="n">
         <v>-36.52</v>
       </c>
-      <c r="K57" t="n">
+      <c r="K57" s="0" t="n">
         <v>-25.86</v>
       </c>
-      <c r="L57" t="n">
+      <c r="L57" s="0" t="n">
         <v>-31.55</v>
       </c>
-      <c r="M57" t="n">
+      <c r="M57" s="0" t="n">
         <v>-34.46</v>
       </c>
-      <c r="N57" t="n">
+      <c r="N57" s="0" t="n">
         <v>-23.12</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>46059</v>
+      </c>
+      <c r="B58" t="n">
+        <v>-38.04</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>-33.54</v>
+      </c>
+      <c r="I58" t="n">
+        <v>-32.3</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-36.2</v>
+      </c>
+      <c r="K58" t="n">
+        <v>-32.1</v>
+      </c>
+      <c r="L58" t="n">
+        <v>-34.4</v>
+      </c>
+      <c r="M58" t="n">
+        <v>-35.5</v>
+      </c>
+      <c r="N58" t="n">
+        <v>-22.59</v>
       </c>
     </row>
     <row r="59">

--- a/气象/蒙古存档.xlsx
+++ b/气象/蒙古存档.xlsx
@@ -14092,49 +14092,88 @@
       <c r="A300" s="1" t="n">
         <v>46059</v>
       </c>
-      <c r="B300" t="n">
+      <c r="B300" s="0" t="n">
         <v>-42.4</v>
       </c>
-      <c r="C300" t="n">
+      <c r="C300" s="0" t="n">
         <v>-44.8</v>
       </c>
-      <c r="D300" t="n">
+      <c r="D300" s="0" t="n">
         <v>-44</v>
       </c>
-      <c r="E300" t="n">
+      <c r="E300" s="0" t="n">
         <v>-39.4</v>
       </c>
-      <c r="F300" t="n">
+      <c r="F300" s="0" t="n">
         <v>-40.3</v>
       </c>
-      <c r="G300" t="n">
+      <c r="G300" s="0" t="n">
         <v>-38.7</v>
       </c>
-      <c r="H300" t="n">
+      <c r="H300" s="0" t="n">
         <v>-39</v>
       </c>
-      <c r="I300" t="n">
+      <c r="I300" s="0" t="n">
         <v>-37.9</v>
       </c>
-      <c r="J300" t="n">
+      <c r="J300" s="0" t="n">
         <v>-42.9</v>
       </c>
-      <c r="K300" t="n">
+      <c r="K300" s="0" t="n">
         <v>-40</v>
       </c>
-      <c r="L300" t="n">
+      <c r="L300" s="0" t="n">
         <v>-40.1</v>
       </c>
-      <c r="M300" t="n">
+      <c r="M300" s="0" t="n">
         <v>-39.3</v>
       </c>
-      <c r="N300" t="n">
+      <c r="N300" s="0" t="n">
         <v>-27.4</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
         <v>46060</v>
+      </c>
+      <c r="B301" t="n">
+        <v>-42.3</v>
+      </c>
+      <c r="C301" t="n">
+        <v>-42.5</v>
+      </c>
+      <c r="D301" t="n">
+        <v>-41.4</v>
+      </c>
+      <c r="E301" t="n">
+        <v>-38.4</v>
+      </c>
+      <c r="F301" t="n">
+        <v>-40.5</v>
+      </c>
+      <c r="G301" t="n">
+        <v>-40.4</v>
+      </c>
+      <c r="H301" t="n">
+        <v>-36.4</v>
+      </c>
+      <c r="I301" t="n">
+        <v>-37.6</v>
+      </c>
+      <c r="J301" t="n">
+        <v>-40.9</v>
+      </c>
+      <c r="K301" t="n">
+        <v>-37.6</v>
+      </c>
+      <c r="L301" t="n">
+        <v>-39.5</v>
+      </c>
+      <c r="M301" t="n">
+        <v>-40.5</v>
+      </c>
+      <c r="N301" t="n">
+        <v>-23.8</v>
       </c>
     </row>
     <row r="302">
@@ -27988,49 +28027,88 @@
       <c r="A300" s="1" t="n">
         <v>46059</v>
       </c>
-      <c r="B300" t="n">
+      <c r="B300" s="0" t="n">
         <v>-30.6</v>
       </c>
-      <c r="C300" t="n">
+      <c r="C300" s="0" t="n">
         <v>-27.1</v>
       </c>
-      <c r="D300" t="n">
+      <c r="D300" s="0" t="n">
         <v>-24</v>
       </c>
-      <c r="E300" t="n">
+      <c r="E300" s="0" t="n">
         <v>-27.4</v>
       </c>
-      <c r="F300" t="n">
+      <c r="F300" s="0" t="n">
         <v>-28.2</v>
       </c>
-      <c r="G300" t="n">
+      <c r="G300" s="0" t="n">
         <v>-28.6</v>
       </c>
-      <c r="H300" t="n">
+      <c r="H300" s="0" t="n">
         <v>-25.7</v>
       </c>
-      <c r="I300" t="n">
+      <c r="I300" s="0" t="n">
         <v>-23.5</v>
       </c>
-      <c r="J300" t="n">
+      <c r="J300" s="0" t="n">
         <v>-26.9</v>
       </c>
-      <c r="K300" t="n">
+      <c r="K300" s="0" t="n">
         <v>-19.3</v>
       </c>
-      <c r="L300" t="n">
+      <c r="L300" s="0" t="n">
         <v>-25.5</v>
       </c>
-      <c r="M300" t="n">
+      <c r="M300" s="0" t="n">
         <v>-28.7</v>
       </c>
-      <c r="N300" t="n">
+      <c r="N300" s="0" t="n">
         <v>-16.4</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
         <v>46060</v>
+      </c>
+      <c r="B301" t="n">
+        <v>-31.1</v>
+      </c>
+      <c r="C301" t="n">
+        <v>-29.1</v>
+      </c>
+      <c r="D301" t="n">
+        <v>-25.1</v>
+      </c>
+      <c r="E301" t="n">
+        <v>-26</v>
+      </c>
+      <c r="F301" t="n">
+        <v>-24.8</v>
+      </c>
+      <c r="G301" t="n">
+        <v>-27.4</v>
+      </c>
+      <c r="H301" t="n">
+        <v>-21.6</v>
+      </c>
+      <c r="I301" t="n">
+        <v>-24.7</v>
+      </c>
+      <c r="J301" t="n">
+        <v>-23.5</v>
+      </c>
+      <c r="K301" t="n">
+        <v>-14</v>
+      </c>
+      <c r="L301" t="n">
+        <v>-24.6</v>
+      </c>
+      <c r="M301" t="n">
+        <v>-28.4</v>
+      </c>
+      <c r="N301" t="n">
+        <v>-11.1</v>
       </c>
     </row>
     <row r="302">
@@ -31394,59 +31472,108 @@
       <c r="A58" s="1" t="n">
         <v>46059</v>
       </c>
-      <c r="B58" t="n">
+      <c r="B58" s="0" t="n">
         <v>-38.04</v>
       </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="H58" t="n">
+      <c r="C58" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="D58" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E58" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="F58" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G58" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="H58" s="0" t="n">
         <v>-33.54</v>
       </c>
-      <c r="I58" t="n">
+      <c r="I58" s="0" t="n">
         <v>-32.3</v>
       </c>
-      <c r="J58" t="n">
+      <c r="J58" s="0" t="n">
         <v>-36.2</v>
       </c>
-      <c r="K58" t="n">
+      <c r="K58" s="0" t="n">
         <v>-32.1</v>
       </c>
-      <c r="L58" t="n">
+      <c r="L58" s="0" t="n">
         <v>-34.4</v>
       </c>
-      <c r="M58" t="n">
+      <c r="M58" s="0" t="n">
         <v>-35.5</v>
       </c>
-      <c r="N58" t="n">
+      <c r="N58" s="0" t="n">
         <v>-22.59</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>46060</v>
+      </c>
+      <c r="B59" t="n">
+        <v>-37.84</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>-30.15</v>
+      </c>
+      <c r="I59" t="n">
+        <v>-32.05</v>
+      </c>
+      <c r="J59" t="n">
+        <v>-33.65</v>
+      </c>
+      <c r="K59" t="n">
+        <v>-28.22</v>
+      </c>
+      <c r="L59" t="n">
+        <v>-33.76</v>
+      </c>
+      <c r="M59" t="n">
+        <v>-35.51</v>
+      </c>
+      <c r="N59" t="n">
+        <v>-18.93</v>
       </c>
     </row>
     <row r="60">

--- a/气象/蒙古存档.xlsx
+++ b/气象/蒙古存档.xlsx
@@ -14136,49 +14136,88 @@
       <c r="A301" s="1" t="n">
         <v>46060</v>
       </c>
-      <c r="B301" t="n">
+      <c r="B301" s="0" t="n">
         <v>-42.3</v>
       </c>
-      <c r="C301" t="n">
+      <c r="C301" s="0" t="n">
         <v>-42.5</v>
       </c>
-      <c r="D301" t="n">
+      <c r="D301" s="0" t="n">
         <v>-41.4</v>
       </c>
-      <c r="E301" t="n">
+      <c r="E301" s="0" t="n">
         <v>-38.4</v>
       </c>
-      <c r="F301" t="n">
+      <c r="F301" s="0" t="n">
         <v>-40.5</v>
       </c>
-      <c r="G301" t="n">
+      <c r="G301" s="0" t="n">
         <v>-40.4</v>
       </c>
-      <c r="H301" t="n">
+      <c r="H301" s="0" t="n">
         <v>-36.4</v>
       </c>
-      <c r="I301" t="n">
+      <c r="I301" s="0" t="n">
         <v>-37.6</v>
       </c>
-      <c r="J301" t="n">
+      <c r="J301" s="0" t="n">
         <v>-40.9</v>
       </c>
-      <c r="K301" t="n">
+      <c r="K301" s="0" t="n">
         <v>-37.6</v>
       </c>
-      <c r="L301" t="n">
+      <c r="L301" s="0" t="n">
         <v>-39.5</v>
       </c>
-      <c r="M301" t="n">
+      <c r="M301" s="0" t="n">
         <v>-40.5</v>
       </c>
-      <c r="N301" t="n">
+      <c r="N301" s="0" t="n">
         <v>-23.8</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
         <v>46061</v>
+      </c>
+      <c r="B302" t="n">
+        <v>-40.2</v>
+      </c>
+      <c r="C302" t="n">
+        <v>-41</v>
+      </c>
+      <c r="D302" t="n">
+        <v>-38.4</v>
+      </c>
+      <c r="E302" t="n">
+        <v>-36.6</v>
+      </c>
+      <c r="F302" t="n">
+        <v>-40.6</v>
+      </c>
+      <c r="G302" t="n">
+        <v>-38.9</v>
+      </c>
+      <c r="H302" t="n">
+        <v>-35.9</v>
+      </c>
+      <c r="I302" t="n">
+        <v>-34.5</v>
+      </c>
+      <c r="J302" t="n">
+        <v>-38.3</v>
+      </c>
+      <c r="K302" t="n">
+        <v>-31.5</v>
+      </c>
+      <c r="L302" t="n">
+        <v>-38.1</v>
+      </c>
+      <c r="M302" t="n">
+        <v>-39.7</v>
+      </c>
+      <c r="N302" t="n">
+        <v>-20.9</v>
       </c>
     </row>
     <row r="303">
@@ -28071,49 +28110,90 @@
       <c r="A301" s="1" t="n">
         <v>46060</v>
       </c>
-      <c r="B301" t="n">
+      <c r="B301" s="0" t="n">
         <v>-31.1</v>
       </c>
-      <c r="C301" t="n">
+      <c r="C301" s="0" t="n">
         <v>-29.1</v>
       </c>
-      <c r="D301" t="n">
+      <c r="D301" s="0" t="n">
         <v>-25.1</v>
       </c>
-      <c r="E301" t="n">
+      <c r="E301" s="0" t="n">
         <v>-26</v>
       </c>
-      <c r="F301" t="n">
+      <c r="F301" s="0" t="n">
         <v>-24.8</v>
       </c>
-      <c r="G301" t="n">
+      <c r="G301" s="0" t="n">
         <v>-27.4</v>
       </c>
-      <c r="H301" t="n">
+      <c r="H301" s="0" t="n">
         <v>-21.6</v>
       </c>
-      <c r="I301" t="n">
+      <c r="I301" s="0" t="n">
         <v>-24.7</v>
       </c>
-      <c r="J301" t="n">
+      <c r="J301" s="0" t="n">
         <v>-23.5</v>
       </c>
-      <c r="K301" t="n">
+      <c r="K301" s="0" t="n">
         <v>-14</v>
       </c>
-      <c r="L301" t="n">
+      <c r="L301" s="0" t="n">
         <v>-24.6</v>
       </c>
-      <c r="M301" t="n">
+      <c r="M301" s="0" t="n">
         <v>-28.4</v>
       </c>
-      <c r="N301" t="n">
+      <c r="N301" s="0" t="n">
         <v>-11.1</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
         <v>46061</v>
+      </c>
+      <c r="B302" t="n">
+        <v>-27.6</v>
+      </c>
+      <c r="C302" t="n">
+        <v>-27.3</v>
+      </c>
+      <c r="D302" t="n">
+        <v>-21.9</v>
+      </c>
+      <c r="E302" t="n">
+        <v>-22.5</v>
+      </c>
+      <c r="F302" t="n">
+        <v>-23.2</v>
+      </c>
+      <c r="G302" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="H302" t="n">
+        <v>-19.7</v>
+      </c>
+      <c r="I302" t="n">
+        <v>-23.5</v>
+      </c>
+      <c r="J302" t="n">
+        <v>-22.3</v>
+      </c>
+      <c r="K302" t="n">
+        <v>-8.199999999999999</v>
+      </c>
+      <c r="L302" t="n">
+        <v>-20.9</v>
+      </c>
+      <c r="M302" t="n">
+        <v>-26.2</v>
+      </c>
+      <c r="N302" t="n">
+        <v>-6.9</v>
       </c>
     </row>
     <row r="303">
@@ -31526,59 +31606,108 @@
       <c r="A59" s="1" t="n">
         <v>46060</v>
       </c>
-      <c r="B59" t="n">
+      <c r="B59" s="0" t="n">
         <v>-37.84</v>
       </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="H59" t="n">
+      <c r="C59" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="D59" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E59" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="F59" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G59" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="H59" s="0" t="n">
         <v>-30.15</v>
       </c>
-      <c r="I59" t="n">
+      <c r="I59" s="0" t="n">
         <v>-32.05</v>
       </c>
-      <c r="J59" t="n">
+      <c r="J59" s="0" t="n">
         <v>-33.65</v>
       </c>
-      <c r="K59" t="n">
+      <c r="K59" s="0" t="n">
         <v>-28.22</v>
       </c>
-      <c r="L59" t="n">
+      <c r="L59" s="0" t="n">
         <v>-33.76</v>
       </c>
-      <c r="M59" t="n">
+      <c r="M59" s="0" t="n">
         <v>-35.51</v>
       </c>
-      <c r="N59" t="n">
+      <c r="N59" s="0" t="n">
         <v>-18.93</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>46061</v>
+      </c>
+      <c r="B60" t="n">
+        <v>-33.49</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>-29.02</v>
+      </c>
+      <c r="I60" t="n">
+        <v>-29.76</v>
+      </c>
+      <c r="J60" t="n">
+        <v>-30.39</v>
+      </c>
+      <c r="K60" t="n">
+        <v>-18.05</v>
+      </c>
+      <c r="L60" t="n">
+        <v>-31.41</v>
+      </c>
+      <c r="M60" t="n">
+        <v>-33.61</v>
+      </c>
+      <c r="N60" t="n">
+        <v>-15.46</v>
       </c>
     </row>
     <row r="61">

--- a/气象/蒙古存档.xlsx
+++ b/气象/蒙古存档.xlsx
@@ -14180,49 +14180,88 @@
       <c r="A302" s="1" t="n">
         <v>46061</v>
       </c>
-      <c r="B302" t="n">
+      <c r="B302" s="0" t="n">
         <v>-40.2</v>
       </c>
-      <c r="C302" t="n">
+      <c r="C302" s="0" t="n">
         <v>-41</v>
       </c>
-      <c r="D302" t="n">
+      <c r="D302" s="0" t="n">
         <v>-38.4</v>
       </c>
-      <c r="E302" t="n">
+      <c r="E302" s="0" t="n">
         <v>-36.6</v>
       </c>
-      <c r="F302" t="n">
+      <c r="F302" s="0" t="n">
         <v>-40.6</v>
       </c>
-      <c r="G302" t="n">
+      <c r="G302" s="0" t="n">
         <v>-38.9</v>
       </c>
-      <c r="H302" t="n">
+      <c r="H302" s="0" t="n">
         <v>-35.9</v>
       </c>
-      <c r="I302" t="n">
+      <c r="I302" s="0" t="n">
         <v>-34.5</v>
       </c>
-      <c r="J302" t="n">
+      <c r="J302" s="0" t="n">
         <v>-38.3</v>
       </c>
-      <c r="K302" t="n">
+      <c r="K302" s="0" t="n">
         <v>-31.5</v>
       </c>
-      <c r="L302" t="n">
+      <c r="L302" s="0" t="n">
         <v>-38.1</v>
       </c>
-      <c r="M302" t="n">
+      <c r="M302" s="0" t="n">
         <v>-39.7</v>
       </c>
-      <c r="N302" t="n">
+      <c r="N302" s="0" t="n">
         <v>-20.9</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
         <v>46062</v>
+      </c>
+      <c r="B303" t="n">
+        <v>-38.7</v>
+      </c>
+      <c r="C303" t="n">
+        <v>-38.5</v>
+      </c>
+      <c r="D303" t="n">
+        <v>-35.2</v>
+      </c>
+      <c r="E303" t="n">
+        <v>-31.3</v>
+      </c>
+      <c r="F303" t="n">
+        <v>-31.9</v>
+      </c>
+      <c r="G303" t="n">
+        <v>-33.3</v>
+      </c>
+      <c r="H303" t="n">
+        <v>-28.6</v>
+      </c>
+      <c r="I303" t="n">
+        <v>-36.3</v>
+      </c>
+      <c r="J303" t="n">
+        <v>-38.1</v>
+      </c>
+      <c r="K303" t="n">
+        <v>-32.4</v>
+      </c>
+      <c r="L303" t="n">
+        <v>-32.9</v>
+      </c>
+      <c r="M303" t="n">
+        <v>-34.4</v>
+      </c>
+      <c r="N303" t="n">
+        <v>-20.2</v>
       </c>
     </row>
     <row r="304">
@@ -28154,51 +28193,90 @@
       <c r="A302" s="1" t="n">
         <v>46061</v>
       </c>
-      <c r="B302" t="n">
+      <c r="B302" s="0" t="n">
         <v>-27.6</v>
       </c>
-      <c r="C302" t="n">
+      <c r="C302" s="0" t="n">
         <v>-27.3</v>
       </c>
-      <c r="D302" t="n">
+      <c r="D302" s="0" t="n">
         <v>-21.9</v>
       </c>
-      <c r="E302" t="n">
+      <c r="E302" s="0" t="n">
         <v>-22.5</v>
       </c>
-      <c r="F302" t="n">
+      <c r="F302" s="0" t="n">
         <v>-23.2</v>
       </c>
-      <c r="G302" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="H302" t="n">
+      <c r="G302" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="H302" s="0" t="n">
         <v>-19.7</v>
       </c>
-      <c r="I302" t="n">
+      <c r="I302" s="0" t="n">
         <v>-23.5</v>
       </c>
-      <c r="J302" t="n">
+      <c r="J302" s="0" t="n">
         <v>-22.3</v>
       </c>
-      <c r="K302" t="n">
+      <c r="K302" s="0" t="n">
         <v>-8.199999999999999</v>
       </c>
-      <c r="L302" t="n">
+      <c r="L302" s="0" t="n">
         <v>-20.9</v>
       </c>
-      <c r="M302" t="n">
+      <c r="M302" s="0" t="n">
         <v>-26.2</v>
       </c>
-      <c r="N302" t="n">
+      <c r="N302" s="0" t="n">
         <v>-6.9</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
         <v>46062</v>
+      </c>
+      <c r="B303" t="n">
+        <v>-26.7</v>
+      </c>
+      <c r="C303" t="n">
+        <v>-26.2</v>
+      </c>
+      <c r="D303" t="n">
+        <v>-21.6</v>
+      </c>
+      <c r="E303" t="n">
+        <v>-18</v>
+      </c>
+      <c r="F303" t="n">
+        <v>-18</v>
+      </c>
+      <c r="G303" t="n">
+        <v>-22.9</v>
+      </c>
+      <c r="H303" t="n">
+        <v>-17.1</v>
+      </c>
+      <c r="I303" t="n">
+        <v>-23.7</v>
+      </c>
+      <c r="J303" t="n">
+        <v>-23.1</v>
+      </c>
+      <c r="K303" t="n">
+        <v>-14.9</v>
+      </c>
+      <c r="L303" t="n">
+        <v>-16.9</v>
+      </c>
+      <c r="M303" t="n">
+        <v>-24.5</v>
+      </c>
+      <c r="N303" t="n">
+        <v>-5.1</v>
       </c>
     </row>
     <row r="304">
@@ -31660,59 +31738,108 @@
       <c r="A60" s="1" t="n">
         <v>46061</v>
       </c>
-      <c r="B60" t="n">
+      <c r="B60" s="0" t="n">
         <v>-33.49</v>
       </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="H60" t="n">
+      <c r="C60" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="D60" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E60" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="F60" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G60" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="H60" s="0" t="n">
         <v>-29.02</v>
       </c>
-      <c r="I60" t="n">
+      <c r="I60" s="0" t="n">
         <v>-29.76</v>
       </c>
-      <c r="J60" t="n">
+      <c r="J60" s="0" t="n">
         <v>-30.39</v>
       </c>
-      <c r="K60" t="n">
+      <c r="K60" s="0" t="n">
         <v>-18.05</v>
       </c>
-      <c r="L60" t="n">
+      <c r="L60" s="0" t="n">
         <v>-31.41</v>
       </c>
-      <c r="M60" t="n">
+      <c r="M60" s="0" t="n">
         <v>-33.61</v>
       </c>
-      <c r="N60" t="n">
+      <c r="N60" s="0" t="n">
         <v>-15.46</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>46062</v>
+      </c>
+      <c r="B61" t="n">
+        <v>-31.8</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>-24.27</v>
+      </c>
+      <c r="I61" t="n">
+        <v>-30.25</v>
+      </c>
+      <c r="J61" t="n">
+        <v>-30.81</v>
+      </c>
+      <c r="K61" t="n">
+        <v>-25.09</v>
+      </c>
+      <c r="L61" t="n">
+        <v>-27.38</v>
+      </c>
+      <c r="M61" t="n">
+        <v>-29.42</v>
+      </c>
+      <c r="N61" t="n">
+        <v>-14.7</v>
       </c>
     </row>
     <row r="62">

--- a/气象/蒙古存档.xlsx
+++ b/气象/蒙古存档.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\GIT SYNC\default\气象\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62ACA7E4-87B4-4D68-8A90-C34BE98459FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3430F8A-7D7D-42E5-9D8E-20D17868B59D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="15">
   <si>
     <t>日期</t>
   </si>
@@ -13918,6 +13918,45 @@
       <c r="A306" s="1">
         <v>46065</v>
       </c>
+      <c r="B306">
+        <v>-28.3</v>
+      </c>
+      <c r="C306">
+        <v>-29</v>
+      </c>
+      <c r="D306">
+        <v>-24</v>
+      </c>
+      <c r="E306">
+        <v>-25.6</v>
+      </c>
+      <c r="F306">
+        <v>-31.3</v>
+      </c>
+      <c r="G306">
+        <v>-25.8</v>
+      </c>
+      <c r="H306">
+        <v>-24.6</v>
+      </c>
+      <c r="I306">
+        <v>-27.6</v>
+      </c>
+      <c r="J306">
+        <v>-24</v>
+      </c>
+      <c r="K306">
+        <v>-11.5</v>
+      </c>
+      <c r="L306">
+        <v>-26.7</v>
+      </c>
+      <c r="M306">
+        <v>-25.9</v>
+      </c>
+      <c r="N306">
+        <v>-15.4</v>
+      </c>
     </row>
     <row r="307" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A307" s="1">
@@ -14156,7 +14195,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A303" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B304" sqref="B304"/>
+      <selection pane="bottomLeft" activeCell="D313" sqref="D313"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -27587,6 +27626,45 @@
     <row r="306" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A306" s="1">
         <v>46065</v>
+      </c>
+      <c r="B306">
+        <v>-20.7</v>
+      </c>
+      <c r="C306">
+        <v>-18.2</v>
+      </c>
+      <c r="D306">
+        <v>-13.5</v>
+      </c>
+      <c r="E306">
+        <v>-8.9</v>
+      </c>
+      <c r="F306">
+        <v>-17.399999999999999</v>
+      </c>
+      <c r="G306">
+        <v>-15.5</v>
+      </c>
+      <c r="H306">
+        <v>-11.4</v>
+      </c>
+      <c r="I306">
+        <v>-17.7</v>
+      </c>
+      <c r="J306">
+        <v>-8.6999999999999993</v>
+      </c>
+      <c r="K306">
+        <v>0.5</v>
+      </c>
+      <c r="L306">
+        <v>-11.3</v>
+      </c>
+      <c r="M306">
+        <v>-14.2</v>
+      </c>
+      <c r="N306">
+        <v>-1.1000000000000001</v>
       </c>
     </row>
     <row r="307" spans="1:14" x14ac:dyDescent="0.4">
@@ -30610,6 +30688,45 @@
       <c r="A64" s="1">
         <v>46065</v>
       </c>
+      <c r="B64">
+        <v>-24.94</v>
+      </c>
+      <c r="C64" t="s">
+        <v>14</v>
+      </c>
+      <c r="D64" t="s">
+        <v>14</v>
+      </c>
+      <c r="E64" t="s">
+        <v>14</v>
+      </c>
+      <c r="F64" t="s">
+        <v>14</v>
+      </c>
+      <c r="G64" t="s">
+        <v>14</v>
+      </c>
+      <c r="H64">
+        <v>-18.59</v>
+      </c>
+      <c r="I64">
+        <v>-24.21</v>
+      </c>
+      <c r="J64">
+        <v>-17.149999999999999</v>
+      </c>
+      <c r="K64">
+        <v>-8.15</v>
+      </c>
+      <c r="L64">
+        <v>-19.66</v>
+      </c>
+      <c r="M64">
+        <v>-21.09</v>
+      </c>
+      <c r="N64">
+        <v>-9.0299999999999994</v>
+      </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A65" s="1">

--- a/气象/蒙古存档.xlsx
+++ b/气象/蒙古存档.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\GIT SYNC\default\气象\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3430F8A-7D7D-42E5-9D8E-20D17868B59D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CC84CC0-1EC8-49C3-A801-5B8CE837BA1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,12 +17,23 @@
     <sheet name="高温存档" sheetId="2" r:id="rId2"/>
     <sheet name="均温存档" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="15">
   <si>
     <t>日期</t>
   </si>
@@ -57,9 +68,6 @@
     <t>车臣乌拉</t>
   </si>
   <si>
-    <t>陶松臣格勒</t>
-  </si>
-  <si>
     <t>仁钦隆勃</t>
   </si>
   <si>
@@ -67,6 +75,10 @@
   </si>
   <si>
     <t>无</t>
+  </si>
+  <si>
+    <t>托孙臣格勒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -148,7 +160,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -166,6 +178,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -485,8 +500,8 @@
   <dimension ref="A1:N351"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A303" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E302" sqref="E302"/>
+      <pane ySplit="1" topLeftCell="A307" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C310" sqref="C310"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -529,13 +544,13 @@
         <v>10</v>
       </c>
       <c r="L1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.4">
@@ -543,22 +558,22 @@
         <v>45761</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H2">
         <v>-3</v>
@@ -596,7 +611,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F3">
         <v>-2.9</v>
@@ -640,7 +655,7 @@
         <v>-2.7</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F4">
         <v>-0.5</v>
@@ -684,7 +699,7 @@
         <v>-4.7</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F5">
         <v>-3.8</v>
@@ -728,7 +743,7 @@
         <v>-0.2</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F6">
         <v>-3.2</v>
@@ -772,7 +787,7 @@
         <v>-2.6</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F7">
         <v>-0.6</v>
@@ -816,7 +831,7 @@
         <v>-5.0999999999999996</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F8">
         <v>-6.3</v>
@@ -860,7 +875,7 @@
         <v>-5.2</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F9">
         <v>-9.6</v>
@@ -904,7 +919,7 @@
         <v>2.9</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F10">
         <v>1.3</v>
@@ -948,7 +963,7 @@
         <v>-7.1</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F11">
         <v>-5.3</v>
@@ -992,7 +1007,7 @@
         <v>1.3</v>
       </c>
       <c r="E12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F12">
         <v>-5.0999999999999996</v>
@@ -1036,7 +1051,7 @@
         <v>-7.6</v>
       </c>
       <c r="E13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F13">
         <v>-0.5</v>
@@ -1080,7 +1095,7 @@
         <v>-6.9</v>
       </c>
       <c r="E14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F14">
         <v>-6.5</v>
@@ -1124,7 +1139,7 @@
         <v>-4.4000000000000004</v>
       </c>
       <c r="E15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F15">
         <v>-7.1</v>
@@ -1168,7 +1183,7 @@
         <v>1.4</v>
       </c>
       <c r="E16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F16">
         <v>-6.3</v>
@@ -1212,7 +1227,7 @@
         <v>5.3</v>
       </c>
       <c r="E17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F17">
         <v>-0.1</v>
@@ -1256,7 +1271,7 @@
         <v>5.3</v>
       </c>
       <c r="E18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F18">
         <v>4.5</v>
@@ -1300,7 +1315,7 @@
         <v>6</v>
       </c>
       <c r="E19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F19">
         <v>3.6</v>
@@ -1344,7 +1359,7 @@
         <v>-2.5</v>
       </c>
       <c r="E20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F20">
         <v>-5.6</v>
@@ -1388,7 +1403,7 @@
         <v>-0.2</v>
       </c>
       <c r="E21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F21">
         <v>-2.8</v>
@@ -1432,7 +1447,7 @@
         <v>-0.6</v>
       </c>
       <c r="E22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F22">
         <v>-1.1000000000000001</v>
@@ -1476,7 +1491,7 @@
         <v>-3.4</v>
       </c>
       <c r="E23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F23">
         <v>-6</v>
@@ -1520,7 +1535,7 @@
         <v>2.7</v>
       </c>
       <c r="E24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F24">
         <v>-2.9</v>
@@ -1564,7 +1579,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="E25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F25">
         <v>-2.2000000000000002</v>
@@ -1608,7 +1623,7 @@
         <v>-2.2000000000000002</v>
       </c>
       <c r="E26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F26">
         <v>-4.5999999999999996</v>
@@ -1652,7 +1667,7 @@
         <v>0.3</v>
       </c>
       <c r="E27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F27">
         <v>-4.0999999999999996</v>
@@ -1696,7 +1711,7 @@
         <v>3.8</v>
       </c>
       <c r="E28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F28">
         <v>-2.4</v>
@@ -1740,7 +1755,7 @@
         <v>14.1</v>
       </c>
       <c r="E29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F29">
         <v>2.4</v>
@@ -1784,7 +1799,7 @@
         <v>9.1</v>
       </c>
       <c r="E30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F30">
         <v>-0.4</v>
@@ -1828,7 +1843,7 @@
         <v>1.7</v>
       </c>
       <c r="E31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F31">
         <v>0.5</v>
@@ -1872,7 +1887,7 @@
         <v>6.8</v>
       </c>
       <c r="E32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F32">
         <v>-0.6</v>
@@ -1916,7 +1931,7 @@
         <v>6.4</v>
       </c>
       <c r="E33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F33">
         <v>0.9</v>
@@ -1960,7 +1975,7 @@
         <v>-0.2</v>
       </c>
       <c r="E34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F34">
         <v>-5.4</v>
@@ -2004,7 +2019,7 @@
         <v>6</v>
       </c>
       <c r="E35" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F35">
         <v>0.5</v>
@@ -2048,7 +2063,7 @@
         <v>7.8</v>
       </c>
       <c r="E36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F36">
         <v>5.2</v>
@@ -2092,7 +2107,7 @@
         <v>11.2</v>
       </c>
       <c r="E37" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F37">
         <v>2.2999999999999998</v>
@@ -2136,7 +2151,7 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="E38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F38">
         <v>4.9000000000000004</v>
@@ -2180,7 +2195,7 @@
         <v>3.3</v>
       </c>
       <c r="E39" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F39">
         <v>4.4000000000000004</v>
@@ -2224,7 +2239,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="E40" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F40">
         <v>-0.3</v>
@@ -2268,7 +2283,7 @@
         <v>6.4</v>
       </c>
       <c r="E41" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F41">
         <v>0.2</v>
@@ -2312,7 +2327,7 @@
         <v>7.3</v>
       </c>
       <c r="E42" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F42">
         <v>-1.6</v>
@@ -2356,7 +2371,7 @@
         <v>10.6</v>
       </c>
       <c r="E43" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F43">
         <v>2.2999999999999998</v>
@@ -2400,7 +2415,7 @@
         <v>10.199999999999999</v>
       </c>
       <c r="E44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F44">
         <v>1.5</v>
@@ -2444,7 +2459,7 @@
         <v>10.6</v>
       </c>
       <c r="E45" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F45">
         <v>11</v>
@@ -2488,7 +2503,7 @@
         <v>1.3</v>
       </c>
       <c r="E46" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F46">
         <v>0.5</v>
@@ -2532,7 +2547,7 @@
         <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F47">
         <v>-0.6</v>
@@ -2570,19 +2585,19 @@
         <v>-1</v>
       </c>
       <c r="C48" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D48" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E48" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F48">
         <v>-2.4</v>
       </c>
       <c r="G48" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H48">
         <v>2.8</v>
@@ -2614,19 +2629,19 @@
         <v>3</v>
       </c>
       <c r="C49" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D49" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E49" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F49">
         <v>-1.7</v>
       </c>
       <c r="G49" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H49">
         <v>-2.4</v>
@@ -2664,7 +2679,7 @@
         <v>4</v>
       </c>
       <c r="E50" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F50">
         <v>1.1000000000000001</v>
@@ -2708,7 +2723,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="E51" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F51">
         <v>4</v>
@@ -2752,7 +2767,7 @@
         <v>3.7</v>
       </c>
       <c r="E52" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F52">
         <v>0.4</v>
@@ -2796,7 +2811,7 @@
         <v>14.1</v>
       </c>
       <c r="E53" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F53">
         <v>4.5999999999999996</v>
@@ -2834,19 +2849,19 @@
         <v>12.1</v>
       </c>
       <c r="C54" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D54" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E54" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F54">
         <v>5.3</v>
       </c>
       <c r="G54" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H54">
         <v>0.1</v>
@@ -2884,7 +2899,7 @@
         <v>10.7</v>
       </c>
       <c r="E55" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F55">
         <v>5</v>
@@ -2928,7 +2943,7 @@
         <v>11.1</v>
       </c>
       <c r="E56" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F56">
         <v>4.5999999999999996</v>
@@ -2972,7 +2987,7 @@
         <v>11.3</v>
       </c>
       <c r="E57" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F57">
         <v>5</v>
@@ -3016,7 +3031,7 @@
         <v>8.4</v>
       </c>
       <c r="E58" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F58">
         <v>3.8</v>
@@ -3060,7 +3075,7 @@
         <v>14.1</v>
       </c>
       <c r="E59" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F59">
         <v>7.8</v>
@@ -3104,7 +3119,7 @@
         <v>11.5</v>
       </c>
       <c r="E60" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F60">
         <v>7.2</v>
@@ -3148,7 +3163,7 @@
         <v>7.5</v>
       </c>
       <c r="E61" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F61">
         <v>3.9</v>
@@ -3192,7 +3207,7 @@
         <v>12.1</v>
       </c>
       <c r="E62" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F62">
         <v>4.5</v>
@@ -3236,7 +3251,7 @@
         <v>7.9</v>
       </c>
       <c r="E63" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F63">
         <v>0.9</v>
@@ -3280,7 +3295,7 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="E64" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F64">
         <v>4.2</v>
@@ -3324,7 +3339,7 @@
         <v>17.899999999999999</v>
       </c>
       <c r="E65" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F65">
         <v>12</v>
@@ -3368,7 +3383,7 @@
         <v>13.4</v>
       </c>
       <c r="E66" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F66">
         <v>7.6</v>
@@ -3412,7 +3427,7 @@
         <v>8.6999999999999993</v>
       </c>
       <c r="E67" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F67">
         <v>6.2</v>
@@ -3450,19 +3465,19 @@
         <v>11.6</v>
       </c>
       <c r="C68" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D68" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E68" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F68">
         <v>7</v>
       </c>
       <c r="G68" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H68">
         <v>8.9</v>
@@ -3500,7 +3515,7 @@
         <v>12.1</v>
       </c>
       <c r="E69" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F69">
         <v>8.3000000000000007</v>
@@ -3538,19 +3553,19 @@
         <v>15.1</v>
       </c>
       <c r="C70" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D70" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E70" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F70">
         <v>8.1999999999999993</v>
       </c>
       <c r="G70" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H70">
         <v>8.4</v>
@@ -3588,7 +3603,7 @@
         <v>20.399999999999999</v>
       </c>
       <c r="E71" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F71">
         <v>8.6</v>
@@ -3632,7 +3647,7 @@
         <v>11.2</v>
       </c>
       <c r="E72" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F72">
         <v>6.1</v>
@@ -3670,19 +3685,19 @@
         <v>16.3</v>
       </c>
       <c r="C73" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D73" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E73" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F73">
         <v>8.1</v>
       </c>
       <c r="G73" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H73">
         <v>14.2</v>
@@ -3720,7 +3735,7 @@
         <v>15.2</v>
       </c>
       <c r="E74" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F74">
         <v>9.6</v>
@@ -3764,7 +3779,7 @@
         <v>15</v>
       </c>
       <c r="E75" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F75">
         <v>5.7</v>
@@ -3808,7 +3823,7 @@
         <v>14</v>
       </c>
       <c r="E76" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F76">
         <v>8.3000000000000007</v>
@@ -3852,7 +3867,7 @@
         <v>12.6</v>
       </c>
       <c r="E77" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F77">
         <v>12.3</v>
@@ -3896,7 +3911,7 @@
         <v>12.6</v>
       </c>
       <c r="E78" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F78">
         <v>9.4</v>
@@ -3940,7 +3955,7 @@
         <v>10.5</v>
       </c>
       <c r="E79" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F79">
         <v>2.9</v>
@@ -3984,7 +3999,7 @@
         <v>12.5</v>
       </c>
       <c r="E80" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F80">
         <v>9.1999999999999993</v>
@@ -4028,7 +4043,7 @@
         <v>9.8000000000000007</v>
       </c>
       <c r="E81" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F81">
         <v>8.8000000000000007</v>
@@ -4072,7 +4087,7 @@
         <v>9</v>
       </c>
       <c r="E82" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F82">
         <v>7.2</v>
@@ -4116,7 +4131,7 @@
         <v>13.4</v>
       </c>
       <c r="E83" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F83">
         <v>7.6</v>
@@ -4160,7 +4175,7 @@
         <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F84">
         <v>5.5</v>
@@ -4204,7 +4219,7 @@
         <v>12.4</v>
       </c>
       <c r="E85" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F85">
         <v>8.1</v>
@@ -4248,7 +4263,7 @@
         <v>14.7</v>
       </c>
       <c r="E86" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F86">
         <v>6.7</v>
@@ -4292,7 +4307,7 @@
         <v>10.199999999999999</v>
       </c>
       <c r="E87" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F87">
         <v>5.8</v>
@@ -4336,7 +4351,7 @@
         <v>11.1</v>
       </c>
       <c r="E88" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F88">
         <v>5.5</v>
@@ -4380,7 +4395,7 @@
         <v>9.5</v>
       </c>
       <c r="E89" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F89">
         <v>4.0999999999999996</v>
@@ -4424,7 +4439,7 @@
         <v>9.4</v>
       </c>
       <c r="E90" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F90">
         <v>4.0999999999999996</v>
@@ -4468,7 +4483,7 @@
         <v>18.8</v>
       </c>
       <c r="E91" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F91">
         <v>9.1999999999999993</v>
@@ -4512,7 +4527,7 @@
         <v>16.399999999999999</v>
       </c>
       <c r="E92" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F92">
         <v>13.2</v>
@@ -4556,7 +4571,7 @@
         <v>13.7</v>
       </c>
       <c r="E93" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F93">
         <v>11.3</v>
@@ -4600,7 +4615,7 @@
         <v>16.600000000000001</v>
       </c>
       <c r="E94" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F94">
         <v>7.1</v>
@@ -4644,7 +4659,7 @@
         <v>16.5</v>
       </c>
       <c r="E95" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F95">
         <v>11.9</v>
@@ -4682,19 +4697,19 @@
         <v>14.3</v>
       </c>
       <c r="C96" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D96" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E96" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F96">
         <v>10.8</v>
       </c>
       <c r="G96" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H96">
         <v>11</v>
@@ -4726,19 +4741,19 @@
         <v>15.2</v>
       </c>
       <c r="C97" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D97" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E97" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F97">
         <v>13</v>
       </c>
       <c r="G97" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H97">
         <v>16.3</v>
@@ -4770,19 +4785,19 @@
         <v>14.6</v>
       </c>
       <c r="C98" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D98" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E98" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F98">
         <v>7.3</v>
       </c>
       <c r="G98" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H98">
         <v>12.7</v>
@@ -4820,7 +4835,7 @@
         <v>15.7</v>
       </c>
       <c r="E99" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F99">
         <v>5.6</v>
@@ -4864,7 +4879,7 @@
         <v>15.3</v>
       </c>
       <c r="E100" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F100">
         <v>11.7</v>
@@ -4908,7 +4923,7 @@
         <v>13.5</v>
       </c>
       <c r="E101" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F101">
         <v>8</v>
@@ -4952,7 +4967,7 @@
         <v>11.4</v>
       </c>
       <c r="E102" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F102">
         <v>5</v>
@@ -4996,7 +5011,7 @@
         <v>8.4</v>
       </c>
       <c r="E103" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F103">
         <v>1.7</v>
@@ -5040,7 +5055,7 @@
         <v>9.8000000000000007</v>
       </c>
       <c r="E104" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F104">
         <v>3.5</v>
@@ -5084,7 +5099,7 @@
         <v>12.2</v>
       </c>
       <c r="E105" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F105">
         <v>4.8</v>
@@ -5128,7 +5143,7 @@
         <v>8.5</v>
       </c>
       <c r="E106" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F106">
         <v>4.9000000000000004</v>
@@ -5172,7 +5187,7 @@
         <v>11.1</v>
       </c>
       <c r="E107" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F107">
         <v>6.1</v>
@@ -5216,7 +5231,7 @@
         <v>14.1</v>
       </c>
       <c r="E108" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F108">
         <v>7.8</v>
@@ -5260,7 +5275,7 @@
         <v>17.899999999999999</v>
       </c>
       <c r="E109" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F109">
         <v>9.9</v>
@@ -5304,7 +5319,7 @@
         <v>10.3</v>
       </c>
       <c r="E110" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F110">
         <v>6.5</v>
@@ -5348,7 +5363,7 @@
         <v>11.1</v>
       </c>
       <c r="E111" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F111">
         <v>7.1</v>
@@ -5392,7 +5407,7 @@
         <v>15.3</v>
       </c>
       <c r="E112" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F112">
         <v>14</v>
@@ -5436,7 +5451,7 @@
         <v>11.5</v>
       </c>
       <c r="E113" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F113">
         <v>8.4</v>
@@ -5480,7 +5495,7 @@
         <v>13.8</v>
       </c>
       <c r="E114" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F114">
         <v>7</v>
@@ -5524,7 +5539,7 @@
         <v>13.3</v>
       </c>
       <c r="E115" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F115">
         <v>6.1</v>
@@ -5568,7 +5583,7 @@
         <v>14.7</v>
       </c>
       <c r="E116" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F116">
         <v>5.4</v>
@@ -5612,7 +5627,7 @@
         <v>6.4</v>
       </c>
       <c r="E117" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F117">
         <v>3.2</v>
@@ -5656,7 +5671,7 @@
         <v>6.7</v>
       </c>
       <c r="E118" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F118">
         <v>1.6</v>
@@ -5700,7 +5715,7 @@
         <v>14.6</v>
       </c>
       <c r="E119" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F119">
         <v>5.8</v>
@@ -5744,7 +5759,7 @@
         <v>11.9</v>
       </c>
       <c r="E120" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F120">
         <v>5.6</v>
@@ -5788,7 +5803,7 @@
         <v>9</v>
       </c>
       <c r="E121" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F121">
         <v>1.2</v>
@@ -5832,7 +5847,7 @@
         <v>2.9</v>
       </c>
       <c r="E122" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F122">
         <v>-1.1000000000000001</v>
@@ -6618,19 +6633,19 @@
         <v>9.8000000000000007</v>
       </c>
       <c r="C140" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D140" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E140" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F140">
         <v>0</v>
       </c>
       <c r="G140" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H140">
         <v>9.9</v>
@@ -6794,19 +6809,19 @@
         <v>9.1</v>
       </c>
       <c r="C144" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D144" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E144" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F144">
         <v>0</v>
       </c>
       <c r="G144" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H144">
         <v>6.5</v>
@@ -6926,19 +6941,19 @@
         <v>5.7</v>
       </c>
       <c r="C147" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D147" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E147" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F147">
         <v>-0.4</v>
       </c>
       <c r="G147" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H147">
         <v>4.5999999999999996</v>
@@ -7589,7 +7604,7 @@
         <v>6.7</v>
       </c>
       <c r="D162" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E162">
         <v>3.1</v>
@@ -9214,19 +9229,19 @@
         <v>-7</v>
       </c>
       <c r="C199" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D199" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E199" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F199">
         <v>-10.7</v>
       </c>
       <c r="G199" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H199">
         <v>-13</v>
@@ -10320,7 +10335,7 @@
         <v>-20.2</v>
       </c>
       <c r="E224" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F224">
         <v>-25.6</v>
@@ -10446,19 +10461,19 @@
         <v>-23</v>
       </c>
       <c r="C227" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D227" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E227" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F227">
         <v>-26</v>
       </c>
       <c r="G227" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H227">
         <v>-13</v>
@@ -11370,19 +11385,19 @@
         <v>-28.6</v>
       </c>
       <c r="C248" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D248" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E248" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F248">
         <v>-31.3</v>
       </c>
       <c r="G248" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H248">
         <v>-26.8</v>
@@ -11464,7 +11479,7 @@
         <v>-25.1</v>
       </c>
       <c r="E250" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F250">
         <v>-19.7</v>
@@ -11552,7 +11567,7 @@
         <v>-30.5</v>
       </c>
       <c r="E252" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F252">
         <v>-35.1</v>
@@ -11678,19 +11693,19 @@
         <v>-29.2</v>
       </c>
       <c r="C255" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D255" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E255" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F255">
         <v>-30</v>
       </c>
       <c r="G255" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H255">
         <v>-30</v>
@@ -11722,19 +11737,19 @@
         <v>-29.7</v>
       </c>
       <c r="C256" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D256" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E256" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F256" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G256" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H256">
         <v>-34.700000000000003</v>
@@ -12517,7 +12532,7 @@
         <v>-33</v>
       </c>
       <c r="D274" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E274">
         <v>-29.9</v>
@@ -12561,7 +12576,7 @@
         <v>-29.6</v>
       </c>
       <c r="D275" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E275">
         <v>-16.7</v>
@@ -13350,19 +13365,19 @@
         <v>-34.700000000000003</v>
       </c>
       <c r="C293" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D293" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E293" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F293" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G293" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H293">
         <v>-37.799999999999997</v>
@@ -13397,16 +13412,16 @@
         <v>-37.799999999999997</v>
       </c>
       <c r="D294" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E294" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F294" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G294" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H294">
         <v>-34.4</v>
@@ -13962,10 +13977,88 @@
       <c r="A307" s="1">
         <v>46066</v>
       </c>
+      <c r="B307">
+        <v>-31</v>
+      </c>
+      <c r="C307">
+        <v>-31.2</v>
+      </c>
+      <c r="D307">
+        <v>-31.1</v>
+      </c>
+      <c r="E307">
+        <v>-22.2</v>
+      </c>
+      <c r="F307">
+        <v>-20.6</v>
+      </c>
+      <c r="G307">
+        <v>-20.7</v>
+      </c>
+      <c r="H307">
+        <v>-18.2</v>
+      </c>
+      <c r="I307">
+        <v>-30.5</v>
+      </c>
+      <c r="J307">
+        <v>-24.6</v>
+      </c>
+      <c r="K307">
+        <v>-25</v>
+      </c>
+      <c r="L307">
+        <v>-23.7</v>
+      </c>
+      <c r="M307">
+        <v>-20.3</v>
+      </c>
+      <c r="N307">
+        <v>-11.5</v>
+      </c>
     </row>
     <row r="308" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A308" s="1">
         <v>46067</v>
+      </c>
+      <c r="B308">
+        <v>-38.299999999999997</v>
+      </c>
+      <c r="C308">
+        <v>-39.200000000000003</v>
+      </c>
+      <c r="D308">
+        <v>-38.299999999999997</v>
+      </c>
+      <c r="E308">
+        <v>-35.5</v>
+      </c>
+      <c r="F308">
+        <v>-36.4</v>
+      </c>
+      <c r="G308">
+        <v>-32.299999999999997</v>
+      </c>
+      <c r="H308">
+        <v>-31.2</v>
+      </c>
+      <c r="I308">
+        <v>-34.4</v>
+      </c>
+      <c r="J308">
+        <v>-38.5</v>
+      </c>
+      <c r="K308">
+        <v>-38.200000000000003</v>
+      </c>
+      <c r="L308">
+        <v>-35.5</v>
+      </c>
+      <c r="M308">
+        <v>-36.6</v>
+      </c>
+      <c r="N308">
+        <v>-21</v>
       </c>
     </row>
     <row r="309" spans="1:14" x14ac:dyDescent="0.4">
@@ -14194,8 +14287,8 @@
   <dimension ref="A1:N351"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A303" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D313" sqref="D313"/>
+      <pane ySplit="1" topLeftCell="A307" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C310" sqref="C310"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -14238,13 +14331,13 @@
         <v>10</v>
       </c>
       <c r="L1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>12</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.4">
@@ -14261,7 +14354,7 @@
         <v>23.6</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F2">
         <v>17</v>
@@ -14305,7 +14398,7 @@
         <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F3">
         <v>14.6</v>
@@ -14349,7 +14442,7 @@
         <v>11.5</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F4">
         <v>8.9</v>
@@ -14393,13 +14486,13 @@
         <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F5">
         <v>5.0999999999999996</v>
       </c>
       <c r="G5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H5">
         <v>14.5</v>
@@ -14437,7 +14530,7 @@
         <v>15.4</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F6">
         <v>6.2</v>
@@ -14481,7 +14574,7 @@
         <v>13.7</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F7">
         <v>5.7</v>
@@ -14525,7 +14618,7 @@
         <v>3.4</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F8">
         <v>3.5</v>
@@ -14569,7 +14662,7 @@
         <v>17.600000000000001</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F9">
         <v>10.199999999999999</v>
@@ -14613,7 +14706,7 @@
         <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F10">
         <v>8.5</v>
@@ -14657,7 +14750,7 @@
         <v>14.1</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F11">
         <v>9.8000000000000007</v>
@@ -14701,13 +14794,13 @@
         <v>17.7</v>
       </c>
       <c r="E12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F12">
         <v>13.3</v>
       </c>
       <c r="G12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H12">
         <v>16.2</v>
@@ -14745,7 +14838,7 @@
         <v>15.2</v>
       </c>
       <c r="E13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F13">
         <v>10.5</v>
@@ -14789,7 +14882,7 @@
         <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F14">
         <v>10.6</v>
@@ -14833,7 +14926,7 @@
         <v>20.9</v>
       </c>
       <c r="E15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F15">
         <v>15.2</v>
@@ -14877,7 +14970,7 @@
         <v>21.6</v>
       </c>
       <c r="E16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F16">
         <v>15.6</v>
@@ -14921,7 +15014,7 @@
         <v>18.2</v>
       </c>
       <c r="E17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F17">
         <v>13.8</v>
@@ -14965,13 +15058,13 @@
         <v>15.6</v>
       </c>
       <c r="E18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F18">
         <v>14.2</v>
       </c>
       <c r="G18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H18">
         <v>14.6</v>
@@ -15009,7 +15102,7 @@
         <v>11.5</v>
       </c>
       <c r="E19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F19">
         <v>13.2</v>
@@ -15053,7 +15146,7 @@
         <v>17.7</v>
       </c>
       <c r="E20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F20">
         <v>11.5</v>
@@ -15097,7 +15190,7 @@
         <v>15.7</v>
       </c>
       <c r="E21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F21">
         <v>12.4</v>
@@ -15141,7 +15234,7 @@
         <v>7.4</v>
       </c>
       <c r="E22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F22">
         <v>3.5</v>
@@ -15185,7 +15278,7 @@
         <v>12.7</v>
       </c>
       <c r="E23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F23">
         <v>7.3</v>
@@ -15229,7 +15322,7 @@
         <v>11.5</v>
       </c>
       <c r="E24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F24">
         <v>9.5</v>
@@ -15273,7 +15366,7 @@
         <v>12.1</v>
       </c>
       <c r="E25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F25">
         <v>4.7</v>
@@ -15317,7 +15410,7 @@
         <v>16.600000000000001</v>
       </c>
       <c r="E26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F26">
         <v>10.7</v>
@@ -15361,7 +15454,7 @@
         <v>22.4</v>
       </c>
       <c r="E27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F27">
         <v>15.7</v>
@@ -15405,7 +15498,7 @@
         <v>28.1</v>
       </c>
       <c r="E28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F28">
         <v>22.1</v>
@@ -15449,7 +15542,7 @@
         <v>24</v>
       </c>
       <c r="E29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F29">
         <v>17.7</v>
@@ -15493,7 +15586,7 @@
         <v>19.2</v>
       </c>
       <c r="E30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F30">
         <v>14</v>
@@ -15537,7 +15630,7 @@
         <v>14.2</v>
       </c>
       <c r="E31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F31">
         <v>11.9</v>
@@ -15581,7 +15674,7 @@
         <v>16.8</v>
       </c>
       <c r="E32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F32">
         <v>18.100000000000001</v>
@@ -15625,7 +15718,7 @@
         <v>14.5</v>
       </c>
       <c r="E33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F33">
         <v>15.8</v>
@@ -15669,7 +15762,7 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="E34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F34">
         <v>6.9</v>
@@ -15713,7 +15806,7 @@
         <v>15.9</v>
       </c>
       <c r="E35" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F35">
         <v>13.5</v>
@@ -15757,7 +15850,7 @@
         <v>26.8</v>
       </c>
       <c r="E36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F36">
         <v>23.1</v>
@@ -15801,7 +15894,7 @@
         <v>25.7</v>
       </c>
       <c r="E37" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F37">
         <v>21.8</v>
@@ -15845,7 +15938,7 @@
         <v>17.899999999999999</v>
       </c>
       <c r="E38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F38">
         <v>17.100000000000001</v>
@@ -15889,7 +15982,7 @@
         <v>20.9</v>
       </c>
       <c r="E39" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F39">
         <v>11.3</v>
@@ -15933,7 +16026,7 @@
         <v>20.399999999999999</v>
       </c>
       <c r="E40" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F40">
         <v>8.1</v>
@@ -15977,7 +16070,7 @@
         <v>22.2</v>
       </c>
       <c r="E41" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F41">
         <v>11.6</v>
@@ -16021,7 +16114,7 @@
         <v>26.2</v>
       </c>
       <c r="E42" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F42">
         <v>17.899999999999999</v>
@@ -16065,7 +16158,7 @@
         <v>23</v>
       </c>
       <c r="E43" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F43">
         <v>19.600000000000001</v>
@@ -16109,7 +16202,7 @@
         <v>24.9</v>
       </c>
       <c r="E44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F44">
         <v>20.7</v>
@@ -16153,7 +16246,7 @@
         <v>23.1</v>
       </c>
       <c r="E45" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F45">
         <v>18.3</v>
@@ -16197,7 +16290,7 @@
         <v>15</v>
       </c>
       <c r="E46" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F46">
         <v>12.2</v>
@@ -16241,13 +16334,13 @@
         <v>12.3</v>
       </c>
       <c r="E47" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F47">
         <v>13.6</v>
       </c>
       <c r="G47" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H47">
         <v>20.399999999999999</v>
@@ -16279,19 +16372,19 @@
         <v>14.3</v>
       </c>
       <c r="C48" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D48" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E48" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F48">
         <v>11.3</v>
       </c>
       <c r="G48" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H48">
         <v>15.1</v>
@@ -16329,7 +16422,7 @@
         <v>17</v>
       </c>
       <c r="E49" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F49">
         <v>12</v>
@@ -16373,7 +16466,7 @@
         <v>15.2</v>
       </c>
       <c r="E50" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F50">
         <v>10.6</v>
@@ -16417,7 +16510,7 @@
         <v>23.1</v>
       </c>
       <c r="E51" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F51">
         <v>17.899999999999999</v>
@@ -16461,7 +16554,7 @@
         <v>27.4</v>
       </c>
       <c r="E52" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F52">
         <v>21.9</v>
@@ -16499,19 +16592,19 @@
         <v>27</v>
       </c>
       <c r="C53" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D53" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E53" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F53">
         <v>22.6</v>
       </c>
       <c r="G53" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H53">
         <v>24</v>
@@ -16549,7 +16642,7 @@
         <v>23.2</v>
       </c>
       <c r="E54" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F54">
         <v>19.600000000000001</v>
@@ -16593,7 +16686,7 @@
         <v>24.2</v>
       </c>
       <c r="E55" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F55">
         <v>18.100000000000001</v>
@@ -16637,7 +16730,7 @@
         <v>26.2</v>
       </c>
       <c r="E56" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F56">
         <v>20.9</v>
@@ -16681,7 +16774,7 @@
         <v>26.4</v>
       </c>
       <c r="E57" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F57">
         <v>21.8</v>
@@ -16725,7 +16818,7 @@
         <v>27.5</v>
       </c>
       <c r="E58" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F58">
         <v>26.4</v>
@@ -16769,7 +16862,7 @@
         <v>23.9</v>
       </c>
       <c r="E59" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F59">
         <v>22.6</v>
@@ -16807,19 +16900,19 @@
         <v>23.2</v>
       </c>
       <c r="C60" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D60" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E60" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F60">
         <v>14.3</v>
       </c>
       <c r="G60" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H60">
         <v>22.3</v>
@@ -16857,7 +16950,7 @@
         <v>20.399999999999999</v>
       </c>
       <c r="E61" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F61">
         <v>16.399999999999999</v>
@@ -16901,7 +16994,7 @@
         <v>22.8</v>
       </c>
       <c r="E62" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F62">
         <v>16.399999999999999</v>
@@ -16945,7 +17038,7 @@
         <v>27</v>
       </c>
       <c r="E63" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F63">
         <v>21.6</v>
@@ -16989,7 +17082,7 @@
         <v>29.5</v>
       </c>
       <c r="E64" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F64">
         <v>24.9</v>
@@ -17033,7 +17126,7 @@
         <v>27</v>
       </c>
       <c r="E65" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F65">
         <v>22.6</v>
@@ -17077,7 +17170,7 @@
         <v>24.6</v>
       </c>
       <c r="E66" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F66">
         <v>18.8</v>
@@ -17115,19 +17208,19 @@
         <v>30</v>
       </c>
       <c r="C67" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D67" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E67" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F67">
         <v>19.7</v>
       </c>
       <c r="G67" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H67">
         <v>25</v>
@@ -17165,7 +17258,7 @@
         <v>31.4</v>
       </c>
       <c r="E68" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F68">
         <v>24.8</v>
@@ -17209,7 +17302,7 @@
         <v>32.1</v>
       </c>
       <c r="E69" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F69">
         <v>25.3</v>
@@ -17253,7 +17346,7 @@
         <v>35.1</v>
       </c>
       <c r="E70" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F70">
         <v>25.9</v>
@@ -17297,7 +17390,7 @@
         <v>31.1</v>
       </c>
       <c r="E71" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F71">
         <v>24.4</v>
@@ -17341,7 +17434,7 @@
         <v>32.200000000000003</v>
       </c>
       <c r="E72" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F72">
         <v>25.6</v>
@@ -17385,7 +17478,7 @@
         <v>34.6</v>
       </c>
       <c r="E73" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F73">
         <v>25.4</v>
@@ -17429,7 +17522,7 @@
         <v>29.3</v>
       </c>
       <c r="E74" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F74">
         <v>18.399999999999999</v>
@@ -17473,7 +17566,7 @@
         <v>29</v>
       </c>
       <c r="E75" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F75">
         <v>24.8</v>
@@ -17517,7 +17610,7 @@
         <v>27.7</v>
       </c>
       <c r="E76" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F76">
         <v>26</v>
@@ -17561,7 +17654,7 @@
         <v>26.5</v>
       </c>
       <c r="E77" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F77">
         <v>22.8</v>
@@ -17605,7 +17698,7 @@
         <v>21.1</v>
       </c>
       <c r="E78" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F78">
         <v>16.600000000000001</v>
@@ -17649,7 +17742,7 @@
         <v>22.6</v>
       </c>
       <c r="E79" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F79">
         <v>21.3</v>
@@ -17693,7 +17786,7 @@
         <v>27.7</v>
       </c>
       <c r="E80" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F80">
         <v>24</v>
@@ -17737,7 +17830,7 @@
         <v>24.2</v>
       </c>
       <c r="E81" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F81">
         <v>21.1</v>
@@ -17781,7 +17874,7 @@
         <v>22.8</v>
       </c>
       <c r="E82" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F82">
         <v>19.399999999999999</v>
@@ -17825,7 +17918,7 @@
         <v>24.8</v>
       </c>
       <c r="E83" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F83">
         <v>16.5</v>
@@ -17869,7 +17962,7 @@
         <v>29.9</v>
       </c>
       <c r="E84" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F84">
         <v>21.3</v>
@@ -17913,7 +18006,7 @@
         <v>31.4</v>
       </c>
       <c r="E85" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F85">
         <v>20.3</v>
@@ -17957,7 +18050,7 @@
         <v>25.4</v>
       </c>
       <c r="E86" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F86">
         <v>17.899999999999999</v>
@@ -18001,7 +18094,7 @@
         <v>23.7</v>
       </c>
       <c r="E87" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F87">
         <v>20.6</v>
@@ -18045,7 +18138,7 @@
         <v>25.4</v>
       </c>
       <c r="E88" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F88">
         <v>18.399999999999999</v>
@@ -18089,7 +18182,7 @@
         <v>23.8</v>
       </c>
       <c r="E89" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F89">
         <v>22.1</v>
@@ -18133,7 +18226,7 @@
         <v>30.4</v>
       </c>
       <c r="E90" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F90">
         <v>25.4</v>
@@ -18177,7 +18270,7 @@
         <v>29.6</v>
       </c>
       <c r="E91" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F91">
         <v>29</v>
@@ -18221,13 +18314,13 @@
         <v>29.2</v>
       </c>
       <c r="E92" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F92">
         <v>24.7</v>
       </c>
       <c r="G92" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H92">
         <v>30.4</v>
@@ -18265,7 +18358,7 @@
         <v>30.6</v>
       </c>
       <c r="E93" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F93">
         <v>23.6</v>
@@ -18309,7 +18402,7 @@
         <v>30.3</v>
       </c>
       <c r="E94" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F94">
         <v>25.1</v>
@@ -18347,19 +18440,19 @@
         <v>32.299999999999997</v>
       </c>
       <c r="C95" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D95" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E95" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F95">
         <v>26.7</v>
       </c>
       <c r="G95" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H95">
         <v>29.9</v>
@@ -18391,19 +18484,19 @@
         <v>30.7</v>
       </c>
       <c r="C96" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D96" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E96" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F96">
         <v>24.8</v>
       </c>
       <c r="G96" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H96">
         <v>32.9</v>
@@ -18435,19 +18528,19 @@
         <v>30.5</v>
       </c>
       <c r="C97" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D97" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E97" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F97">
         <v>21.7</v>
       </c>
       <c r="G97" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H97">
         <v>29.9</v>
@@ -18479,19 +18572,19 @@
         <v>33.6</v>
       </c>
       <c r="C98" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D98" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E98" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F98">
         <v>24.1</v>
       </c>
       <c r="G98" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H98">
         <v>31.3</v>
@@ -18529,7 +18622,7 @@
         <v>33.299999999999997</v>
       </c>
       <c r="E99" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F99">
         <v>28.4</v>
@@ -18573,7 +18666,7 @@
         <v>26.3</v>
       </c>
       <c r="E100" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F100">
         <v>26.7</v>
@@ -18617,7 +18710,7 @@
         <v>25.5</v>
       </c>
       <c r="E101" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F101">
         <v>23.5</v>
@@ -18661,7 +18754,7 @@
         <v>22.1</v>
       </c>
       <c r="E102" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F102">
         <v>21</v>
@@ -18705,7 +18798,7 @@
         <v>19.7</v>
       </c>
       <c r="E103" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F103">
         <v>21.6</v>
@@ -18749,7 +18842,7 @@
         <v>27.4</v>
       </c>
       <c r="E104" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F104">
         <v>26.9</v>
@@ -18793,7 +18886,7 @@
         <v>27.5</v>
       </c>
       <c r="E105" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F105">
         <v>26.2</v>
@@ -18837,7 +18930,7 @@
         <v>32.4</v>
       </c>
       <c r="E106" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F106">
         <v>27.6</v>
@@ -18881,7 +18974,7 @@
         <v>32.200000000000003</v>
       </c>
       <c r="E107" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F107">
         <v>27.1</v>
@@ -18925,7 +19018,7 @@
         <v>31.3</v>
       </c>
       <c r="E108" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F108">
         <v>28.5</v>
@@ -18969,7 +19062,7 @@
         <v>29.1</v>
       </c>
       <c r="E109" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F109">
         <v>26.8</v>
@@ -19013,7 +19106,7 @@
         <v>28.6</v>
       </c>
       <c r="E110" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F110">
         <v>25.2</v>
@@ -19057,7 +19150,7 @@
         <v>30</v>
       </c>
       <c r="E111" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F111">
         <v>25.6</v>
@@ -19101,7 +19194,7 @@
         <v>28.6</v>
       </c>
       <c r="E112" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F112">
         <v>23.3</v>
@@ -19145,7 +19238,7 @@
         <v>28.4</v>
       </c>
       <c r="E113" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F113">
         <v>24.6</v>
@@ -19189,7 +19282,7 @@
         <v>27.4</v>
       </c>
       <c r="E114" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F114">
         <v>23</v>
@@ -19233,7 +19326,7 @@
         <v>27.9</v>
       </c>
       <c r="E115" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F115">
         <v>25.2</v>
@@ -19277,7 +19370,7 @@
         <v>26.6</v>
       </c>
       <c r="E116" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F116">
         <v>23.4</v>
@@ -19315,19 +19408,19 @@
         <v>27.3</v>
       </c>
       <c r="C117" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D117" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E117" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F117">
         <v>23.6</v>
       </c>
       <c r="G117" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H117">
         <v>23.1</v>
@@ -19365,7 +19458,7 @@
         <v>27.1</v>
       </c>
       <c r="E118" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F118">
         <v>24.7</v>
@@ -19409,7 +19502,7 @@
         <v>28.4</v>
       </c>
       <c r="E119" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F119">
         <v>23.2</v>
@@ -19453,7 +19546,7 @@
         <v>27.6</v>
       </c>
       <c r="E120" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F120">
         <v>20.8</v>
@@ -19497,7 +19590,7 @@
         <v>18.399999999999999</v>
       </c>
       <c r="E121" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F121">
         <v>16.399999999999999</v>
@@ -19541,7 +19634,7 @@
         <v>22.9</v>
       </c>
       <c r="E122" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F122">
         <v>18.100000000000001</v>
@@ -20283,19 +20376,19 @@
         <v>21.9</v>
       </c>
       <c r="C139" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D139" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E139" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F139">
         <v>14.4</v>
       </c>
       <c r="G139" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H139">
         <v>19</v>
@@ -20459,13 +20552,13 @@
         <v>20.6</v>
       </c>
       <c r="C143" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D143" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E143" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F143">
         <v>14</v>
@@ -20597,13 +20690,13 @@
         <v>13</v>
       </c>
       <c r="E146" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F146">
         <v>8.9</v>
       </c>
       <c r="G146" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H146">
         <v>16.7</v>
@@ -22395,19 +22488,19 @@
         <v>-0.5</v>
       </c>
       <c r="C187" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D187" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E187" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F187">
         <v>-6.8</v>
       </c>
       <c r="G187" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H187">
         <v>-2.5</v>
@@ -22879,19 +22972,19 @@
         <v>5.6</v>
       </c>
       <c r="C198" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D198" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E198" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F198">
         <v>-0.9</v>
       </c>
       <c r="G198" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H198">
         <v>2.9</v>
@@ -23099,19 +23192,19 @@
         <v>6.6</v>
       </c>
       <c r="C203" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D203" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E203" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F203">
         <v>4.5999999999999996</v>
       </c>
       <c r="G203" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H203">
         <v>8.1</v>
@@ -25387,19 +25480,19 @@
         <v>-16.7</v>
       </c>
       <c r="C255" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D255" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E255" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F255">
         <v>-11.4</v>
       </c>
       <c r="G255" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H255">
         <v>-21</v>
@@ -25431,19 +25524,19 @@
         <v>-22</v>
       </c>
       <c r="C256" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D256" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E256" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F256" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G256" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H256">
         <v>-24.1</v>
@@ -25707,7 +25800,7 @@
         <v>-26.9</v>
       </c>
       <c r="G262" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H262">
         <v>-28.6</v>
@@ -25927,7 +26020,7 @@
         <v>-25.1</v>
       </c>
       <c r="G267" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H267">
         <v>-21.5</v>
@@ -26892,7 +26985,7 @@
         <v>-25.9</v>
       </c>
       <c r="F289" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G289">
         <v>-28</v>
@@ -26936,7 +27029,7 @@
         <v>-23.6</v>
       </c>
       <c r="F290" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G290">
         <v>-28.3</v>
@@ -26980,7 +27073,7 @@
         <v>-23.3</v>
       </c>
       <c r="F291" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G291">
         <v>-28.7</v>
@@ -27059,19 +27152,19 @@
         <v>-23.5</v>
       </c>
       <c r="C293" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D293" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E293" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F293" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G293" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H293">
         <v>-25.2</v>
@@ -27112,7 +27205,7 @@
         <v>-20.9</v>
       </c>
       <c r="F294" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G294">
         <v>-23.7</v>
@@ -27156,7 +27249,7 @@
         <v>-22.6</v>
       </c>
       <c r="F295" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G295">
         <v>-23.8</v>
@@ -27467,7 +27560,7 @@
         <v>-23.2</v>
       </c>
       <c r="G302" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H302">
         <v>-19.7</v>
@@ -27671,10 +27764,88 @@
       <c r="A307" s="1">
         <v>46066</v>
       </c>
+      <c r="B307">
+        <v>-20.7</v>
+      </c>
+      <c r="C307">
+        <v>-18.5</v>
+      </c>
+      <c r="D307">
+        <v>-17.100000000000001</v>
+      </c>
+      <c r="E307">
+        <v>-12.5</v>
+      </c>
+      <c r="F307">
+        <v>-11</v>
+      </c>
+      <c r="G307">
+        <v>-16</v>
+      </c>
+      <c r="H307">
+        <v>-4.2</v>
+      </c>
+      <c r="I307">
+        <v>-17.100000000000001</v>
+      </c>
+      <c r="J307">
+        <v>-16.100000000000001</v>
+      </c>
+      <c r="K307">
+        <v>-6.8</v>
+      </c>
+      <c r="L307">
+        <v>-11.3</v>
+      </c>
+      <c r="M307">
+        <v>-14.1</v>
+      </c>
+      <c r="N307">
+        <v>-4.3</v>
+      </c>
     </row>
     <row r="308" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A308" s="1">
         <v>46067</v>
+      </c>
+      <c r="B308">
+        <v>-24.2</v>
+      </c>
+      <c r="C308">
+        <v>-23.6</v>
+      </c>
+      <c r="D308">
+        <v>-20.6</v>
+      </c>
+      <c r="E308">
+        <v>-19.8</v>
+      </c>
+      <c r="F308">
+        <v>-18.600000000000001</v>
+      </c>
+      <c r="G308">
+        <v>-19.899999999999999</v>
+      </c>
+      <c r="H308">
+        <v>-12.9</v>
+      </c>
+      <c r="I308">
+        <v>-19.5</v>
+      </c>
+      <c r="J308">
+        <v>-21.1</v>
+      </c>
+      <c r="K308">
+        <v>-17.399999999999999</v>
+      </c>
+      <c r="L308">
+        <v>-19.100000000000001</v>
+      </c>
+      <c r="M308">
+        <v>-20.3</v>
+      </c>
+      <c r="N308">
+        <v>-11.5</v>
       </c>
     </row>
     <row r="309" spans="1:14" x14ac:dyDescent="0.4">
@@ -27903,16 +28074,16 @@
   <dimension ref="A1:N109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C83" sqref="C83"/>
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="10.59765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.59765625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -27947,13 +28118,13 @@
         <v>10</v>
       </c>
       <c r="L1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>12</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.4">
@@ -27964,19 +28135,19 @@
         <v>-28</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F2">
         <v>-28.88</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H2">
         <v>-31.76</v>
@@ -27997,7 +28168,7 @@
         <v>-33.18</v>
       </c>
       <c r="N2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.4">
@@ -28008,19 +28179,19 @@
         <v>-27.36</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F3">
         <v>-34.15</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H3">
         <v>-28.81</v>
@@ -28052,19 +28223,19 @@
         <v>-23.6</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F4">
         <v>-29.82</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H4">
         <v>-25.88</v>
@@ -28096,19 +28267,19 @@
         <v>-22.91</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F5">
         <v>-27.25</v>
       </c>
       <c r="G5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H5">
         <v>-23.56</v>
@@ -28140,19 +28311,19 @@
         <v>-22.81</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F6">
         <v>-25.95</v>
       </c>
       <c r="G6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H6">
         <v>-22.6</v>
@@ -28184,19 +28355,19 @@
         <v>-25.38</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F7">
         <v>-22.3</v>
       </c>
       <c r="G7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H7">
         <v>-19.13</v>
@@ -28228,19 +28399,19 @@
         <v>-25.4</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F8">
         <v>-12.7</v>
       </c>
       <c r="G8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H8">
         <v>-15.76</v>
@@ -28272,19 +28443,19 @@
         <v>-25.34</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F9">
         <v>-24.75</v>
       </c>
       <c r="G9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H9">
         <v>-19.84</v>
@@ -28316,19 +28487,19 @@
         <v>-24.3</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F10">
         <v>-30.01</v>
       </c>
       <c r="G10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H10">
         <v>-32.61</v>
@@ -28360,19 +28531,19 @@
         <v>-27.95</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F11">
         <v>-30.94</v>
       </c>
       <c r="G11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H11">
         <v>-31.06</v>
@@ -28404,19 +28575,19 @@
         <v>-25.51</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F12">
         <v>-19.82</v>
       </c>
       <c r="G12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H12">
         <v>-23.71</v>
@@ -28437,7 +28608,7 @@
         <v>-28.51</v>
       </c>
       <c r="N12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.4">
@@ -28448,19 +28619,19 @@
         <v>-22.46</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F13">
         <v>-23.09</v>
       </c>
       <c r="G13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H13">
         <v>-25.51</v>
@@ -28492,19 +28663,19 @@
         <v>-25.5</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H14">
         <v>-29.96</v>
@@ -28536,19 +28707,19 @@
         <v>-27.25</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H15">
         <v>-29.59</v>
@@ -28580,19 +28751,19 @@
         <v>-28.79</v>
       </c>
       <c r="C16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H16">
         <v>-27.98</v>
@@ -28624,19 +28795,19 @@
         <v>-27.43</v>
       </c>
       <c r="C17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H17">
         <v>-25.55</v>
@@ -28668,19 +28839,19 @@
         <v>-28.6</v>
       </c>
       <c r="C18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H18">
         <v>-19.05</v>
@@ -28712,19 +28883,19 @@
         <v>-32.36</v>
       </c>
       <c r="C19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H19">
         <v>-28.48</v>
@@ -28756,19 +28927,19 @@
         <v>-34.08</v>
       </c>
       <c r="C20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H20">
         <v>-33.89</v>
@@ -28800,19 +28971,19 @@
         <v>-36.24</v>
       </c>
       <c r="C21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H21">
         <v>-32.32</v>
@@ -28844,19 +29015,19 @@
         <v>-35.950000000000003</v>
       </c>
       <c r="C22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H22">
         <v>-30.89</v>
@@ -28888,19 +29059,19 @@
         <v>-32.14</v>
       </c>
       <c r="C23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H23">
         <v>-30.48</v>
@@ -28932,19 +29103,19 @@
         <v>-32.11</v>
       </c>
       <c r="C24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H24">
         <v>-23.96</v>
@@ -28976,19 +29147,19 @@
         <v>-33.65</v>
       </c>
       <c r="C25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H25">
         <v>-27.35</v>
@@ -29020,19 +29191,19 @@
         <v>-32</v>
       </c>
       <c r="C26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H26">
         <v>-29.15</v>
@@ -29064,19 +29235,19 @@
         <v>-27.31</v>
       </c>
       <c r="C27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H27">
         <v>-30.74</v>
@@ -29108,19 +29279,19 @@
         <v>-27.43</v>
       </c>
       <c r="C28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H28">
         <v>-29.86</v>
@@ -29152,19 +29323,19 @@
         <v>-30.56</v>
       </c>
       <c r="C29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H29">
         <v>-19.91</v>
@@ -29196,19 +29367,19 @@
         <v>-32.72</v>
       </c>
       <c r="C30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H30">
         <v>-23.04</v>
@@ -29240,19 +29411,19 @@
         <v>-32.21</v>
       </c>
       <c r="C31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H31">
         <v>-26.74</v>
@@ -29284,19 +29455,19 @@
         <v>-27.75</v>
       </c>
       <c r="C32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H32">
         <v>-22.5</v>
@@ -29328,19 +29499,19 @@
         <v>-24.6</v>
       </c>
       <c r="C33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H33">
         <v>-26.96</v>
@@ -29372,19 +29543,19 @@
         <v>-23.18</v>
       </c>
       <c r="C34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H34">
         <v>-27.06</v>
@@ -29416,19 +29587,19 @@
         <v>-24.29</v>
       </c>
       <c r="C35" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D35" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E35" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F35" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G35" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H35">
         <v>-18.02</v>
@@ -29460,19 +29631,19 @@
         <v>-29.13</v>
       </c>
       <c r="C36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H36">
         <v>-20.94</v>
@@ -29504,19 +29675,19 @@
         <v>-33.590000000000003</v>
       </c>
       <c r="C37" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D37" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E37" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F37" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G37" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H37">
         <v>-36.01</v>
@@ -29548,19 +29719,19 @@
         <v>-39.479999999999997</v>
       </c>
       <c r="C38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H38">
         <v>-40.31</v>
@@ -29592,19 +29763,19 @@
         <v>-42.1</v>
       </c>
       <c r="C39" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D39" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E39" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F39" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G39" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H39">
         <v>-43.86</v>
@@ -29636,19 +29807,19 @@
         <v>-43.43</v>
       </c>
       <c r="C40" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D40" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E40" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F40" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G40" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H40">
         <v>-42.56</v>
@@ -29680,19 +29851,19 @@
         <v>-40.56</v>
       </c>
       <c r="C41" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D41" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E41" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F41" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G41" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H41">
         <v>-41.56</v>
@@ -29724,19 +29895,19 @@
         <v>-36.65</v>
       </c>
       <c r="C42" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D42" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E42" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F42" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G42" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H42">
         <v>-40.6</v>
@@ -29768,19 +29939,19 @@
         <v>-36.74</v>
       </c>
       <c r="C43" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D43" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E43" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F43" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G43" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H43">
         <v>-38.75</v>
@@ -29812,19 +29983,19 @@
         <v>-37.340000000000003</v>
       </c>
       <c r="C44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H44">
         <v>-37.590000000000003</v>
@@ -29856,19 +30027,19 @@
         <v>-30.18</v>
       </c>
       <c r="C45" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D45" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E45" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F45" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G45" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H45">
         <v>-36.81</v>
@@ -29900,19 +30071,19 @@
         <v>-29.65</v>
       </c>
       <c r="C46" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D46" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E46" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F46" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G46" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H46">
         <v>-26.59</v>
@@ -29921,7 +30092,7 @@
         <v>-31.44</v>
       </c>
       <c r="J46" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K46">
         <v>-21.94</v>
@@ -29944,19 +30115,19 @@
         <v>-35.26</v>
       </c>
       <c r="C47" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D47" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E47" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F47" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G47" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H47">
         <v>-28.64</v>
@@ -29988,19 +30159,19 @@
         <v>-35.35</v>
       </c>
       <c r="C48" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D48" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E48" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F48" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G48" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H48">
         <v>-33.61</v>
@@ -30032,19 +30203,19 @@
         <v>-34.69</v>
       </c>
       <c r="C49" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D49" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E49" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F49" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G49" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H49">
         <v>-33.909999999999997</v>
@@ -30076,19 +30247,19 @@
         <v>-34.42</v>
       </c>
       <c r="C50" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D50" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E50" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F50" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G50" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H50">
         <v>-30.64</v>
@@ -30120,19 +30291,19 @@
         <v>-26.91</v>
       </c>
       <c r="C51" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D51" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E51" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F51" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G51" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H51">
         <v>-31.9</v>
@@ -30164,28 +30335,28 @@
         <v>-30.54</v>
       </c>
       <c r="C52" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D52" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E52" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F52" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G52" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H52" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I52" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J52" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K52">
         <v>-24.74</v>
@@ -30208,19 +30379,19 @@
         <v>-33.08</v>
       </c>
       <c r="C53" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D53" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E53" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F53" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G53" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H53">
         <v>-25.85</v>
@@ -30252,19 +30423,19 @@
         <v>-33.35</v>
       </c>
       <c r="C54" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D54" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E54" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F54" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G54" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H54">
         <v>-26.5</v>
@@ -30296,19 +30467,19 @@
         <v>-33.71</v>
       </c>
       <c r="C55" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D55" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E55" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F55" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G55" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H55">
         <v>-22.34</v>
@@ -30340,19 +30511,19 @@
         <v>-32.76</v>
       </c>
       <c r="C56" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D56" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E56" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F56" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G56" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H56">
         <v>-19.190000000000001</v>
@@ -30384,19 +30555,19 @@
         <v>-37.36</v>
       </c>
       <c r="C57" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D57" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E57" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F57" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G57" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H57">
         <v>-32.42</v>
@@ -30428,19 +30599,19 @@
         <v>-38.04</v>
       </c>
       <c r="C58" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D58" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E58" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F58" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G58" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H58">
         <v>-33.54</v>
@@ -30472,19 +30643,19 @@
         <v>-37.840000000000003</v>
       </c>
       <c r="C59" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D59" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E59" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F59" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G59" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H59">
         <v>-30.15</v>
@@ -30516,19 +30687,19 @@
         <v>-33.49</v>
       </c>
       <c r="C60" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D60" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E60" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F60" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G60" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H60">
         <v>-29.02</v>
@@ -30560,19 +30731,19 @@
         <v>-31.8</v>
       </c>
       <c r="C61" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D61" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E61" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F61" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G61" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H61">
         <v>-24.27</v>
@@ -30604,19 +30775,19 @@
         <v>-30.85</v>
       </c>
       <c r="C62" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D62" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E62" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F62" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G62" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H62">
         <v>-24.51</v>
@@ -30648,19 +30819,19 @@
         <v>-28.1</v>
       </c>
       <c r="C63" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D63" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E63" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F63" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G63" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H63">
         <v>-20.73</v>
@@ -30692,19 +30863,19 @@
         <v>-24.94</v>
       </c>
       <c r="C64" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D64" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E64" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F64" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G64" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H64">
         <v>-18.59</v>
@@ -30728,82 +30899,160 @@
         <v>-9.0299999999999994</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A65" s="1">
         <v>46066</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B65">
+        <v>-25.28</v>
+      </c>
+      <c r="C65" t="s">
+        <v>13</v>
+      </c>
+      <c r="D65" t="s">
+        <v>13</v>
+      </c>
+      <c r="E65" t="s">
+        <v>13</v>
+      </c>
+      <c r="F65" t="s">
+        <v>13</v>
+      </c>
+      <c r="G65" t="s">
+        <v>13</v>
+      </c>
+      <c r="H65">
+        <v>-11.75</v>
+      </c>
+      <c r="I65">
+        <v>-24.5</v>
+      </c>
+      <c r="J65">
+        <v>-21.56</v>
+      </c>
+      <c r="K65">
+        <v>-16.260000000000002</v>
+      </c>
+      <c r="L65">
+        <v>-17.149999999999999</v>
+      </c>
+      <c r="M65">
+        <v>-17.43</v>
+      </c>
+      <c r="N65">
+        <v>-8.5500000000000007</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A66" s="1">
         <v>46067</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B66">
+        <v>-31.73</v>
+      </c>
+      <c r="C66" t="s">
+        <v>13</v>
+      </c>
+      <c r="D66" t="s">
+        <v>13</v>
+      </c>
+      <c r="E66" t="s">
+        <v>13</v>
+      </c>
+      <c r="F66" t="s">
+        <v>13</v>
+      </c>
+      <c r="G66" t="s">
+        <v>13</v>
+      </c>
+      <c r="H66">
+        <v>-21.89</v>
+      </c>
+      <c r="I66">
+        <v>-28.69</v>
+      </c>
+      <c r="J66">
+        <v>-30.19</v>
+      </c>
+      <c r="K66">
+        <v>-30.5</v>
+      </c>
+      <c r="L66">
+        <v>-29.93</v>
+      </c>
+      <c r="M66">
+        <v>-29.85</v>
+      </c>
+      <c r="N66">
+        <v>-16.98</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A67" s="1">
         <v>46068</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A68" s="1">
         <v>46069</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A69" s="1">
         <v>46070</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A70" s="1">
         <v>46071</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A71" s="1">
         <v>46072</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A72" s="1">
         <v>46073</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A73" s="1">
         <v>46074</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A74" s="1">
         <v>46075</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A75" s="1">
         <v>46076</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A76" s="1">
         <v>46077</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A77" s="1">
         <v>46078</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A78" s="1">
         <v>46079</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A79" s="1">
         <v>46080</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A80" s="1">
         <v>46081</v>
       </c>

--- a/气象/蒙古存档.xlsx
+++ b/气象/蒙古存档.xlsx
@@ -14579,49 +14579,88 @@
       <c r="A311" s="1" t="n">
         <v>46070</v>
       </c>
-      <c r="B311" t="n">
+      <c r="B311" s="0" t="n">
         <v>-39.4</v>
       </c>
-      <c r="C311" t="n">
+      <c r="C311" s="0" t="n">
         <v>-42</v>
       </c>
-      <c r="D311" t="n">
+      <c r="D311" s="0" t="n">
         <v>-41.4</v>
       </c>
-      <c r="E311" t="n">
+      <c r="E311" s="0" t="n">
         <v>-37</v>
       </c>
-      <c r="F311" t="n">
+      <c r="F311" s="0" t="n">
         <v>-39.2</v>
       </c>
-      <c r="G311" t="n">
+      <c r="G311" s="0" t="n">
         <v>-30.8</v>
       </c>
-      <c r="H311" t="n">
+      <c r="H311" s="0" t="n">
         <v>-20.1</v>
       </c>
-      <c r="I311" t="n">
+      <c r="I311" s="0" t="n">
         <v>-36.3</v>
       </c>
-      <c r="J311" t="n">
+      <c r="J311" s="0" t="n">
         <v>-38.6</v>
       </c>
-      <c r="K311" t="n">
+      <c r="K311" s="0" t="n">
         <v>-37.2</v>
       </c>
-      <c r="L311" t="n">
+      <c r="L311" s="0" t="n">
         <v>-36.6</v>
       </c>
-      <c r="M311" t="n">
+      <c r="M311" s="0" t="n">
         <v>-31.6</v>
       </c>
-      <c r="N311" t="n">
+      <c r="N311" s="0" t="n">
         <v>-18.6</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
         <v>46071</v>
+      </c>
+      <c r="B312" t="n">
+        <v>-36.5</v>
+      </c>
+      <c r="C312" t="n">
+        <v>-39.9</v>
+      </c>
+      <c r="D312" t="n">
+        <v>-37.5</v>
+      </c>
+      <c r="E312" t="n">
+        <v>-34.8</v>
+      </c>
+      <c r="F312" t="n">
+        <v>-38.3</v>
+      </c>
+      <c r="G312" t="n">
+        <v>-27.3</v>
+      </c>
+      <c r="H312" t="n">
+        <v>-24.3</v>
+      </c>
+      <c r="I312" t="n">
+        <v>-34.9</v>
+      </c>
+      <c r="J312" t="n">
+        <v>-36.3</v>
+      </c>
+      <c r="K312" t="n">
+        <v>-31.6</v>
+      </c>
+      <c r="L312" t="n">
+        <v>-36</v>
+      </c>
+      <c r="M312" t="n">
+        <v>-29.5</v>
+      </c>
+      <c r="N312" t="n">
+        <v>-18</v>
       </c>
     </row>
     <row r="313">
@@ -28906,49 +28945,88 @@
       <c r="A311" s="1" t="n">
         <v>46070</v>
       </c>
-      <c r="B311" t="n">
+      <c r="B311" s="0" t="n">
         <v>-27</v>
       </c>
-      <c r="C311" t="n">
+      <c r="C311" s="0" t="n">
         <v>-24.4</v>
       </c>
-      <c r="D311" t="n">
+      <c r="D311" s="0" t="n">
         <v>-22.2</v>
       </c>
-      <c r="E311" t="n">
+      <c r="E311" s="0" t="n">
         <v>-23.6</v>
       </c>
-      <c r="F311" t="n">
+      <c r="F311" s="0" t="n">
         <v>-20.4</v>
       </c>
-      <c r="G311" t="n">
+      <c r="G311" s="0" t="n">
         <v>-17.3</v>
       </c>
-      <c r="H311" t="n">
+      <c r="H311" s="0" t="n">
         <v>-8.199999999999999</v>
       </c>
-      <c r="I311" t="n">
+      <c r="I311" s="0" t="n">
         <v>-22.6</v>
       </c>
-      <c r="J311" t="n">
+      <c r="J311" s="0" t="n">
         <v>-20.5</v>
       </c>
-      <c r="K311" t="n">
+      <c r="K311" s="0" t="n">
         <v>-14.1</v>
       </c>
-      <c r="L311" t="n">
+      <c r="L311" s="0" t="n">
         <v>-21.1</v>
       </c>
-      <c r="M311" t="n">
+      <c r="M311" s="0" t="n">
         <v>-17.3</v>
       </c>
-      <c r="N311" t="n">
+      <c r="N311" s="0" t="n">
         <v>-3.5</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
         <v>46071</v>
+      </c>
+      <c r="B312" t="n">
+        <v>-23.7</v>
+      </c>
+      <c r="C312" t="n">
+        <v>-22.9</v>
+      </c>
+      <c r="D312" t="n">
+        <v>-19.8</v>
+      </c>
+      <c r="E312" t="n">
+        <v>-19.3</v>
+      </c>
+      <c r="F312" t="n">
+        <v>-20.3</v>
+      </c>
+      <c r="G312" t="n">
+        <v>-11.8</v>
+      </c>
+      <c r="H312" t="n">
+        <v>-8.199999999999999</v>
+      </c>
+      <c r="I312" t="n">
+        <v>-21.7</v>
+      </c>
+      <c r="J312" t="n">
+        <v>-18</v>
+      </c>
+      <c r="K312" t="n">
+        <v>-6</v>
+      </c>
+      <c r="L312" t="n">
+        <v>-17.8</v>
+      </c>
+      <c r="M312" t="n">
+        <v>-12</v>
+      </c>
+      <c r="N312" t="n">
+        <v>-3</v>
       </c>
     </row>
     <row r="313">
@@ -32851,59 +32929,108 @@
       <c r="A69" s="1" t="n">
         <v>46070</v>
       </c>
-      <c r="B69" t="n">
+      <c r="B69" s="0" t="n">
         <v>-34.16</v>
       </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="H69" t="n">
+      <c r="C69" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="D69" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E69" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="F69" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G69" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="H69" s="0" t="n">
         <v>-14.91</v>
       </c>
-      <c r="I69" t="n">
+      <c r="I69" s="0" t="n">
         <v>-30.44</v>
       </c>
-      <c r="J69" t="n">
+      <c r="J69" s="0" t="n">
         <v>-30.11</v>
       </c>
-      <c r="K69" t="n">
+      <c r="K69" s="0" t="n">
         <v>-28.02</v>
       </c>
-      <c r="L69" t="n">
+      <c r="L69" s="0" t="n">
         <v>-30.76</v>
       </c>
-      <c r="M69" t="n">
+      <c r="M69" s="0" t="n">
         <v>-26.56</v>
       </c>
-      <c r="N69" t="n">
+      <c r="N69" s="0" t="n">
         <v>-11.94</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>46071</v>
+      </c>
+      <c r="B70" t="n">
+        <v>-30.56</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>-17.69</v>
+      </c>
+      <c r="I70" t="n">
+        <v>-27.84</v>
+      </c>
+      <c r="J70" t="n">
+        <v>-28.19</v>
+      </c>
+      <c r="K70" t="n">
+        <v>-19.7</v>
+      </c>
+      <c r="L70" t="n">
+        <v>-28.75</v>
+      </c>
+      <c r="M70" t="n">
+        <v>-21.1</v>
+      </c>
+      <c r="N70" t="n">
+        <v>-10.85</v>
       </c>
     </row>
     <row r="71">

--- a/气象/蒙古存档.xlsx
+++ b/气象/蒙古存档.xlsx
@@ -14623,49 +14623,88 @@
       <c r="A312" s="1" t="n">
         <v>46071</v>
       </c>
-      <c r="B312" t="n">
+      <c r="B312" s="0" t="n">
         <v>-36.5</v>
       </c>
-      <c r="C312" t="n">
+      <c r="C312" s="0" t="n">
         <v>-39.9</v>
       </c>
-      <c r="D312" t="n">
+      <c r="D312" s="0" t="n">
         <v>-37.5</v>
       </c>
-      <c r="E312" t="n">
+      <c r="E312" s="0" t="n">
         <v>-34.8</v>
       </c>
-      <c r="F312" t="n">
+      <c r="F312" s="0" t="n">
         <v>-38.3</v>
       </c>
-      <c r="G312" t="n">
+      <c r="G312" s="0" t="n">
         <v>-27.3</v>
       </c>
-      <c r="H312" t="n">
+      <c r="H312" s="0" t="n">
         <v>-24.3</v>
       </c>
-      <c r="I312" t="n">
+      <c r="I312" s="0" t="n">
         <v>-34.9</v>
       </c>
-      <c r="J312" t="n">
+      <c r="J312" s="0" t="n">
         <v>-36.3</v>
       </c>
-      <c r="K312" t="n">
+      <c r="K312" s="0" t="n">
         <v>-31.6</v>
       </c>
-      <c r="L312" t="n">
+      <c r="L312" s="0" t="n">
         <v>-36</v>
       </c>
-      <c r="M312" t="n">
+      <c r="M312" s="0" t="n">
         <v>-29.5</v>
       </c>
-      <c r="N312" t="n">
+      <c r="N312" s="0" t="n">
         <v>-18</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
         <v>46072</v>
+      </c>
+      <c r="B313" t="n">
+        <v>-27.1</v>
+      </c>
+      <c r="C313" t="n">
+        <v>-25.7</v>
+      </c>
+      <c r="D313" t="n">
+        <v>-28.2</v>
+      </c>
+      <c r="E313" t="n">
+        <v>-28</v>
+      </c>
+      <c r="F313" t="n">
+        <v>-30.1</v>
+      </c>
+      <c r="G313" t="n">
+        <v>-20.2</v>
+      </c>
+      <c r="H313" t="n">
+        <v>-22.2</v>
+      </c>
+      <c r="I313" t="n">
+        <v>-26.8</v>
+      </c>
+      <c r="J313" t="n">
+        <v>-27.8</v>
+      </c>
+      <c r="K313" t="n">
+        <v>-14.8</v>
+      </c>
+      <c r="L313" t="n">
+        <v>-28</v>
+      </c>
+      <c r="M313" t="n">
+        <v>-21.9</v>
+      </c>
+      <c r="N313" t="n">
+        <v>-15</v>
       </c>
     </row>
     <row r="314">
@@ -28989,49 +29028,88 @@
       <c r="A312" s="1" t="n">
         <v>46071</v>
       </c>
-      <c r="B312" t="n">
+      <c r="B312" s="0" t="n">
         <v>-23.7</v>
       </c>
-      <c r="C312" t="n">
+      <c r="C312" s="0" t="n">
         <v>-22.9</v>
       </c>
-      <c r="D312" t="n">
+      <c r="D312" s="0" t="n">
         <v>-19.8</v>
       </c>
-      <c r="E312" t="n">
+      <c r="E312" s="0" t="n">
         <v>-19.3</v>
       </c>
-      <c r="F312" t="n">
+      <c r="F312" s="0" t="n">
         <v>-20.3</v>
       </c>
-      <c r="G312" t="n">
+      <c r="G312" s="0" t="n">
         <v>-11.8</v>
       </c>
-      <c r="H312" t="n">
+      <c r="H312" s="0" t="n">
         <v>-8.199999999999999</v>
       </c>
-      <c r="I312" t="n">
+      <c r="I312" s="0" t="n">
         <v>-21.7</v>
       </c>
-      <c r="J312" t="n">
+      <c r="J312" s="0" t="n">
         <v>-18</v>
       </c>
-      <c r="K312" t="n">
+      <c r="K312" s="0" t="n">
         <v>-6</v>
       </c>
-      <c r="L312" t="n">
+      <c r="L312" s="0" t="n">
         <v>-17.8</v>
       </c>
-      <c r="M312" t="n">
+      <c r="M312" s="0" t="n">
         <v>-12</v>
       </c>
-      <c r="N312" t="n">
+      <c r="N312" s="0" t="n">
         <v>-3</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
         <v>46072</v>
+      </c>
+      <c r="B313" t="n">
+        <v>-21.8</v>
+      </c>
+      <c r="C313" t="n">
+        <v>-20.6</v>
+      </c>
+      <c r="D313" t="n">
+        <v>-15.5</v>
+      </c>
+      <c r="E313" t="n">
+        <v>-9.800000000000001</v>
+      </c>
+      <c r="F313" t="n">
+        <v>-13.5</v>
+      </c>
+      <c r="G313" t="n">
+        <v>-4.7</v>
+      </c>
+      <c r="H313" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="I313" t="n">
+        <v>-17.7</v>
+      </c>
+      <c r="J313" t="n">
+        <v>-9.6</v>
+      </c>
+      <c r="K313" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="L313" t="n">
+        <v>-11.3</v>
+      </c>
+      <c r="M313" t="n">
+        <v>-2.3</v>
+      </c>
+      <c r="N313" t="n">
+        <v>1.6</v>
       </c>
     </row>
     <row r="314">
@@ -32983,59 +33061,108 @@
       <c r="A70" s="1" t="n">
         <v>46071</v>
       </c>
-      <c r="B70" t="n">
+      <c r="B70" s="0" t="n">
         <v>-30.56</v>
       </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="H70" t="n">
+      <c r="C70" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="D70" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E70" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="F70" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G70" s="0" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="H70" s="0" t="n">
         <v>-17.69</v>
       </c>
-      <c r="I70" t="n">
+      <c r="I70" s="0" t="n">
         <v>-27.84</v>
       </c>
-      <c r="J70" t="n">
+      <c r="J70" s="0" t="n">
         <v>-28.19</v>
       </c>
-      <c r="K70" t="n">
+      <c r="K70" s="0" t="n">
         <v>-19.7</v>
       </c>
-      <c r="L70" t="n">
+      <c r="L70" s="0" t="n">
         <v>-28.75</v>
       </c>
-      <c r="M70" t="n">
+      <c r="M70" s="0" t="n">
         <v>-21.1</v>
       </c>
-      <c r="N70" t="n">
+      <c r="N70" s="0" t="n">
         <v>-10.85</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>46072</v>
+      </c>
+      <c r="B71" t="n">
+        <v>-24.29</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>-13.54</v>
+      </c>
+      <c r="I71" t="n">
+        <v>-24.11</v>
+      </c>
+      <c r="J71" t="n">
+        <v>-17.74</v>
+      </c>
+      <c r="K71" t="n">
+        <v>-2.99</v>
+      </c>
+      <c r="L71" t="n">
+        <v>-20.77</v>
+      </c>
+      <c r="M71" t="n">
+        <v>-14.54</v>
+      </c>
+      <c r="N71" t="n">
+        <v>-7.94</v>
       </c>
     </row>
     <row r="72">
